--- a/剧情梳理.xlsx
+++ b/剧情梳理.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjy/Desktop/workspace/myself/剪辑/文件、文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjy/Desktop/workspace/myself/剪辑/文件、文档/clip-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFE8737-F921-0D4F-BC8E-18A7680E7D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE785F49-3BC7-B04A-9BB6-A2FCCFCC782B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="146">
   <si>
     <t>点位开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,18 +565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19:24'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:01'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食堂阿姨为防止学生浪费食物，每勺都抖两下，姚从良嘴甜叫姐姐无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>午饭/反转</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -586,6 +574,43 @@
   </si>
   <si>
     <t>陈末、姚从良、食堂阿姨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:47'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食堂阿姨为防止学生浪费食物，每勺都抖两下，姚从良嘴甜叫姐姐，姐姐：嘴甜？没有用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26:30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟要和于贝贝抢同桌（ps：赵小雨和于贝贝也是闺蜜）
+敢惦记我的人，他要是敢欺负你，我720度托马斯回旋踢踢死他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换同桌/闺蜜被抢/放狠话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护短/闺蜜情深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨、于贝贝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +657,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -653,6 +678,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4747FC86-DF5D-2841-9DD6-180987C4218D}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1571,25 +1599,51 @@
         <v>44</v>
       </c>
       <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C23" t="s">
+      <c r="F23" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="D23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="G23" t="s">
         <v>95</v>
       </c>
       <c r="J23" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="34">
+      <c r="A24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" t="s">
+        <v>144</v>
+      </c>
+      <c r="J24" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/剧情梳理.xlsx
+++ b/剧情梳理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjy/Desktop/workspace/myself/剪辑/文件、文档/clip-excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\自媒体\clip-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE785F49-3BC7-B04A-9BB6-A2FCCFCC782B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9059FC-F37B-475E-93FD-A0FD775020F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
   </bookViews>
   <sheets>
     <sheet name="教室的那一间" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="264">
   <si>
     <t>点位开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -589,10 +589,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>26:30'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>苏舟要和于贝贝抢同桌（ps：赵小雨和于贝贝也是闺蜜）
 敢惦记我的人，他要是敢欺负你，我720度托马斯回旋踢踢死他</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -611,6 +607,482 @@
   </si>
   <si>
     <t>赵小雨、于贝贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26:35'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26:40'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27:24'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟兄弟（女）对他在别人面前称呼他为兄弟感到介怀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙滩散步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗恋/抱怨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙滩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟、小兄弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27:38'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29:50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教室外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高兴/甜蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情侣和好/浪漫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郝斌制造浪漫氛围求梁悦原谅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31:10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一季/第三集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04:27'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨买本子和笔悟出座右铭（每个都有生命）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书店买书，笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04:45'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05:15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05:23'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨莫名对自己的条件自信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书店买书/自我条件优越</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自恋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06:43'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末化学课上顶撞老师，被请家长，三小只谈论被请家长的惨状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请家长/下午茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哭诉/同病相怜/壮烈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小吃店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:00'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:37'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:43'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟兄弟（女）霸气护食，只为苏舟不买单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸气/护食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、姚从良、苏舟、苏舟小兄弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全班抢座大战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抢座/倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激动/欢乐/甜蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:45‘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28:04'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨所著小说借闺蜜，被老师发现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课/写小说被发现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尴尬/害怕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全班、老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29:00'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课/写小说被发现/为爱出头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇敢/责任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全班、老师、赵小雨、陈末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全班、老师、于贝贝、赵小雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨所著小说借闺蜜，被老师发现、陈末为爱承认，承担责任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25:03'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26:20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末被叫家长，班主任只为给他上上弦，竟然说了一大推好话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫家长/上弦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忐忑/莫名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师办公室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班主任，陈爸、陈末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一季/第四集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02:45'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04:30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04:40'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡女侠霸气宣言，姚从良要是欺负你，告诉我，我帮你收拾他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡女侠、苏舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食堂吃饭/护食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:35'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末杂志失踪，从赵小雨包中找到一个姨妈巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放学/杂志失踪/翻同桌包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尴尬/着急/懵逼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放学/校霸欺凌/为朋友两肋插刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>害怕/信心/复杂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、姚从良、校霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良被校霸欺负，陈末勇敢出头，结局很亮眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:40'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27:05'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3小只被校霸欺凌，被迫出手，有事兄弟一起抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勒索/兄弟情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟齐心/勇敢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奋起反抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、姚从良、苏舟、校霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30:10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30:15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔现/咖啡馆等待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忐忑/期待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于丹丹、赵小雨、网友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝网恋奔现（杀马特、劲舞团）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32:30’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34:00'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打架之后/咖啡馆里上药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜蜜/护食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟、胡女侠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟打架和胡女侠独处上药，苏舟累倒在胡女侠肩膀，苏舟背女侠回家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35:40'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一季/第五集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02:04'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇葩网友秀技术（杀马特，非主流，发型师）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔现/见网友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尴尬/嫌弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03:30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:35'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡安琪为苏舟辅导女同学吃醋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅导作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃醋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨、胡安琪、苏舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝球场打球，梁悦为郝斌‘初手（第一次牵女生手）’不在生气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>篮球场打球/男女朋友讨论初手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生气/无奈/莫名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>篮球场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:20'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +1090,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -657,7 +1129,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -681,6 +1153,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,25 +1471,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4747FC86-DF5D-2841-9DD6-180987C4218D}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="19.83203125" customWidth="1"/>
+    <col min="1" max="2" width="19.81640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="91" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="26.1796875" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="10" max="10" width="34.36328125" customWidth="1"/>
+    <col min="11" max="11" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1050,7 +1525,7 @@
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="51">
+    <row r="2" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1079,7 +1554,7 @@
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1105,7 +1580,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1131,7 +1606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1157,7 +1632,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1183,7 +1658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>44</v>
       </c>
@@ -1207,7 +1682,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
@@ -1233,7 +1708,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
@@ -1259,7 +1734,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
@@ -1285,7 +1760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
@@ -1311,7 +1786,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -1337,7 +1812,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -1363,7 +1838,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
@@ -1389,7 +1864,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
@@ -1415,7 +1890,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>44</v>
       </c>
@@ -1441,7 +1916,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>44</v>
       </c>
@@ -1467,7 +1942,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
@@ -1493,7 +1968,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
@@ -1516,7 +1991,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>44</v>
       </c>
@@ -1542,7 +2017,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
@@ -1568,7 +2043,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>44</v>
       </c>
@@ -1594,7 +2069,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
@@ -1620,34 +2095,535 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="34">
+    <row r="24" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" t="s">
         <v>143</v>
       </c>
-      <c r="G24" t="s">
+      <c r="J24" t="s">
         <v>144</v>
       </c>
-      <c r="J24" t="s">
-        <v>145</v>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" t="s">
+        <v>151</v>
+      </c>
+      <c r="J25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" t="s">
+        <v>165</v>
+      </c>
+      <c r="J28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" t="s">
+        <v>176</v>
+      </c>
+      <c r="J30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G33" t="s">
+        <v>205</v>
+      </c>
+      <c r="J33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" t="s">
+        <v>95</v>
+      </c>
+      <c r="J35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G37" t="s">
+        <v>143</v>
+      </c>
+      <c r="I37" t="s">
+        <v>225</v>
+      </c>
+      <c r="J37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G38" t="s">
+        <v>143</v>
+      </c>
+      <c r="I38" t="s">
+        <v>230</v>
+      </c>
+      <c r="J38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G39" t="s">
+        <v>236</v>
+      </c>
+      <c r="J39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G40" t="s">
+        <v>236</v>
+      </c>
+      <c r="J40" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="G41" t="s">
+        <v>236</v>
+      </c>
+      <c r="J41" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G43" t="s">
+        <v>262</v>
+      </c>
+      <c r="J43" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/剧情梳理.xlsx
+++ b/剧情梳理.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\自媒体\clip-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjy/Desktop/workspace/myself/剪辑/文件、文档/clip-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9059FC-F37B-475E-93FD-A0FD775020F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112F2B1A-A4CD-6042-AB74-B3E935CECCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
   </bookViews>
   <sheets>
     <sheet name="教室的那一间" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="362">
   <si>
     <t>点位开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
   </si>
   <si>
     <t>场景标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热点标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1083,6 +1079,403 @@
   </si>
   <si>
     <t>10:20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨、苏舟、陈末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末为苏舟辅导赵小雨吃醋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:25'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:22'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、姚从良篮球场打球被批，姚从良又出金句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>篮球场打球/被批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不爽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:46'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末因苏舟辅导赵小雨作业，作出承诺（各种批斗）自己回去花几分钟做完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承诺做出试卷/批评赵小雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自信/嫌弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:55'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末将试卷难题交给苏舟解决（又怕被赵小雨看不起，没给）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难题转交/良心发现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠结/后悔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学难题/参考答案/学渣解题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煎熬/逞强/后悔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学渣陈末为爱解数学题，奈何用参考答案也解不出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:40'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学渣陈末问教师爸爸问题，想到之前遭到爸爸’机关枪‘扫射，顿时打退堂鼓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找爸爸解决难题/打退堂鼓/机关枪扫射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>害怕/退缩/恨铁不成钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、陈爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找爸爸解决难题/鼓足勇气/机关枪扫射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24:20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思虑在三，学渣陈末还是决定接受'机关枪'扫射，然后又被扫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忐忑/气愤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24:40'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末为赵小雨解答难题（过程有点甜）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜蜜/暗恋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决难题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26:50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27:00'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末为爱痴狂（疯狂遭受‘机关枪’扫射）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂学习/机关枪扫射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、赵小雨、陈爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂/呆滞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28:30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一季/第六集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开心/满意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞美老师/朗读/夸赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨、于贝贝、梁悦、班主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班主任听学生朗读赞美老师文章，满心欢喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04:50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06:42'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:55'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨穿小西装看呆陈末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小西装出境/操场散步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗恋/信心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨、于贝贝、梁悦、苏舟、姚从良、陈末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝自行车被扎破轮胎，陈末自行车被偷的只剩下轮胎，陈末把仅剩的轮胎装在于贝贝车上
+于贝贝暗生情愫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行车被偷/为同学修车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗恋/热心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝、陈末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末自行车被偷，陈爸饭桌上批评陈末，遭陈妈吐槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭桌上/自行车被偷之后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可怜/母爱/父爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、陈爸、陈妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末在公交车偶遇赵小雨，赵小雨被人群冲挤，心疼死陈末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挤公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交车上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:36'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心疼/焦急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝借口师姐喜欢陈末，向姚从良打听陈末喜欢人的类型、事、物并叮嘱不能告诉陈末，姚从良反手就出卖于贝贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打听喜欢人的爱好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗恋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食堂、厕所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、姚从良、于贝贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25:10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26:59'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、姚从良上厕所迟到，于贝贝一脸春意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上厕所导致上课迟到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗恋/春心荡漾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打篮球/博同情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内篮球场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一季/第七集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02:40'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末为博得女生关注、打篮球故意装弱势，成功吸一大波粉，但看到赵小雨关心苏舟，心不在焉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可怜/暗恋/吃醋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、姚从良、于贝贝、赵小雨、苏舟、女粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05:00'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末打篮球成功吸男粉一枚，让赵小雨传递情书一封</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸粉/情书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失落/吃醋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教室/图书馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、赵小雨、学长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:54'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1090,7 +1483,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1471,27 +1864,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4747FC86-DF5D-2841-9DD6-180987C4218D}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="19.81640625" customWidth="1"/>
+    <col min="1" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="91" customWidth="1"/>
-    <col min="5" max="5" width="26.1796875" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
-    <col min="10" max="10" width="34.36328125" customWidth="1"/>
-    <col min="11" max="11" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="41.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1515,1110 +1908,1745 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="51">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="H3" t="s">
+        <v>321</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>321</v>
+      </c>
+      <c r="I5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>321</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
       <c r="E7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>321</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>321</v>
+      </c>
+      <c r="I8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>321</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="G10" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="H10" t="s">
+        <v>321</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>321</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>321</v>
+      </c>
+      <c r="I13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>321</v>
+      </c>
+      <c r="I14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>321</v>
+      </c>
+      <c r="I15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" t="s">
+        <v>321</v>
+      </c>
+      <c r="I16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" t="s">
+        <v>321</v>
+      </c>
+      <c r="I17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
         <v>111</v>
       </c>
-      <c r="G9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="E18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" t="s">
+        <v>321</v>
+      </c>
+      <c r="I18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" t="s">
+        <v>321</v>
+      </c>
+      <c r="I19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>321</v>
+      </c>
+      <c r="I20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" t="s">
+        <v>321</v>
+      </c>
+      <c r="I21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="F22" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>321</v>
+      </c>
+      <c r="I22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" t="s">
+        <v>321</v>
+      </c>
+      <c r="I23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="34">
+      <c r="A24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" t="s">
+        <v>321</v>
+      </c>
+      <c r="I24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17">
+      <c r="A25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" t="s">
+        <v>321</v>
+      </c>
+      <c r="I25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17">
+      <c r="A26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" t="s">
+        <v>321</v>
+      </c>
+      <c r="I26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17">
+      <c r="A27" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27" t="s">
+        <v>321</v>
+      </c>
+      <c r="I27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17">
+      <c r="A28" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" t="s">
+        <v>321</v>
+      </c>
+      <c r="I28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17">
+      <c r="A29" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" t="s">
+        <v>321</v>
+      </c>
+      <c r="I29" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="30" spans="1:9" ht="17">
+      <c r="A30" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" t="s">
+        <v>175</v>
+      </c>
+      <c r="H30" t="s">
+        <v>321</v>
+      </c>
+      <c r="I30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17">
+      <c r="A31" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>321</v>
+      </c>
+      <c r="I31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="17">
+      <c r="A32" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>321</v>
+      </c>
+      <c r="I32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17">
+      <c r="A33" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G33" t="s">
+        <v>204</v>
+      </c>
+      <c r="H33" t="s">
+        <v>321</v>
+      </c>
+      <c r="I33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17">
+      <c r="A34" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>321</v>
+      </c>
+      <c r="I34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17">
+      <c r="A35" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35" t="s">
         <v>94</v>
       </c>
-      <c r="D16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" t="s">
-        <v>102</v>
-      </c>
-      <c r="J17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" t="s">
-        <v>107</v>
-      </c>
-      <c r="J18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21" t="s">
-        <v>102</v>
-      </c>
-      <c r="J21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" t="s">
-        <v>95</v>
-      </c>
-      <c r="J23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="H35" t="s">
+        <v>321</v>
+      </c>
+      <c r="I35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17">
+      <c r="A36" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>321</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17">
+      <c r="A37" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G37" t="s">
         <v>142</v>
       </c>
-      <c r="G24" t="s">
-        <v>143</v>
-      </c>
-      <c r="J24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" t="s">
-        <v>151</v>
-      </c>
-      <c r="J25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" t="s">
-        <v>155</v>
-      </c>
-      <c r="J26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B27" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G27" t="s">
-        <v>165</v>
-      </c>
-      <c r="J27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B28" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G28" t="s">
-        <v>165</v>
-      </c>
-      <c r="J28" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G29" t="s">
-        <v>176</v>
-      </c>
-      <c r="J29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30" t="s">
-        <v>178</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="G30" t="s">
-        <v>176</v>
-      </c>
-      <c r="J30" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B32" t="s">
-        <v>189</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B33" t="s">
-        <v>200</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G33" t="s">
-        <v>205</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="H37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="17">
+      <c r="A38" s="4" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B34" t="s">
-        <v>208</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B35" t="s">
-        <v>209</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="G35" t="s">
-        <v>95</v>
-      </c>
-      <c r="J35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B36" t="s">
-        <v>214</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B37" t="s">
-        <v>219</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="G37" t="s">
-        <v>143</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="B38" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="J37" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="G38" t="s">
+        <v>142</v>
+      </c>
+      <c r="H38" t="s">
         <v>229</v>
-      </c>
-      <c r="G38" t="s">
-        <v>143</v>
       </c>
       <c r="I38" t="s">
         <v>230</v>
       </c>
-      <c r="J38" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:9" ht="17">
       <c r="A39" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="F39" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G39" t="s">
+        <v>235</v>
+      </c>
+      <c r="H39" t="s">
+        <v>321</v>
+      </c>
+      <c r="I39" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17">
+      <c r="A40" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F39" s="6" t="s">
+      <c r="C40" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G40" t="s">
         <v>235</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H40" t="s">
+        <v>321</v>
+      </c>
+      <c r="I40" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17">
+      <c r="A41" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G41" t="s">
+        <v>235</v>
+      </c>
+      <c r="H41" t="s">
+        <v>321</v>
+      </c>
+      <c r="I41" t="s">
         <v>236</v>
       </c>
-      <c r="J39" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C40" s="8" t="s">
+    </row>
+    <row r="42" spans="1:9" ht="17">
+      <c r="A42" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="G40" t="s">
-        <v>236</v>
-      </c>
-      <c r="J40" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C41" s="8" t="s">
+      <c r="B42" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="G41" t="s">
-        <v>236</v>
-      </c>
-      <c r="J41" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B42" s="8" t="s">
+      <c r="C42" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="E42" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>321</v>
+      </c>
+      <c r="I42" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17">
+      <c r="A43" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="C43" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G43" t="s">
+        <v>261</v>
+      </c>
+      <c r="H43" t="s">
+        <v>321</v>
+      </c>
+      <c r="I43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17">
+      <c r="A44" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C43" s="8" t="s">
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>321</v>
+      </c>
+      <c r="I44" t="s">
         <v>263</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G43" t="s">
-        <v>262</v>
-      </c>
-      <c r="J43" t="s">
-        <v>106</v>
+    </row>
+    <row r="45" spans="1:9" ht="17">
+      <c r="A45" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G45" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45" t="s">
+        <v>321</v>
+      </c>
+      <c r="I45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="17">
+      <c r="A46" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
+        <v>321</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="17">
+      <c r="A47" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G47" t="s">
+        <v>142</v>
+      </c>
+      <c r="H47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="17">
+      <c r="A48" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G48" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" t="s">
+        <v>321</v>
+      </c>
+      <c r="I48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17">
+      <c r="A49" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G49" t="s">
+        <v>289</v>
+      </c>
+      <c r="H49" t="s">
+        <v>321</v>
+      </c>
+      <c r="I49" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17">
+      <c r="A50" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H50" t="s">
+        <v>321</v>
+      </c>
+      <c r="I50" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17">
+      <c r="A51" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" t="s">
+        <v>321</v>
+      </c>
+      <c r="I51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="17">
+      <c r="A52" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" t="s">
+        <v>321</v>
+      </c>
+      <c r="I52" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="17">
+      <c r="A53" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G53" t="s">
+        <v>310</v>
+      </c>
+      <c r="H53" t="s">
+        <v>321</v>
+      </c>
+      <c r="I53" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="17">
+      <c r="A54" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G54" t="s">
+        <v>101</v>
+      </c>
+      <c r="H54" t="s">
+        <v>321</v>
+      </c>
+      <c r="I54" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="34">
+      <c r="A55" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G55" t="s">
+        <v>326</v>
+      </c>
+      <c r="H55" t="s">
+        <v>321</v>
+      </c>
+      <c r="I55" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="17">
+      <c r="A56" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G56" t="s">
+        <v>289</v>
+      </c>
+      <c r="H56" t="s">
+        <v>321</v>
+      </c>
+      <c r="I56" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="17">
+      <c r="A57" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G57" t="s">
+        <v>334</v>
+      </c>
+      <c r="H57" t="s">
+        <v>321</v>
+      </c>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="34">
+      <c r="A58" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G58" t="s">
+        <v>341</v>
+      </c>
+      <c r="H58" t="s">
+        <v>321</v>
+      </c>
+      <c r="I58" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="17">
+      <c r="A59" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" t="s">
+        <v>321</v>
+      </c>
+      <c r="I59" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="17">
+      <c r="A60" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G60" t="s">
+        <v>349</v>
+      </c>
+      <c r="H60" t="s">
+        <v>321</v>
+      </c>
+      <c r="I60" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="17">
+      <c r="A61" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G61" t="s">
+        <v>359</v>
+      </c>
+      <c r="H61" t="s">
+        <v>321</v>
+      </c>
+      <c r="I61" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/剧情梳理.xlsx
+++ b/剧情梳理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjy/Desktop/workspace/myself/剪辑/文件、文档/clip-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112F2B1A-A4CD-6042-AB74-B3E935CECCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E260AC19-6771-CF4D-BE3F-7CDE091800D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="461">
   <si>
     <t>点位开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -870,14 +870,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胡女侠霸气宣言，姚从良要是欺负你，告诉我，我帮你收拾他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡女侠、苏舟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>食堂吃饭/护食</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -995,14 +987,6 @@
   </si>
   <si>
     <t>甜蜜/护食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏舟、胡女侠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏舟打架和胡女侠独处上药，苏舟累倒在胡女侠肩膀，苏舟背女侠回家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1476,6 +1460,414 @@
   </si>
   <si>
     <t>07:54'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>学姐暗恋/父母追问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期待/失望/假装坦荡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小河边/客厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学姐、学姐男友、姚从良、陈末、陈爸、陈妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:07'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末误会学姐爱慕他，当看到学姐男友出现时，表情很无奈，回家被父母追问，回答心胸坦荡，父母不信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:40'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挤公交/保护暗恋对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗恋/责任心/保护欲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末挤公交再遇赵小雨被人群拥挤，默默站在背后挡住人群（当被暗恋的人脱掉裤子是什么体验）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00‘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:13'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末打球被李佳敏嘲笑和猴子一样，遭赵小雨报复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打球/报复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲笑/不忿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、赵小雨、李佳敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:27'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐公交/一起听歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨、陈末公交车’偶遇‘（陈末把新买的自信车锁在路边的树上），一起听歌(画面超甜)、然后又坐回去骑自行车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一季/第八集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02:20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求知/不厌其烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、赵小雨、数学老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06:10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨数学题难理解问老师，老师讲完，陈末看她一脸纠结的模样，反复提问老师
+老师感慨：这届学生太难带了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸气/害怕/弱小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡安琪、李佳敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吓唬/出头/李佳敏叫妈妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡安琪霸气宣言，姚从良要是欺负你，告诉我，我帮你收拾他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟、胡安琪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟打架和胡安琪独处上药，苏舟累倒在胡安琪肩膀，苏舟背胡安琪回家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡安琪、苏舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:56'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末嫌弃陈妈做的菜，遭陈妈'机关枪'扫射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机关枪扫射/饭菜不好吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫌弃/吐槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐桌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈妈、陈末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一季/第八集</t>
+  </si>
+  <si>
+    <t>16:30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈妈住院/请假上网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 担心/激动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网吧/医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈妈、陈末、姚从良、苏舟、陈爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一季/第九集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝一大早在教室空无一人的时候送陈末一盒巧克力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悄悄送巧克力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗恋/甜蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝为暗恋对象整理各种兴趣爱好、并为两人星座查询匹配度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理爱好/查询匹配度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝为暗恋对象了解科比当年各种数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看杂志/了解球星动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝、陈末、赵小雨、苏舟、姚从良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师解答难题/陈末反复提问
+老师讲题姿势销魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娘就对了/霸气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟公布参加学校座谈会三个名额，没有李佳敏，李佳敏起势就闹，被胡安琪看在眼中（咬牙切齿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咬牙切齿/怨恨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟、李佳敏、胡安琪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝旁敲侧击闺蜜对陈末的印象，当闺蜜说了一大堆陈末好话时，醋都倒多了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闺蜜谈心/吃饭</t>
+  </si>
+  <si>
+    <t>闺蜜谈心/吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗恋/吃醋</t>
+  </si>
+  <si>
+    <t>暗恋/吃醋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小饭馆</t>
+  </si>
+  <si>
+    <t>小饭馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝、赵小雨</t>
+  </si>
+  <si>
+    <t>于贝贝、赵小雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:03'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:35'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06:40'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天/偷看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝、陈末、赵小雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06:50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:48'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨吃饭吐槽语文课老师勾起她吃饭的欲望(北冥有鱼--烤鱼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:02'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭/吐槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、赵小雨在座位上说说笑笑、看酸于贝贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟、陈末网吧两连坐，被隔壁小学生完虐，嚣张死两位小朋友了，天道有轮回，两个小朋友被父母抓走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡安琪为苏舟出头，恐吓李佳敏，李佳敏要戳死胡安琪（女生不可以打男生的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:59'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:50',12:32'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:48', 13:00'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:40'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:32'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">陈末自习请假上网看动作片（借口：妈妈生病住院），没想到真的应验了（陈妈很迷信 19:00' - 20:20') </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一季/第七集（暂时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:25'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、姚从良比谁尿的远，输的人请假去网吧占位置，结果尿到教导主任身上，结果被罚打扫厕所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛/被罚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郁闷/难受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校厕所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良、陈末、苏舟、教导主任</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1483,7 +1875,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1496,6 +1888,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1522,7 +1922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1548,6 +1948,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1864,10 +2276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4747FC86-DF5D-2841-9DD6-180987C4218D}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1966,7 +2378,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
@@ -1995,7 +2407,7 @@
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I4" t="s">
         <v>21</v>
@@ -2024,7 +2436,7 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I5" t="s">
         <v>105</v>
@@ -2053,7 +2465,7 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I6" t="s">
         <v>21</v>
@@ -2080,7 +2492,7 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I7" t="s">
         <v>46</v>
@@ -2109,7 +2521,7 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I8" t="s">
         <v>53</v>
@@ -2138,7 +2550,7 @@
         <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I9" t="s">
         <v>58</v>
@@ -2167,7 +2579,7 @@
         <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I10" t="s">
         <v>40</v>
@@ -2196,7 +2608,7 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I11" t="s">
         <v>66</v>
@@ -2225,7 +2637,7 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I12" t="s">
         <v>66</v>
@@ -2254,7 +2666,7 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I13" t="s">
         <v>66</v>
@@ -2283,7 +2695,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I14" t="s">
         <v>84</v>
@@ -2312,7 +2724,7 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I15" t="s">
         <v>90</v>
@@ -2341,7 +2753,7 @@
         <v>94</v>
       </c>
       <c r="H16" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I16" t="s">
         <v>95</v>
@@ -2370,7 +2782,7 @@
         <v>101</v>
       </c>
       <c r="H17" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I17" t="s">
         <v>102</v>
@@ -2399,7 +2811,7 @@
         <v>106</v>
       </c>
       <c r="H18" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I18" t="s">
         <v>105</v>
@@ -2425,7 +2837,7 @@
         <v>94</v>
       </c>
       <c r="H19" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I19" t="s">
         <v>112</v>
@@ -2454,7 +2866,7 @@
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I20" t="s">
         <v>119</v>
@@ -2483,7 +2895,7 @@
         <v>101</v>
       </c>
       <c r="H21" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I21" t="s">
         <v>102</v>
@@ -2512,7 +2924,7 @@
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I22" t="s">
         <v>102</v>
@@ -2541,7 +2953,7 @@
         <v>94</v>
       </c>
       <c r="H23" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I23" t="s">
         <v>135</v>
@@ -2570,7 +2982,7 @@
         <v>142</v>
       </c>
       <c r="H24" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I24" t="s">
         <v>143</v>
@@ -2599,7 +3011,7 @@
         <v>150</v>
       </c>
       <c r="H25" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I25" t="s">
         <v>151</v>
@@ -2628,7 +3040,7 @@
         <v>154</v>
       </c>
       <c r="H26" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I26" t="s">
         <v>105</v>
@@ -2657,7 +3069,7 @@
         <v>164</v>
       </c>
       <c r="H27" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I27" t="s">
         <v>143</v>
@@ -2686,7 +3098,7 @@
         <v>164</v>
       </c>
       <c r="H28" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I28" t="s">
         <v>143</v>
@@ -2715,7 +3127,7 @@
         <v>175</v>
       </c>
       <c r="H29" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I29" t="s">
         <v>66</v>
@@ -2744,7 +3156,7 @@
         <v>175</v>
       </c>
       <c r="H30" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I30" t="s">
         <v>182</v>
@@ -2773,7 +3185,7 @@
         <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I31" t="s">
         <v>192</v>
@@ -2802,7 +3214,7 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I32" t="s">
         <v>197</v>
@@ -2831,7 +3243,7 @@
         <v>204</v>
       </c>
       <c r="H33" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I33" t="s">
         <v>205</v>
@@ -2860,7 +3272,7 @@
         <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I34" t="s">
         <v>196</v>
@@ -2877,10 +3289,10 @@
         <v>209</v>
       </c>
       <c r="D35" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>181</v>
@@ -2889,10 +3301,10 @@
         <v>94</v>
       </c>
       <c r="H35" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I35" t="s">
-        <v>211</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="17">
@@ -2900,25 +3312,25 @@
         <v>206</v>
       </c>
       <c r="B36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="F36" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>216</v>
       </c>
       <c r="G36" t="s">
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I36" t="s">
         <v>21</v>
@@ -2929,28 +3341,28 @@
         <v>206</v>
       </c>
       <c r="B37" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="G37" t="s">
         <v>142</v>
       </c>
       <c r="H37" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="17">
@@ -2958,28 +3370,28 @@
         <v>206</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="F38" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="G38" t="s">
         <v>142</v>
       </c>
       <c r="H38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="17">
@@ -2987,28 +3399,28 @@
         <v>206</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E39" s="6" t="s">
+      <c r="G39" t="s">
         <v>233</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="H39" t="s">
+        <v>317</v>
+      </c>
+      <c r="I39" t="s">
         <v>234</v>
-      </c>
-      <c r="G39" t="s">
-        <v>235</v>
-      </c>
-      <c r="H39" t="s">
-        <v>321</v>
-      </c>
-      <c r="I39" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="17">
@@ -3016,112 +3428,112 @@
         <v>206</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>241</v>
-      </c>
       <c r="G40" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H40" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I40" t="s">
-        <v>242</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="17">
       <c r="A41" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>249</v>
-      </c>
       <c r="G41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H41" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="17">
       <c r="A42" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I42" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="17">
       <c r="A43" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G43" t="s">
         <v>257</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="G43" t="s">
-        <v>261</v>
-      </c>
       <c r="H43" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I43" t="s">
         <v>105</v>
@@ -3129,57 +3541,57 @@
     </row>
     <row r="44" spans="1:9" ht="17">
       <c r="A44" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I44" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="17">
       <c r="A45" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>80</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G45" t="s">
         <v>101</v>
       </c>
       <c r="H45" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I45" t="s">
         <v>42</v>
@@ -3187,28 +3599,28 @@
     </row>
     <row r="46" spans="1:9" ht="17">
       <c r="A46" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>275</v>
-      </c>
       <c r="D46" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G46" t="s">
         <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
@@ -3216,28 +3628,28 @@
     </row>
     <row r="47" spans="1:9" ht="17">
       <c r="A47" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C47" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="G47" t="s">
         <v>142</v>
       </c>
       <c r="H47" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I47" t="s">
         <v>66</v>
@@ -3245,7 +3657,7 @@
     </row>
     <row r="48" spans="1:9" ht="17">
       <c r="A48" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>128</v>
@@ -3254,19 +3666,19 @@
         <v>136</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G48" t="s">
         <v>57</v>
       </c>
       <c r="H48" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I48" t="s">
         <v>40</v>
@@ -3274,86 +3686,86 @@
     </row>
     <row r="49" spans="1:9" ht="17">
       <c r="A49" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="G49" t="s">
         <v>285</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="H49" t="s">
+        <v>317</v>
+      </c>
+      <c r="I49" t="s">
         <v>286</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="G49" t="s">
-        <v>289</v>
-      </c>
-      <c r="H49" t="s">
-        <v>321</v>
-      </c>
-      <c r="I49" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="17">
       <c r="A50" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>295</v>
-      </c>
       <c r="G50" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H50" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I50" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="17">
       <c r="A51" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>300</v>
-      </c>
       <c r="D51" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I51" t="s">
         <v>21</v>
@@ -3361,123 +3773,123 @@
     </row>
     <row r="52" spans="1:9" ht="17">
       <c r="A52" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B52" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>301</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="G52" t="s">
         <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I52" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="17">
       <c r="A53" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G53" t="s">
+        <v>306</v>
+      </c>
+      <c r="H53" t="s">
+        <v>317</v>
+      </c>
+      <c r="I53" t="s">
         <v>307</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="G53" t="s">
-        <v>310</v>
-      </c>
-      <c r="H53" t="s">
-        <v>321</v>
-      </c>
-      <c r="I53" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="17">
       <c r="A54" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G54" t="s">
         <v>101</v>
       </c>
       <c r="H54" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I54" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="34">
       <c r="A55" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G55" t="s">
         <v>322</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D55" s="7" t="s">
+      <c r="H55" t="s">
+        <v>317</v>
+      </c>
+      <c r="I55" t="s">
         <v>323</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="G55" t="s">
-        <v>326</v>
-      </c>
-      <c r="H55" t="s">
-        <v>321</v>
-      </c>
-      <c r="I55" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="17">
       <c r="A56" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>92</v>
@@ -3486,48 +3898,48 @@
         <v>132</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G56" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H56" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I56" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="17">
       <c r="A57" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E57" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="F57" s="6" t="s">
-        <v>337</v>
-      </c>
       <c r="G57" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H57" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I57" t="s">
         <v>21</v>
@@ -3535,118 +3947,611 @@
     </row>
     <row r="58" spans="1:9" ht="34">
       <c r="A58" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D58" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="G58" t="s">
+        <v>337</v>
+      </c>
+      <c r="H58" t="s">
+        <v>317</v>
+      </c>
+      <c r="I58" t="s">
         <v>338</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="G58" t="s">
-        <v>341</v>
-      </c>
-      <c r="H58" t="s">
-        <v>321</v>
-      </c>
-      <c r="I58" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="17">
       <c r="A59" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I59" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="17">
       <c r="A60" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G60" t="s">
+        <v>345</v>
+      </c>
+      <c r="H60" t="s">
+        <v>317</v>
+      </c>
+      <c r="I60" t="s">
         <v>350</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="G60" t="s">
-        <v>349</v>
-      </c>
-      <c r="H60" t="s">
-        <v>321</v>
-      </c>
-      <c r="I60" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="17">
       <c r="A61" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B61" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G61" t="s">
         <v>355</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="H61" t="s">
+        <v>317</v>
+      </c>
+      <c r="I61" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B62" t="s">
+        <v>316</v>
+      </c>
+      <c r="C62" t="s">
+        <v>363</v>
+      </c>
+      <c r="D62" t="s">
+        <v>364</v>
+      </c>
+      <c r="E62" t="s">
+        <v>359</v>
+      </c>
+      <c r="F62" t="s">
+        <v>360</v>
+      </c>
+      <c r="G62" t="s">
         <v>361</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="F61" s="6" t="s">
+      <c r="H62" t="s">
         <v>358</v>
       </c>
-      <c r="G61" t="s">
-        <v>359</v>
-      </c>
-      <c r="H61" t="s">
-        <v>321</v>
-      </c>
-      <c r="I61" t="s">
-        <v>360</v>
+      <c r="I62" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B63" t="s">
+        <v>365</v>
+      </c>
+      <c r="C63" t="s">
+        <v>370</v>
+      </c>
+      <c r="D63" t="s">
+        <v>369</v>
+      </c>
+      <c r="E63" t="s">
+        <v>366</v>
+      </c>
+      <c r="F63" t="s">
+        <v>368</v>
+      </c>
+      <c r="G63" t="s">
+        <v>367</v>
+      </c>
+      <c r="H63" t="s">
+        <v>358</v>
+      </c>
+      <c r="I63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B64" t="s">
+        <v>371</v>
+      </c>
+      <c r="C64" t="s">
+        <v>376</v>
+      </c>
+      <c r="D64" t="s">
+        <v>372</v>
+      </c>
+      <c r="E64" t="s">
+        <v>373</v>
+      </c>
+      <c r="F64" t="s">
+        <v>374</v>
+      </c>
+      <c r="G64" t="s">
+        <v>345</v>
+      </c>
+      <c r="H64" t="s">
+        <v>358</v>
+      </c>
+      <c r="I64" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B65" t="s">
+        <v>377</v>
+      </c>
+      <c r="C65" t="s">
+        <v>296</v>
+      </c>
+      <c r="D65" t="s">
+        <v>379</v>
+      </c>
+      <c r="E65" t="s">
+        <v>378</v>
+      </c>
+      <c r="F65" t="s">
+        <v>294</v>
+      </c>
+      <c r="G65" t="s">
+        <v>367</v>
+      </c>
+      <c r="H65" t="s">
+        <v>358</v>
+      </c>
+      <c r="I65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C66" t="s">
+        <v>413</v>
+      </c>
+      <c r="D66" t="s">
+        <v>416</v>
+      </c>
+      <c r="E66" t="s">
+        <v>417</v>
+      </c>
+      <c r="F66" t="s">
+        <v>294</v>
+      </c>
+      <c r="G66" t="s">
+        <v>94</v>
+      </c>
+      <c r="H66" t="s">
+        <v>358</v>
+      </c>
+      <c r="I66" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="34">
+      <c r="A67" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B67" t="s">
+        <v>381</v>
+      </c>
+      <c r="C67" t="s">
+        <v>384</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F67" t="s">
+        <v>382</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" t="s">
+        <v>358</v>
+      </c>
+      <c r="I67" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="C68" t="s">
+        <v>439</v>
+      </c>
+      <c r="D68" t="s">
+        <v>445</v>
+      </c>
+      <c r="E68" t="s">
+        <v>437</v>
+      </c>
+      <c r="F68" t="s">
+        <v>429</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" t="s">
+        <v>358</v>
+      </c>
+      <c r="I68" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C69" t="s">
+        <v>435</v>
+      </c>
+      <c r="D69" t="s">
+        <v>421</v>
+      </c>
+      <c r="E69" t="s">
+        <v>420</v>
+      </c>
+      <c r="F69" t="s">
+        <v>422</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" t="s">
+        <v>358</v>
+      </c>
+      <c r="I69" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C70" t="s">
+        <v>442</v>
+      </c>
+      <c r="D70" t="s">
+        <v>441</v>
+      </c>
+      <c r="E70" t="s">
+        <v>443</v>
+      </c>
+      <c r="F70" t="s">
+        <v>444</v>
+      </c>
+      <c r="G70" t="s">
+        <v>431</v>
+      </c>
+      <c r="H70" t="s">
+        <v>358</v>
+      </c>
+      <c r="I70" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C71" t="s">
+        <v>448</v>
+      </c>
+      <c r="D71" t="s">
+        <v>425</v>
+      </c>
+      <c r="E71" t="s">
+        <v>427</v>
+      </c>
+      <c r="F71" t="s">
+        <v>429</v>
+      </c>
+      <c r="G71" t="s">
+        <v>431</v>
+      </c>
+      <c r="H71" t="s">
+        <v>358</v>
+      </c>
+      <c r="I71" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C73" t="s">
+        <v>394</v>
+      </c>
+      <c r="D73" t="s">
+        <v>447</v>
+      </c>
+      <c r="E73" t="s">
+        <v>389</v>
+      </c>
+      <c r="F73" t="s">
+        <v>387</v>
+      </c>
+      <c r="G73" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" t="s">
+        <v>358</v>
+      </c>
+      <c r="I73" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" t="s">
+        <v>401</v>
+      </c>
+      <c r="D74" t="s">
+        <v>395</v>
+      </c>
+      <c r="E74" t="s">
+        <v>396</v>
+      </c>
+      <c r="F74" t="s">
+        <v>397</v>
+      </c>
+      <c r="G74" t="s">
+        <v>398</v>
+      </c>
+      <c r="H74" t="s">
+        <v>358</v>
+      </c>
+      <c r="I74" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D75" t="s">
+        <v>414</v>
+      </c>
+      <c r="E75" t="s">
+        <v>415</v>
+      </c>
+      <c r="F75" t="s">
+        <v>294</v>
+      </c>
+      <c r="G75" t="s">
+        <v>57</v>
+      </c>
+      <c r="H75" t="s">
+        <v>358</v>
+      </c>
+      <c r="I75" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/剧情梳理.xlsx
+++ b/剧情梳理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjy/Desktop/workspace/myself/剪辑/文件、文档/clip-excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\自媒体\clip-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E260AC19-6771-CF4D-BE3F-7CDE091800D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D00830-DE15-46D0-BE08-BC3584389D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
   </bookViews>
   <sheets>
     <sheet name="教室的那一间" sheetId="1" r:id="rId1"/>
@@ -1875,7 +1875,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2276,25 +2276,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4747FC86-DF5D-2841-9DD6-180987C4218D}">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="B65" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="19.83203125" customWidth="1"/>
+    <col min="1" max="2" width="19.81640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="91" customWidth="1"/>
-    <col min="5" max="5" width="35.5" customWidth="1"/>
+    <col min="5" max="5" width="35.453125" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="9" max="9" width="41.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="9" max="9" width="41.6328125" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="51">
+    <row r="2" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="34">
+    <row r="24" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>43</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>159</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>159</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>159</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>159</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>159</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>159</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>159</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>206</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>206</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="17">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>206</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="17">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>206</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="17">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>206</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="17">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>206</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>206</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="17">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>241</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="17">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>241</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="17">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>241</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="17">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>241</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="17">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>241</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="17">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>241</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="17">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>241</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="17">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>241</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="17">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>241</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="17">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>241</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="17">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>241</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="17">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>241</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="17">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>303</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="17">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>303</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="34">
+    <row r="55" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>303</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="17">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>303</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="17">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>303</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="34">
+    <row r="58" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>303</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="17">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>303</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="17">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>346</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="17">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>346</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>346</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>346</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>346</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>346</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>454</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="34">
+    <row r="67" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>380</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>380</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>380</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>380</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>380</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>400</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>380</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>380</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>380</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>400</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>400</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>407</v>
       </c>
@@ -4552,6 +4552,11 @@
       </c>
       <c r="I78" s="11" t="s">
         <v>412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/剧情梳理.xlsx
+++ b/剧情梳理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\自媒体\clip-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D00830-DE15-46D0-BE08-BC3584389D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0DF658-DCBF-42EC-8B96-9636E6F692A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="503">
   <si>
     <t>点位开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1662,27 +1662,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3:30'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于贝贝一大早在教室空无一人的时候送陈末一盒巧克力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悄悄送巧克力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暗恋/甜蜜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>于贝贝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1843,10 +1827,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一季/第七集（暂时）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>23:25'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1868,6 +1848,194 @@
   </si>
   <si>
     <t>姚从良、陈末、苏舟、教导主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:03'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不作死就不会死，陈末约人环城骑行，还和陈妈口花花（陈妈迷信原因），结果被堵在卧室不让出去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口花花/被堵卧室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懊恼/关爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝收作业，故意把两人的作业本放在一起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收作业/放一起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24:50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:45'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:14'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25:09'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:40'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02:50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问医生注意事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个医生有点高冷，有点难沟通、话没法接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高冷/着急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生、陈末、陈爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03:15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝、陈末、姚从良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初中同学变暴发户，出门炫耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炫耀/嫉妒/鄙视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上学路上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、姚从良、苏舟、张德彪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06:10‘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴发户/偶遇/对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗恋/生气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悄悄送巧克力/被送别人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06:44'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝一大早在教室空无一人的时候送陈末一盒巧克力，送给姚从良，心里贼不爽（表情很亮眼）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:00'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末从新闻中看到悬赏，顿时有了想法（陈妈生病住院，连补品都买不起）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬赏新闻/设计寻找逃犯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅/食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自信/初生牛犊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:46'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、姚从良计划抓逃犯、于贝贝软磨硬泡要拉着赵小雨一起去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一起寻找逃犯/以前家住目的地附近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、姚从良、苏舟、赵小雨、于贝贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:31'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈爸帮陈末改善伙食、6菜1汤（6个罐头）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改善伙食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈爸、陈末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:07'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2276,10 +2444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4747FC86-DF5D-2841-9DD6-180987C4218D}">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B65" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4123,29 +4291,29 @@
       <c r="A64" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B64" t="s">
-        <v>371</v>
+      <c r="B64" s="5" t="s">
+        <v>467</v>
       </c>
       <c r="C64" t="s">
-        <v>376</v>
+        <v>136</v>
       </c>
       <c r="D64" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="E64" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="F64" t="s">
-        <v>374</v>
+        <v>294</v>
       </c>
       <c r="G64" t="s">
-        <v>345</v>
+        <v>94</v>
       </c>
       <c r="H64" t="s">
         <v>358</v>
       </c>
       <c r="I64" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -4153,57 +4321,57 @@
         <v>346</v>
       </c>
       <c r="B65" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C65" t="s">
-        <v>296</v>
+        <v>376</v>
       </c>
       <c r="D65" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E65" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F65" t="s">
-        <v>294</v>
+        <v>374</v>
       </c>
       <c r="G65" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="H65" t="s">
         <v>358</v>
       </c>
       <c r="I65" t="s">
-        <v>21</v>
+        <v>375</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>413</v>
+        <v>346</v>
+      </c>
+      <c r="B66" t="s">
+        <v>377</v>
       </c>
       <c r="C66" t="s">
-        <v>413</v>
+        <v>296</v>
       </c>
       <c r="D66" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="E66" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="F66" t="s">
         <v>294</v>
       </c>
       <c r="G66" t="s">
-        <v>94</v>
+        <v>367</v>
       </c>
       <c r="H66" t="s">
         <v>358</v>
       </c>
       <c r="I66" t="s">
-        <v>418</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
@@ -4220,7 +4388,7 @@
         <v>385</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F67" t="s">
         <v>382</v>
@@ -4240,19 +4408,19 @@
         <v>380</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C68" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D68" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E68" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F68" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G68" t="s">
         <v>11</v>
@@ -4261,7 +4429,7 @@
         <v>358</v>
       </c>
       <c r="I68" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -4269,19 +4437,19 @@
         <v>380</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C69" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D69" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E69" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G69" t="s">
         <v>11</v>
@@ -4290,7 +4458,7 @@
         <v>358</v>
       </c>
       <c r="I69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -4298,28 +4466,28 @@
         <v>380</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C70" t="s">
+        <v>438</v>
+      </c>
+      <c r="D70" t="s">
+        <v>437</v>
+      </c>
+      <c r="E70" t="s">
+        <v>439</v>
+      </c>
+      <c r="F70" t="s">
         <v>440</v>
       </c>
-      <c r="C70" t="s">
-        <v>442</v>
-      </c>
-      <c r="D70" t="s">
-        <v>441</v>
-      </c>
-      <c r="E70" t="s">
-        <v>443</v>
-      </c>
-      <c r="F70" t="s">
-        <v>444</v>
-      </c>
       <c r="G70" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H70" t="s">
         <v>358</v>
       </c>
       <c r="I70" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -4327,28 +4495,28 @@
         <v>380</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C71" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D71" t="s">
+        <v>421</v>
+      </c>
+      <c r="E71" t="s">
+        <v>423</v>
+      </c>
+      <c r="F71" t="s">
         <v>425</v>
       </c>
-      <c r="E71" t="s">
+      <c r="G71" t="s">
         <v>427</v>
-      </c>
-      <c r="F71" t="s">
-        <v>429</v>
-      </c>
-      <c r="G71" t="s">
-        <v>431</v>
       </c>
       <c r="H71" t="s">
         <v>358</v>
       </c>
       <c r="I71" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -4356,28 +4524,28 @@
         <v>400</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E72" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="G72" s="11" t="s">
         <v>426</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>430</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>358</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -4391,7 +4559,7 @@
         <v>394</v>
       </c>
       <c r="D73" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E73" t="s">
         <v>389</v>
@@ -4443,16 +4611,16 @@
         <v>380</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D75" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E75" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F75" t="s">
         <v>294</v>
@@ -4464,99 +4632,326 @@
         <v>358</v>
       </c>
       <c r="I75" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="D76" s="11" t="s">
+      <c r="A76" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="C76" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D76" t="s">
         <v>457</v>
       </c>
-      <c r="F76" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="G76" s="11" t="s">
+      <c r="E76" t="s">
         <v>459</v>
       </c>
-      <c r="H76" s="11" t="s">
+      <c r="F76" t="s">
+        <v>460</v>
+      </c>
+      <c r="G76" t="s">
+        <v>285</v>
+      </c>
+      <c r="H76" t="s">
         <v>358</v>
       </c>
-      <c r="I76" s="11" t="s">
-        <v>460</v>
+      <c r="I76" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="H77" s="11" t="s">
+      <c r="A77" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D77" t="s">
+        <v>461</v>
+      </c>
+      <c r="E77" t="s">
+        <v>462</v>
+      </c>
+      <c r="F77" t="s">
+        <v>408</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" t="s">
         <v>358</v>
       </c>
-      <c r="I77" s="11" t="s">
-        <v>406</v>
+      <c r="I77" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>402</v>
+        <v>463</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>11</v>
+        <v>454</v>
       </c>
       <c r="H78" s="11" t="s">
         <v>358</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B79">
-        <v>1</v>
+      <c r="A79" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>

--- a/剧情梳理.xlsx
+++ b/剧情梳理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\自媒体\clip-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjy/Desktop/workspace/myself/剪辑/文件、文档/clip-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0DF658-DCBF-42EC-8B96-9636E6F692A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C524ED-E3DD-974F-B82D-E62AA5F4BDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
   </bookViews>
   <sheets>
     <sheet name="教室的那一间" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="640">
   <si>
     <t>点位开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1931,10 +1931,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初中同学变暴发户，出门炫耀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>炫耀/嫉妒/鄙视</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1947,10 +1943,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>06:10‘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暴发户/偶遇/对比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2036,6 +2028,562 @@
   </si>
   <si>
     <t>11:07'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末在陈妈面前吐槽陈爸照顾不了自己，希望陈妈早点好起来
+（在边上唠叨的时候嫌弃，不在边上唠叨的时候想念，其实是关心）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初中同学变暴发户，出门炫耀，尽显暴发户本质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎碎念/医院探病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关心/吐槽/嫌弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈爸、陈末、陈妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:45'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安慰陈末早点回家/高冷医生不高冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生、陈末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安慰/担心/关心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生看陈末在医院呆着不回家，安慰陈末妈妈说没事，关心陈末，这还是那个高冷范的医生？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝准备出门抓逃犯（不知道的情况下），选衣服收拾半小时，像极了要出门情侣中的她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女生收拾半小时/出门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢慢/美美的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一季/第十集</t>
+  </si>
+  <si>
+    <t>第一季/第十集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02:30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点歌被发现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗恋/青涩/开心/疑惑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝电台点歌成功，被陈末发现（不确定是不是自己）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05:30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、赵小雨课间小憩，陈末睁眼看到微睡的赵小雨，甜蜜感满满，画面超美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课间小憩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗恋/青涩/超美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨、陈末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良分享想戴眼镜人的心声， 并从眼镜中又爆金句:近视不戴眼镜，全世界都是马赛克，5米以外雌雄难辨，10米以外六亲不认，15米以外人畜不分，想打蚊子都要找20分钟眼镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课间操/讨论眼镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝、姚从良</t>
+  </si>
+  <si>
+    <t>于贝贝、姚从良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专注/分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:45'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良把于贝贝给陈末带的早餐给于贝贝吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课间操/早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泄气/无奈/沮丧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:25'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郝斌讲述他和梁悦玩的游戏：两个人不理对方，谁先找谁说话就算输，郝斌一个礼拜没理梁悦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情侣小游戏/打篮球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫名/笑话/直男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郝斌、陈末、苏舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室外篮球场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:08'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良上课真掩耳盗铃：带上耳机，大声和同桌说你帮我看着点老师，我趴一会儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课听歌/叮嘱同桌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜感/瞌睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良、苏舟、数学老师、全班同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:02'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良第一次带隐形眼镜，死活带不上，甚至弄哭自己，然后被姚爸吐槽怎么看着镜子哭，丑哭了嘛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴隐形眼镜/被补刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良、姚爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>害怕/吐槽/补刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、苏舟早餐上同时夹住了同一块豆腐，但被胡安琪吓住放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃早餐/最后一块豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐摊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡安琪、苏舟、陈末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末提醒姚从良不要直接喝他喝过的豆浆，这样是间接接吻，胡安琪听罢趁无人注意时喝了一口苏舟的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝豆浆/间接接吻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸气/胆小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗恋/甜蜜/青涩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡安琪、苏舟、陈末、姚从良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:16'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现卡套/逼问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食堂/教室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨、陈末、于贝贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八卦/紧张/慌张/气势汹汹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨发现于贝贝缝制的卡套送给了陈末，险些被带偏，被发现喜欢上陈末，并向闺蜜透露心声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26:45'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05:10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末发现于贝贝留在赵小雨身边的情书，以为是她欲拒还迎，并偷偷傻乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现情书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窃喜/看破一切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06:00'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一季/第十一集</t>
+  </si>
+  <si>
+    <t>第一季/第十一集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:55'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良戴隐形眼镜发炎，于贝贝帮忙拿下来，姚从良激动到脚抽抽，仿佛到了春天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘隐形眼镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 激动/紧张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:55'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02:05'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做春梦/看电影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表白/开心/突然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03:32'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良做春梦和于贝贝看电影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06:58'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟和胡安琪透露要为了赵小雨去读文科，胡安琪猛女伤心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透露心声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享/伤心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校内小河边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:42'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末还在为赵小雨不给他情书纠结，当赵小雨翻东西时，心跳还加快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷乐/准备接收情书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自信/傻笑/心跳加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:40'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:25'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘚瑟/穷开心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭桌上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、陈妈、陈爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校赵小雨没给陈末情书，回到家中的陈末还在嘚瑟，像只斗胜的公鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:52'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝把情书交给陈末，陈末一度认为是赵小雨不好意思给他，当看到署名时，心凉了一截</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递情书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羞涩/低落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、于贝贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:26'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到情书之前和收到情书之后状态对比，像只斗败的公鸡，蔫儿不拉几，还要被陈爸吐槽成绩
+双重打击，那我走？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到情书之后/吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低落/无所谓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:31'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝陷入等待结果恐慌（写情书之后）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐慌/煎熬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待恐慌/胡思乱想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:06'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:40'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班主任开始解释自己的教育方式、解释高考的残酷性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班主任、全班同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感慨/共鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说教/统一思想/引发深思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26:05'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27:25'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谈心/付出一切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表白/喜欢你的喜欢/强颜欢笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31:30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡安琪睡梦中被苏舟叫醒，夜里谈心，表白苏舟，喜欢苏舟的喜欢，最后被当成开玩笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02:25'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自习停电又来电/班主任催促放学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校上晚自习时停电，教务处让放学，过会儿又来电，教务处让没放学的班级继续自习，
+高一三班的人一脸懵，班主任催学生们赶快放学（这么好的老师哪里找）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开心/失落/继续开心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班主任、全体同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03:40'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一季/第十二集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2043,7 +2591,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2090,7 +2638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2129,6 +2677,9 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2444,25 +2995,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4747FC86-DF5D-2841-9DD6-180987C4218D}">
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="19.81640625" customWidth="1"/>
+    <col min="1" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="91" customWidth="1"/>
-    <col min="5" max="5" width="35.453125" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
-    <col min="9" max="9" width="41.6328125" customWidth="1"/>
-    <col min="10" max="10" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="41.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2495,7 +3046,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="51">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -2523,7 +3074,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -2552,7 +3103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -2581,7 +3132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -2610,7 +3161,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -2639,7 +3190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -2666,7 +3217,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -2695,7 +3246,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -2724,7 +3275,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -2753,7 +3304,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
@@ -2782,7 +3333,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -2811,7 +3362,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -2840,7 +3391,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -2869,7 +3420,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -2898,7 +3449,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -2927,7 +3478,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -2956,7 +3507,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
@@ -2985,7 +3536,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -3011,7 +3562,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -3040,7 +3591,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -3069,7 +3620,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
@@ -3098,7 +3649,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
@@ -3127,7 +3678,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="34">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -3156,7 +3707,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="17">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
@@ -3185,7 +3736,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="17">
       <c r="A26" s="4" t="s">
         <v>43</v>
       </c>
@@ -3214,7 +3765,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="17">
       <c r="A27" s="4" t="s">
         <v>159</v>
       </c>
@@ -3243,7 +3794,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="17">
       <c r="A28" s="4" t="s">
         <v>159</v>
       </c>
@@ -3272,7 +3823,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="17">
       <c r="A29" s="4" t="s">
         <v>159</v>
       </c>
@@ -3301,7 +3852,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="17">
       <c r="A30" s="4" t="s">
         <v>159</v>
       </c>
@@ -3330,7 +3881,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="17">
       <c r="A31" s="4" t="s">
         <v>159</v>
       </c>
@@ -3359,7 +3910,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="17">
       <c r="A32" s="4" t="s">
         <v>159</v>
       </c>
@@ -3388,7 +3939,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="17">
       <c r="A33" s="4" t="s">
         <v>159</v>
       </c>
@@ -3417,7 +3968,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="17">
       <c r="A34" s="4" t="s">
         <v>206</v>
       </c>
@@ -3446,7 +3997,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="17">
       <c r="A35" s="4" t="s">
         <v>206</v>
       </c>
@@ -3475,7 +4026,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="17">
       <c r="A36" s="4" t="s">
         <v>206</v>
       </c>
@@ -3504,7 +4055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="17">
       <c r="A37" s="4" t="s">
         <v>206</v>
       </c>
@@ -3533,7 +4084,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="17">
       <c r="A38" s="4" t="s">
         <v>206</v>
       </c>
@@ -3562,7 +4113,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="17">
       <c r="A39" s="4" t="s">
         <v>206</v>
       </c>
@@ -3591,7 +4142,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="17">
       <c r="A40" s="4" t="s">
         <v>206</v>
       </c>
@@ -3620,7 +4171,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="17">
       <c r="A41" s="4" t="s">
         <v>241</v>
       </c>
@@ -3649,7 +4200,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="17">
       <c r="A42" s="4" t="s">
         <v>241</v>
       </c>
@@ -3678,7 +4229,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="17">
       <c r="A43" s="4" t="s">
         <v>241</v>
       </c>
@@ -3707,7 +4258,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="17">
       <c r="A44" s="4" t="s">
         <v>241</v>
       </c>
@@ -3736,7 +4287,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="17">
       <c r="A45" s="4" t="s">
         <v>241</v>
       </c>
@@ -3765,7 +4316,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="17">
       <c r="A46" s="4" t="s">
         <v>241</v>
       </c>
@@ -3794,7 +4345,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="17">
       <c r="A47" s="4" t="s">
         <v>241</v>
       </c>
@@ -3823,7 +4374,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="17">
       <c r="A48" s="4" t="s">
         <v>241</v>
       </c>
@@ -3852,7 +4403,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="17">
       <c r="A49" s="4" t="s">
         <v>241</v>
       </c>
@@ -3881,7 +4432,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="17">
       <c r="A50" s="4" t="s">
         <v>241</v>
       </c>
@@ -3910,7 +4461,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="17">
       <c r="A51" s="4" t="s">
         <v>241</v>
       </c>
@@ -3939,7 +4490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="17">
       <c r="A52" s="4" t="s">
         <v>241</v>
       </c>
@@ -3968,7 +4519,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="17">
       <c r="A53" s="4" t="s">
         <v>303</v>
       </c>
@@ -3997,7 +4548,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="17">
       <c r="A54" s="4" t="s">
         <v>303</v>
       </c>
@@ -4026,7 +4577,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="34">
       <c r="A55" s="4" t="s">
         <v>303</v>
       </c>
@@ -4055,7 +4606,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="17">
       <c r="A56" s="4" t="s">
         <v>303</v>
       </c>
@@ -4084,7 +4635,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="17">
       <c r="A57" s="4" t="s">
         <v>303</v>
       </c>
@@ -4113,7 +4664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="34">
       <c r="A58" s="4" t="s">
         <v>303</v>
       </c>
@@ -4142,7 +4693,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="17">
       <c r="A59" s="4" t="s">
         <v>303</v>
       </c>
@@ -4171,7 +4722,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="17">
       <c r="A60" s="4" t="s">
         <v>346</v>
       </c>
@@ -4200,7 +4751,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="17">
       <c r="A61" s="4" t="s">
         <v>346</v>
       </c>
@@ -4229,7 +4780,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
         <v>346</v>
       </c>
@@ -4258,7 +4809,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
         <v>346</v>
       </c>
@@ -4287,7 +4838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
         <v>346</v>
       </c>
@@ -4316,7 +4867,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
         <v>346</v>
       </c>
@@ -4345,7 +4896,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
         <v>346</v>
       </c>
@@ -4374,7 +4925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="34">
       <c r="A67" s="4" t="s">
         <v>380</v>
       </c>
@@ -4403,7 +4954,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
         <v>380</v>
       </c>
@@ -4432,7 +4983,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
         <v>380</v>
       </c>
@@ -4461,7 +5012,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
         <v>380</v>
       </c>
@@ -4490,7 +5041,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
         <v>380</v>
       </c>
@@ -4519,7 +5070,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="A72" s="9" t="s">
         <v>400</v>
       </c>
@@ -4548,7 +5099,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="A73" s="4" t="s">
         <v>380</v>
       </c>
@@ -4577,7 +5128,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="A74" s="4" t="s">
         <v>380</v>
       </c>
@@ -4606,7 +5157,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="4" t="s">
         <v>380</v>
       </c>
@@ -4635,7 +5186,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="A76" s="4" t="s">
         <v>380</v>
       </c>
@@ -4664,7 +5215,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="A77" s="4" t="s">
         <v>380</v>
       </c>
@@ -4693,7 +5244,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="A78" s="9" t="s">
         <v>400</v>
       </c>
@@ -4722,7 +5273,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9">
       <c r="A79" s="9" t="s">
         <v>400</v>
       </c>
@@ -4751,7 +5302,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="9" t="s">
         <v>407</v>
       </c>
@@ -4780,7 +5331,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9">
       <c r="A81" s="9" t="s">
         <v>407</v>
       </c>
@@ -4788,16 +5339,16 @@
         <v>246</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>11</v>
@@ -4809,7 +5360,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9">
       <c r="A82" s="9" t="s">
         <v>407</v>
       </c>
@@ -4817,48 +5368,48 @@
         <v>208</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>480</v>
+        <v>384</v>
       </c>
       <c r="D82" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="F82" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="E82" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="F82" s="11" t="s">
+      <c r="G82" s="11" t="s">
         <v>477</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>478</v>
       </c>
       <c r="H82" s="11" t="s">
         <v>358</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="9" t="s">
         <v>407</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>176</v>
       </c>
       <c r="D83" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G83" s="11" t="s">
         <v>487</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>489</v>
       </c>
       <c r="H83" s="11" t="s">
         <v>358</v>
@@ -4867,24 +5418,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9">
       <c r="A84" s="9" t="s">
         <v>407</v>
       </c>
       <c r="B84" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="E84" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="C84" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="D84" s="11" t="s">
+      <c r="F84" s="11" t="s">
         <v>492</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>494</v>
       </c>
       <c r="G84" s="11" t="s">
         <v>94</v>
@@ -4893,27 +5444,27 @@
         <v>358</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="9" t="s">
         <v>407</v>
       </c>
       <c r="B85" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="E85" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="C85" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="D85" s="11" t="s">
+      <c r="F85" s="11" t="s">
         <v>498</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>500</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>285</v>
@@ -4922,36 +5473,732 @@
         <v>358</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="34">
       <c r="A86" s="9" t="s">
         <v>407</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>497</v>
+        <v>386</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>498</v>
+        <v>506</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>501</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>285</v>
+        <v>472</v>
       </c>
       <c r="H86" s="11" t="s">
         <v>358</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>501</v>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="34">
+      <c r="A91" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I97" s="11" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I101" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="I105" s="11" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="34">
+      <c r="A106" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I106" s="11" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I107" s="11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I108" s="11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I109" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="34">
+      <c r="A110" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I110" s="11" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>

--- a/剧情梳理.xlsx
+++ b/剧情梳理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjy/Desktop/workspace/myself/剪辑/文件、文档/clip-excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\自媒体\clip-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C524ED-E3DD-974F-B82D-E62AA5F4BDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0E6F51-9525-4AE2-981B-28B874BB1CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
   </bookViews>
   <sheets>
     <sheet name="教室的那一间" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="692">
   <si>
     <t>点位开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2584,6 +2584,214 @@
   </si>
   <si>
     <t>第一季/第十二集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:45'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表白被拒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末拒绝于贝贝表白，你人很好，但还是做朋友吧，姚从良隔门偷听，听到被拒绝时，异常开心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难过/愧疚/开心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、于贝贝、姚从良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:04'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末拒绝于贝贝之后，赵小雨也不理陈末，当面坦白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:05'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末拒绝于贝贝之后，躲在凉亭哭泣，姚从良跑去直男安慰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表白被拒之后/哭泣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安慰/伤心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:25'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表白被拒之后/谈心/不想当渣男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一季/第十二集/十三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28:15'/04:06‘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25:50'/02:04'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一季/第十三集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04:25'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在看’生物书‘的姚从良，接到于贝贝的电话，听到要一起加油，以后做同学，拿起了必修课本-地理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接电话/刺激</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力向上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05:44'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨和苏舟考完试之后走在走廊上，后面站着两个落寞的身影（胡安琪、陈末）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落寞/吃味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教室外走廊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、赵小雨、苏舟、胡安琪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:55'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿着高跟鞋的于贝贝抓着姚从良，姚从良激动得心砰砰直跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿高跟鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝、姚从良偶遇卖花的小女孩，女孩儿频暴金句，噎死姚从良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尴尬/小觑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝、姚从良、卖花的小女孩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试之后对答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:18'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:40'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头疼/娘/逼问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师办公室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李佳敏、班主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考完试之后，李佳敏找班主任要求能不能把分班报名表修改一下（娘就完事儿了，一直哭，拿手绢擦眼泪）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男朋友约女朋友去家里（连手都没牵过），后飙金句（郝斌：牵个手怎么这么难）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试之后对/想修改分班报名表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男朋友想约女朋友去家里/牵手对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心痒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:54'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2591,7 +2799,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2995,25 +3203,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4747FC86-DF5D-2841-9DD6-180987C4218D}">
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="19.83203125" customWidth="1"/>
+    <col min="1" max="2" width="19.81640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="91" customWidth="1"/>
-    <col min="5" max="5" width="35.5" customWidth="1"/>
+    <col min="5" max="5" width="35.453125" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="9" max="9" width="41.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="9" max="9" width="41.6328125" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3046,7 +3254,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="51">
+    <row r="2" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -3074,7 +3282,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -3103,7 +3311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -3132,7 +3340,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -3161,7 +3369,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -3190,7 +3398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -3217,7 +3425,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -3246,7 +3454,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -3275,7 +3483,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -3304,7 +3512,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
@@ -3333,7 +3541,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -3362,7 +3570,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -3391,7 +3599,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -3420,7 +3628,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -3449,7 +3657,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -3478,7 +3686,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -3507,7 +3715,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
@@ -3536,7 +3744,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -3562,7 +3770,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -3591,7 +3799,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -3620,7 +3828,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
@@ -3649,7 +3857,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
@@ -3678,7 +3886,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="34">
+    <row r="24" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -3707,7 +3915,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
@@ -3736,7 +3944,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>43</v>
       </c>
@@ -3765,7 +3973,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>159</v>
       </c>
@@ -3794,7 +4002,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>159</v>
       </c>
@@ -3823,7 +4031,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>159</v>
       </c>
@@ -3852,7 +4060,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>159</v>
       </c>
@@ -3881,7 +4089,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>159</v>
       </c>
@@ -3910,7 +4118,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>159</v>
       </c>
@@ -3939,7 +4147,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>159</v>
       </c>
@@ -3968,7 +4176,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>206</v>
       </c>
@@ -3997,7 +4205,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>206</v>
       </c>
@@ -4026,7 +4234,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="17">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>206</v>
       </c>
@@ -4055,7 +4263,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="17">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>206</v>
       </c>
@@ -4084,7 +4292,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="17">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>206</v>
       </c>
@@ -4113,7 +4321,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="17">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>206</v>
       </c>
@@ -4142,7 +4350,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>206</v>
       </c>
@@ -4171,7 +4379,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="17">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>241</v>
       </c>
@@ -4200,7 +4408,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="17">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>241</v>
       </c>
@@ -4229,7 +4437,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="17">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>241</v>
       </c>
@@ -4258,7 +4466,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="17">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>241</v>
       </c>
@@ -4287,7 +4495,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="17">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>241</v>
       </c>
@@ -4316,7 +4524,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="17">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>241</v>
       </c>
@@ -4345,7 +4553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="17">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>241</v>
       </c>
@@ -4374,7 +4582,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="17">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>241</v>
       </c>
@@ -4403,7 +4611,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="17">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>241</v>
       </c>
@@ -4432,7 +4640,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="17">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>241</v>
       </c>
@@ -4461,7 +4669,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="17">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>241</v>
       </c>
@@ -4490,7 +4698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="17">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>241</v>
       </c>
@@ -4519,7 +4727,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="17">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>303</v>
       </c>
@@ -4548,7 +4756,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="17">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>303</v>
       </c>
@@ -4577,7 +4785,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="34">
+    <row r="55" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>303</v>
       </c>
@@ -4606,7 +4814,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="17">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>303</v>
       </c>
@@ -4635,7 +4843,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="17">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>303</v>
       </c>
@@ -4664,7 +4872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="34">
+    <row r="58" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>303</v>
       </c>
@@ -4693,7 +4901,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="17">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>303</v>
       </c>
@@ -4722,7 +4930,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="17">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>346</v>
       </c>
@@ -4751,7 +4959,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="17">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>346</v>
       </c>
@@ -4780,7 +4988,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>346</v>
       </c>
@@ -4809,7 +5017,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>346</v>
       </c>
@@ -4838,7 +5046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>346</v>
       </c>
@@ -4867,7 +5075,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>346</v>
       </c>
@@ -4896,7 +5104,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>346</v>
       </c>
@@ -4925,7 +5133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="34">
+    <row r="67" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>380</v>
       </c>
@@ -4954,7 +5162,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>380</v>
       </c>
@@ -4983,7 +5191,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>380</v>
       </c>
@@ -5012,7 +5220,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>380</v>
       </c>
@@ -5041,7 +5249,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>380</v>
       </c>
@@ -5070,7 +5278,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>400</v>
       </c>
@@ -5099,7 +5307,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>380</v>
       </c>
@@ -5128,7 +5336,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>380</v>
       </c>
@@ -5157,7 +5365,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>380</v>
       </c>
@@ -5186,7 +5394,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>380</v>
       </c>
@@ -5215,7 +5423,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>380</v>
       </c>
@@ -5244,7 +5452,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>400</v>
       </c>
@@ -5273,7 +5481,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>400</v>
       </c>
@@ -5302,7 +5510,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>407</v>
       </c>
@@ -5331,7 +5539,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>407</v>
       </c>
@@ -5360,7 +5568,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>407</v>
       </c>
@@ -5389,7 +5597,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>407</v>
       </c>
@@ -5418,7 +5626,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>407</v>
       </c>
@@ -5447,7 +5655,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>407</v>
       </c>
@@ -5476,7 +5684,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="34">
+    <row r="86" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>407</v>
       </c>
@@ -5505,7 +5713,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>407</v>
       </c>
@@ -5534,7 +5742,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>407</v>
       </c>
@@ -5563,111 +5771,111 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>517</v>
+        <v>407</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>518</v>
+        <v>668</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>521</v>
+        <v>669</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>519</v>
+        <v>670</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>520</v>
+        <v>671</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>57</v>
+        <v>629</v>
       </c>
       <c r="H89" s="11" t="s">
         <v>358</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>517</v>
+        <v>407</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>351</v>
+        <v>672</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>522</v>
+        <v>677</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>523</v>
+        <v>673</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>524</v>
+        <v>674</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>11</v>
+        <v>629</v>
       </c>
       <c r="H90" s="11" t="s">
         <v>358</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="34">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>517</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>528</v>
+        <v>246</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>521</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H91" s="11" t="s">
         <v>358</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>517</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>533</v>
+        <v>351</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>11</v>
@@ -5676,56 +5884,56 @@
         <v>358</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>517</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>539</v>
+        <v>55</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>543</v>
+        <v>11</v>
       </c>
       <c r="H93" s="11" t="s">
         <v>358</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>494</v>
+        <v>533</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>261</v>
+        <v>535</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>11</v>
@@ -5734,259 +5942,259 @@
         <v>358</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>83</v>
+        <v>544</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>57</v>
+        <v>543</v>
       </c>
       <c r="H95" s="11" t="s">
         <v>358</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>516</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>85</v>
+        <v>494</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>563</v>
+        <v>261</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>556</v>
+        <v>11</v>
       </c>
       <c r="H96" s="11" t="s">
         <v>358</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>516</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>556</v>
+        <v>57</v>
       </c>
       <c r="H97" s="11" t="s">
         <v>358</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>516</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>578</v>
+        <v>85</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>11</v>
+        <v>556</v>
       </c>
       <c r="H98" s="11" t="s">
         <v>358</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>516</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>104</v>
+        <v>564</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>570</v>
+        <v>91</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="H99" s="11" t="s">
         <v>358</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
-        <v>577</v>
+        <v>516</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>585</v>
+        <v>11</v>
       </c>
       <c r="H100" s="11" t="s">
         <v>358</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
-        <v>577</v>
+        <v>516</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>571</v>
+        <v>104</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>11</v>
+        <v>566</v>
       </c>
       <c r="H101" s="11" t="s">
         <v>358</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>577</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="H102" s="11" t="s">
         <v>358</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>577</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>11</v>
@@ -5998,198 +6206,198 @@
         <v>526</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>577</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="H104" s="11" t="s">
         <v>358</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>577</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>272</v>
+        <v>595</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>543</v>
+        <v>11</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>222</v>
+        <v>358</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="34">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>577</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>458</v>
+        <v>600</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>612</v>
+        <v>606</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>604</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>602</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="I106" s="11" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>577</v>
       </c>
       <c r="B107" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="I107" s="11" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I108" s="11" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C109" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="D107" s="11" t="s">
+      <c r="D109" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="E107" s="11" t="s">
+      <c r="E109" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="F107" s="11" t="s">
+      <c r="F109" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="G107" s="11" t="s">
+      <c r="G109" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H107" s="11" t="s">
+      <c r="H109" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="I107" s="11" t="s">
+      <c r="I109" s="11" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="9" t="s">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B110" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C110" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D110" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="E108" s="11" t="s">
+      <c r="E110" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="F108" s="11" t="s">
+      <c r="F110" s="11" t="s">
         <v>624</v>
-      </c>
-      <c r="G108" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H108" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="I108" s="11" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>631</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>630</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>629</v>
-      </c>
-      <c r="H109" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="I109" s="11" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="34">
-      <c r="A110" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>635</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>634</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>636</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>11</v>
@@ -6198,7 +6406,268 @@
         <v>358</v>
       </c>
       <c r="I110" s="11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I111" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A112" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I112" s="11" t="s">
         <v>637</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I113" s="11" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I114" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I115" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I116" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I117" s="11" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I118" s="11" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I119" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/剧情梳理.xlsx
+++ b/剧情梳理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\自媒体\clip-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjy/Desktop/workspace/myself/剪辑/文件、文档/clip-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0E6F51-9525-4AE2-981B-28B874BB1CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03D0E45-D8DC-C24D-92EB-E91CB5780B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
   </bookViews>
   <sheets>
     <sheet name="教室的那一间" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="786">
   <si>
     <t>点位开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2719,10 +2719,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>于贝贝、姚从良偶遇卖花的小女孩，女孩儿频暴金句，噎死姚从良</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>买花</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2792,6 +2788,386 @@
   </si>
   <si>
     <t>11:54'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一季/第十三集</t>
+  </si>
+  <si>
+    <t>12:23'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良约于贝贝要把欠的电影票补上，刚好陈末来电话还被看到在桥头有说有笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要把欠的电影票补上/打电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落寞/开心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校河边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝、姚从良、陈末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:35'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:48'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏妈发现苏舟包里的牛奶，坦白从没让胡安琪带牛奶给苏舟，苏舟回忆起和胡安琪的点点滴滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶引起的回忆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟、苏妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感伤/想不到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:22'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈爸对陈妈’随便你‘的解析，引发陈末对赵小雨的’随便你‘深思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析随便你三个字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豁然开朗/激动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:56'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟通过随身听录音的方式表白赵小雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:39'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表白</t>
+  </si>
+  <si>
+    <t>表白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忐忑/激动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:42'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末半夜通过日历（把所有想说的话写在纸上，一页一页翻）方式表白赵小雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忐忑/激动/浪漫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家门口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24:45'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24:55'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨回忆起和陈末的点点滴滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回忆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜蜜/窃喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨、赵爸、赵妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二季/第一集</t>
+  </si>
+  <si>
+    <t>第二季/第一集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入高三感恩大会（父母多么多么不容易，痛苦流涕）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩大会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛哭/共鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校会议室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师、全体同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表白之后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末表白赵小雨并让她不用回复之后，自己又陷入等待结果恐惧症（纠结症）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠结/痛苦/烦恼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:28'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝、姚从良偶遇卖花的小女孩，女孩儿频暴金句，噎死姚从良、并把姚从良认作叔叔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞蹈室看于贝贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尴尬/八卦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞蹈室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良、于贝贝、一群中年妇女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良在舞蹈室被一群中年妇女当作于贝贝爸爸（长得真老）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:39'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良送给于贝贝一个自己模样的小人偶，被喷丑（最后圆回去了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送于贝贝人偶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尴尬/社死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良、于贝贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良送给于贝贝一块防身砖头，吹嘘质量怎么怎么好，拿在手里气势怎么怎么高
+放下之后砖头立马就碎，啪啪打脸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送于贝贝防身砖头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啪啪打脸/尴尬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:45'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:55'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末为找机会见赵小雨、通过'精密'计算制造偶遇机会、多次完美错过之后，化身跑酷少年
+最终以一种最尴尬的方式相遇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算/尴尬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造偶遇机会/跑酷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶遇'赵小雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尴尬/尬聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末'偶遇'赵小雨，全程尬聊（只要我不尴尬、尴尬的就是别人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:45'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良传授于贝贝防狼术，最后被一把弄得大拇指骨折</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传授防狼术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疼疼疼/自作孽/彪悍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末穿没晾干的牛仔裤上补习班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上补习班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉爽/作死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补习班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈爸、陈末、赵小雨、补习班学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补习班临时换老师/体罚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补习班老师临时换成了陈爸，补习班场面混乱之际，陈末为爸出头，没想到陈爸要杀鸡儆猴
+而后父子俩一直用眼神交流（陈爸以为陈末理解到了），最后用戒尺打屁股，场面得到控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25:45'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良大拇指骨折之后再次挑战传授防狼术，最后蛋碎人晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出头/杀鸡儆猴/蒙圈/搞笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋疼/搞笑/精准/再次作死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈爸为补偿陈末被自己打，拿出东藏西藏包裹严严实实的私房钱，最后拆完包装全是一毛钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补偿/私房钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心疼/感动/跌落谷底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25:50'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2799,7 +3175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2846,7 +3222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2888,6 +3264,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3203,25 +3582,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4747FC86-DF5D-2841-9DD6-180987C4218D}">
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="19.81640625" customWidth="1"/>
+    <col min="1" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="91" customWidth="1"/>
-    <col min="5" max="5" width="35.453125" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
-    <col min="9" max="9" width="41.6328125" customWidth="1"/>
-    <col min="10" max="10" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="41.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3254,7 +3633,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="51">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -3282,7 +3661,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -3311,7 +3690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -3340,7 +3719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -3369,7 +3748,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -3398,7 +3777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -3425,7 +3804,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -3454,7 +3833,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -3483,7 +3862,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -3512,7 +3891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
@@ -3541,7 +3920,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -3570,7 +3949,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -3599,7 +3978,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -3628,7 +4007,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -3657,7 +4036,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -3686,7 +4065,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -3715,7 +4094,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
@@ -3744,7 +4123,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -3770,7 +4149,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -3799,7 +4178,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -3828,7 +4207,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
@@ -3857,7 +4236,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
@@ -3886,7 +4265,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="34">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -3915,7 +4294,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="17">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
@@ -3944,7 +4323,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="17">
       <c r="A26" s="4" t="s">
         <v>43</v>
       </c>
@@ -3973,7 +4352,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="17">
       <c r="A27" s="4" t="s">
         <v>159</v>
       </c>
@@ -4002,7 +4381,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="17">
       <c r="A28" s="4" t="s">
         <v>159</v>
       </c>
@@ -4031,7 +4410,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="17">
       <c r="A29" s="4" t="s">
         <v>159</v>
       </c>
@@ -4060,7 +4439,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="17">
       <c r="A30" s="4" t="s">
         <v>159</v>
       </c>
@@ -4089,7 +4468,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="17">
       <c r="A31" s="4" t="s">
         <v>159</v>
       </c>
@@ -4118,7 +4497,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="17">
       <c r="A32" s="4" t="s">
         <v>159</v>
       </c>
@@ -4147,7 +4526,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="17">
       <c r="A33" s="4" t="s">
         <v>159</v>
       </c>
@@ -4176,7 +4555,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="17">
       <c r="A34" s="4" t="s">
         <v>206</v>
       </c>
@@ -4205,7 +4584,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="17">
       <c r="A35" s="4" t="s">
         <v>206</v>
       </c>
@@ -4234,7 +4613,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="17">
       <c r="A36" s="4" t="s">
         <v>206</v>
       </c>
@@ -4263,7 +4642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="17">
       <c r="A37" s="4" t="s">
         <v>206</v>
       </c>
@@ -4292,7 +4671,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="17">
       <c r="A38" s="4" t="s">
         <v>206</v>
       </c>
@@ -4321,7 +4700,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="17">
       <c r="A39" s="4" t="s">
         <v>206</v>
       </c>
@@ -4350,7 +4729,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="17">
       <c r="A40" s="4" t="s">
         <v>206</v>
       </c>
@@ -4379,7 +4758,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="17">
       <c r="A41" s="4" t="s">
         <v>241</v>
       </c>
@@ -4408,7 +4787,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="17">
       <c r="A42" s="4" t="s">
         <v>241</v>
       </c>
@@ -4437,7 +4816,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="17">
       <c r="A43" s="4" t="s">
         <v>241</v>
       </c>
@@ -4466,7 +4845,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="17">
       <c r="A44" s="4" t="s">
         <v>241</v>
       </c>
@@ -4495,7 +4874,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="17">
       <c r="A45" s="4" t="s">
         <v>241</v>
       </c>
@@ -4524,7 +4903,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="17">
       <c r="A46" s="4" t="s">
         <v>241</v>
       </c>
@@ -4553,7 +4932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="17">
       <c r="A47" s="4" t="s">
         <v>241</v>
       </c>
@@ -4582,7 +4961,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="17">
       <c r="A48" s="4" t="s">
         <v>241</v>
       </c>
@@ -4611,7 +4990,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="17">
       <c r="A49" s="4" t="s">
         <v>241</v>
       </c>
@@ -4640,7 +5019,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="17">
       <c r="A50" s="4" t="s">
         <v>241</v>
       </c>
@@ -4669,7 +5048,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="17">
       <c r="A51" s="4" t="s">
         <v>241</v>
       </c>
@@ -4698,7 +5077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="17">
       <c r="A52" s="4" t="s">
         <v>241</v>
       </c>
@@ -4727,7 +5106,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="17">
       <c r="A53" s="4" t="s">
         <v>303</v>
       </c>
@@ -4756,7 +5135,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="17">
       <c r="A54" s="4" t="s">
         <v>303</v>
       </c>
@@ -4785,7 +5164,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="34">
       <c r="A55" s="4" t="s">
         <v>303</v>
       </c>
@@ -4814,7 +5193,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="17">
       <c r="A56" s="4" t="s">
         <v>303</v>
       </c>
@@ -4843,7 +5222,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="17">
       <c r="A57" s="4" t="s">
         <v>303</v>
       </c>
@@ -4872,7 +5251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="34">
       <c r="A58" s="4" t="s">
         <v>303</v>
       </c>
@@ -4901,7 +5280,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="17">
       <c r="A59" s="4" t="s">
         <v>303</v>
       </c>
@@ -4930,7 +5309,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="17">
       <c r="A60" s="4" t="s">
         <v>346</v>
       </c>
@@ -4959,7 +5338,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="17">
       <c r="A61" s="4" t="s">
         <v>346</v>
       </c>
@@ -4988,7 +5367,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
         <v>346</v>
       </c>
@@ -5017,7 +5396,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
         <v>346</v>
       </c>
@@ -5046,7 +5425,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
         <v>346</v>
       </c>
@@ -5075,7 +5454,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
         <v>346</v>
       </c>
@@ -5104,7 +5483,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
         <v>346</v>
       </c>
@@ -5133,7 +5512,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="34">
       <c r="A67" s="4" t="s">
         <v>380</v>
       </c>
@@ -5162,7 +5541,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
         <v>380</v>
       </c>
@@ -5191,7 +5570,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
         <v>380</v>
       </c>
@@ -5220,7 +5599,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
         <v>380</v>
       </c>
@@ -5249,7 +5628,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
         <v>380</v>
       </c>
@@ -5278,7 +5657,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="A72" s="9" t="s">
         <v>400</v>
       </c>
@@ -5307,7 +5686,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="A73" s="4" t="s">
         <v>380</v>
       </c>
@@ -5336,7 +5715,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="A74" s="4" t="s">
         <v>380</v>
       </c>
@@ -5365,7 +5744,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="4" t="s">
         <v>380</v>
       </c>
@@ -5394,7 +5773,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="A76" s="4" t="s">
         <v>380</v>
       </c>
@@ -5423,7 +5802,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="A77" s="4" t="s">
         <v>380</v>
       </c>
@@ -5452,7 +5831,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="A78" s="9" t="s">
         <v>400</v>
       </c>
@@ -5481,7 +5860,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9">
       <c r="A79" s="9" t="s">
         <v>400</v>
       </c>
@@ -5510,7 +5889,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="9" t="s">
         <v>407</v>
       </c>
@@ -5539,7 +5918,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9">
       <c r="A81" s="9" t="s">
         <v>407</v>
       </c>
@@ -5568,7 +5947,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9">
       <c r="A82" s="9" t="s">
         <v>407</v>
       </c>
@@ -5597,7 +5976,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9">
       <c r="A83" s="9" t="s">
         <v>407</v>
       </c>
@@ -5626,7 +6005,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9">
       <c r="A84" s="9" t="s">
         <v>407</v>
       </c>
@@ -5655,7 +6034,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9">
       <c r="A85" s="9" t="s">
         <v>407</v>
       </c>
@@ -5684,7 +6063,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="34">
       <c r="A86" s="9" t="s">
         <v>407</v>
       </c>
@@ -5713,7 +6092,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9">
       <c r="A87" s="9" t="s">
         <v>407</v>
       </c>
@@ -5742,7 +6121,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9">
       <c r="A88" s="9" t="s">
         <v>407</v>
       </c>
@@ -5771,7 +6150,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9">
       <c r="A89" s="9" t="s">
         <v>407</v>
       </c>
@@ -5800,7 +6179,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9">
       <c r="A90" s="9" t="s">
         <v>407</v>
       </c>
@@ -5808,16 +6187,16 @@
         <v>672</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D90" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="E90" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="F90" s="11" t="s">
         <v>674</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>675</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>629</v>
@@ -5826,10 +6205,10 @@
         <v>358</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="9" t="s">
         <v>517</v>
       </c>
@@ -5858,7 +6237,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9">
       <c r="A92" s="9" t="s">
         <v>517</v>
       </c>
@@ -5887,7 +6266,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="34">
       <c r="A93" s="9" t="s">
         <v>517</v>
       </c>
@@ -5916,7 +6295,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9">
       <c r="A94" s="9" t="s">
         <v>517</v>
       </c>
@@ -5945,7 +6324,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9">
       <c r="A95" s="9" t="s">
         <v>517</v>
       </c>
@@ -5974,7 +6353,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9">
       <c r="A96" s="9" t="s">
         <v>516</v>
       </c>
@@ -6003,7 +6382,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9">
       <c r="A97" s="9" t="s">
         <v>516</v>
       </c>
@@ -6032,7 +6411,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9">
       <c r="A98" s="9" t="s">
         <v>516</v>
       </c>
@@ -6061,7 +6440,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9">
       <c r="A99" s="9" t="s">
         <v>516</v>
       </c>
@@ -6090,7 +6469,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9">
       <c r="A100" s="9" t="s">
         <v>516</v>
       </c>
@@ -6119,7 +6498,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9">
       <c r="A101" s="9" t="s">
         <v>516</v>
       </c>
@@ -6148,7 +6527,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9">
       <c r="A102" s="9" t="s">
         <v>577</v>
       </c>
@@ -6177,7 +6556,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9">
       <c r="A103" s="9" t="s">
         <v>577</v>
       </c>
@@ -6206,7 +6585,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9">
       <c r="A104" s="9" t="s">
         <v>577</v>
       </c>
@@ -6235,7 +6614,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9">
       <c r="A105" s="9" t="s">
         <v>577</v>
       </c>
@@ -6264,7 +6643,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9">
       <c r="A106" s="9" t="s">
         <v>577</v>
       </c>
@@ -6293,7 +6672,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9">
       <c r="A107" s="9" t="s">
         <v>577</v>
       </c>
@@ -6322,7 +6701,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="34">
       <c r="A108" s="9" t="s">
         <v>577</v>
       </c>
@@ -6351,7 +6730,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9">
       <c r="A109" s="9" t="s">
         <v>577</v>
       </c>
@@ -6380,7 +6759,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9">
       <c r="A110" s="9" t="s">
         <v>576</v>
       </c>
@@ -6409,7 +6788,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9">
       <c r="A111" s="9" t="s">
         <v>576</v>
       </c>
@@ -6438,7 +6817,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="34">
       <c r="A112" s="9" t="s">
         <v>639</v>
       </c>
@@ -6467,7 +6846,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9">
       <c r="A113" s="9" t="s">
         <v>639</v>
       </c>
@@ -6496,7 +6875,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9">
       <c r="A114" s="9" t="s">
         <v>639</v>
       </c>
@@ -6525,7 +6904,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9">
       <c r="A115" s="9" t="s">
         <v>655</v>
       </c>
@@ -6554,7 +6933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9">
       <c r="A116" s="9" t="s">
         <v>658</v>
       </c>
@@ -6583,7 +6962,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9">
       <c r="A117" s="9" t="s">
         <v>658</v>
       </c>
@@ -6591,13 +6970,13 @@
         <v>420</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D117" s="11" t="s">
         <v>664</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F117" s="11" t="s">
         <v>665</v>
@@ -6612,62 +6991,584 @@
         <v>667</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9">
       <c r="A118" s="9" t="s">
         <v>658</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C118" s="10" t="s">
         <v>261</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F118" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="G118" s="11" t="s">
         <v>681</v>
-      </c>
-      <c r="G118" s="11" t="s">
-        <v>682</v>
       </c>
       <c r="H118" s="11" t="s">
         <v>358</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="9" t="s">
         <v>658</v>
       </c>
       <c r="B119" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="D119" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="C119" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>686</v>
-      </c>
       <c r="E119" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="F119" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="F119" s="11" t="s">
+      <c r="G119" s="11" t="s">
         <v>689</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>690</v>
       </c>
       <c r="H119" s="11" t="s">
         <v>358</v>
       </c>
       <c r="I119" s="11" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I122" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I123" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="H124" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I124" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I125" s="11" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I126" s="11" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I127" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="H128" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I128" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I129" s="11" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="34">
+      <c r="A130" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="I130" s="11" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="34">
+      <c r="A131" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="H131" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I131" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="H132" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I132" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>766</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="H133" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I133" s="11" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I134" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="34">
+      <c r="A135" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="H135" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I135" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>766</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I136" s="11" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="I137" s="11" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/剧情梳理.xlsx
+++ b/剧情梳理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjy/Desktop/workspace/myself/剪辑/文件、文档/clip-excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\自媒体\clip-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03D0E45-D8DC-C24D-92EB-E91CB5780B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C86A320-EA28-4205-BB7B-51748605B6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
   </bookViews>
   <sheets>
     <sheet name="教室的那一间" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="822">
   <si>
     <t>点位开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3168,6 +3168,150 @@
   </si>
   <si>
     <t>25:50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29:30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补习功课/点吃的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诱惑/嘴馋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肯德基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨、苏舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟在肯德基为赵小雨补习功课，赵最开始只想点一包薯条，最后被诱惑的点了一大堆，吃的贼香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30:35'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30:45'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟用来表白赵小雨的MP3坏了，关键赵小雨还没听到他表白的那一段，苏舟很心累</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31:55'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试探/MP3坏了/山寨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末在纠结中询问赵小雨的表白回答，可是在最后，又怂了，自诩人生经验丰富，不然就被拒绝了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询问表白回答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认怂/纠结/自信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交车站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35:20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二季/第二集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02:15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04:12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟打算二次表白，由于太过于紧张，折腾了好久摁下通话键时，发现已经半夜12:30了，对方已关机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次表白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠结/折腾/失望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚爸再现神补刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无语/尴尬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神补刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末找陈妈要周杰伦演唱会门票钱，陈妈细数陈末从小到大花了她多少钱，没想到陈末听到十二岁就听不下去了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要钱/翻旧账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、陈妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机关枪/害怕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良带于贝贝看恐怖片，想给她一个温暖的怀抱，没想到把自己吓个半死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看恐怖片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>害怕/嘴硬/尴尬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:50'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3175,7 +3319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3582,25 +3726,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4747FC86-DF5D-2841-9DD6-180987C4218D}">
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:K144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="19.83203125" customWidth="1"/>
+    <col min="1" max="2" width="19.81640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="91" customWidth="1"/>
-    <col min="5" max="5" width="35.5" customWidth="1"/>
+    <col min="5" max="5" width="35.453125" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="9" max="9" width="41.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="9" max="9" width="41.6328125" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3633,7 +3777,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="51">
+    <row r="2" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -3661,7 +3805,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -3690,7 +3834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -3719,7 +3863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -3748,7 +3892,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -3777,7 +3921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -3804,7 +3948,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -3833,7 +3977,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -3862,7 +4006,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -3891,7 +4035,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
@@ -3920,7 +4064,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -3949,7 +4093,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -3978,7 +4122,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -4007,7 +4151,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -4036,7 +4180,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -4065,7 +4209,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -4094,7 +4238,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
@@ -4123,7 +4267,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -4149,7 +4293,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -4178,7 +4322,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -4207,7 +4351,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
@@ -4236,7 +4380,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
@@ -4265,7 +4409,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="34">
+    <row r="24" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -4294,7 +4438,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
@@ -4323,7 +4467,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>43</v>
       </c>
@@ -4352,7 +4496,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>159</v>
       </c>
@@ -4381,7 +4525,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>159</v>
       </c>
@@ -4410,7 +4554,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>159</v>
       </c>
@@ -4439,7 +4583,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>159</v>
       </c>
@@ -4468,7 +4612,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>159</v>
       </c>
@@ -4497,7 +4641,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>159</v>
       </c>
@@ -4526,7 +4670,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>159</v>
       </c>
@@ -4555,7 +4699,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>206</v>
       </c>
@@ -4584,7 +4728,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>206</v>
       </c>
@@ -4613,7 +4757,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="17">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>206</v>
       </c>
@@ -4642,7 +4786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="17">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>206</v>
       </c>
@@ -4671,7 +4815,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="17">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>206</v>
       </c>
@@ -4700,7 +4844,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="17">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>206</v>
       </c>
@@ -4729,7 +4873,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>206</v>
       </c>
@@ -4758,7 +4902,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="17">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>241</v>
       </c>
@@ -4787,7 +4931,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="17">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>241</v>
       </c>
@@ -4816,7 +4960,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="17">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>241</v>
       </c>
@@ -4845,7 +4989,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="17">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>241</v>
       </c>
@@ -4874,7 +5018,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="17">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>241</v>
       </c>
@@ -4903,7 +5047,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="17">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>241</v>
       </c>
@@ -4932,7 +5076,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="17">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>241</v>
       </c>
@@ -4961,7 +5105,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="17">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>241</v>
       </c>
@@ -4990,7 +5134,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="17">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>241</v>
       </c>
@@ -5019,7 +5163,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="17">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>241</v>
       </c>
@@ -5048,7 +5192,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="17">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>241</v>
       </c>
@@ -5077,7 +5221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="17">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>241</v>
       </c>
@@ -5106,7 +5250,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="17">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>303</v>
       </c>
@@ -5135,7 +5279,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="17">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>303</v>
       </c>
@@ -5164,7 +5308,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="34">
+    <row r="55" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>303</v>
       </c>
@@ -5193,7 +5337,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="17">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>303</v>
       </c>
@@ -5222,7 +5366,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="17">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>303</v>
       </c>
@@ -5251,7 +5395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="34">
+    <row r="58" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>303</v>
       </c>
@@ -5280,7 +5424,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="17">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>303</v>
       </c>
@@ -5309,7 +5453,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="17">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>346</v>
       </c>
@@ -5338,7 +5482,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="17">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>346</v>
       </c>
@@ -5367,7 +5511,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>346</v>
       </c>
@@ -5396,7 +5540,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>346</v>
       </c>
@@ -5425,7 +5569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>346</v>
       </c>
@@ -5454,7 +5598,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>346</v>
       </c>
@@ -5483,7 +5627,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>346</v>
       </c>
@@ -5512,7 +5656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="34">
+    <row r="67" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>380</v>
       </c>
@@ -5541,7 +5685,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>380</v>
       </c>
@@ -5570,7 +5714,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>380</v>
       </c>
@@ -5599,7 +5743,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>380</v>
       </c>
@@ -5628,7 +5772,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>380</v>
       </c>
@@ -5657,7 +5801,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>400</v>
       </c>
@@ -5686,7 +5830,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>380</v>
       </c>
@@ -5715,7 +5859,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>380</v>
       </c>
@@ -5744,7 +5888,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>380</v>
       </c>
@@ -5773,7 +5917,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>380</v>
       </c>
@@ -5802,7 +5946,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>380</v>
       </c>
@@ -5831,7 +5975,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>400</v>
       </c>
@@ -5860,7 +6004,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>400</v>
       </c>
@@ -5889,7 +6033,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>407</v>
       </c>
@@ -5918,7 +6062,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>407</v>
       </c>
@@ -5947,7 +6091,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>407</v>
       </c>
@@ -5976,7 +6120,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>407</v>
       </c>
@@ -6005,7 +6149,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>407</v>
       </c>
@@ -6034,7 +6178,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>407</v>
       </c>
@@ -6063,7 +6207,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="34">
+    <row r="86" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>407</v>
       </c>
@@ -6092,7 +6236,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>407</v>
       </c>
@@ -6121,7 +6265,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>407</v>
       </c>
@@ -6150,7 +6294,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>407</v>
       </c>
@@ -6179,7 +6323,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>407</v>
       </c>
@@ -6208,7 +6352,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>517</v>
       </c>
@@ -6237,7 +6381,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>517</v>
       </c>
@@ -6266,7 +6410,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="34">
+    <row r="93" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>517</v>
       </c>
@@ -6295,7 +6439,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>517</v>
       </c>
@@ -6324,7 +6468,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>517</v>
       </c>
@@ -6353,7 +6497,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>516</v>
       </c>
@@ -6382,7 +6526,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>516</v>
       </c>
@@ -6411,7 +6555,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>516</v>
       </c>
@@ -6440,7 +6584,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>516</v>
       </c>
@@ -6469,7 +6613,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>516</v>
       </c>
@@ -6498,7 +6642,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>516</v>
       </c>
@@ -6527,7 +6671,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>577</v>
       </c>
@@ -6556,7 +6700,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>577</v>
       </c>
@@ -6585,7 +6729,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>577</v>
       </c>
@@ -6614,7 +6758,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>577</v>
       </c>
@@ -6643,7 +6787,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>577</v>
       </c>
@@ -6672,7 +6816,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>577</v>
       </c>
@@ -6701,7 +6845,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="34">
+    <row r="108" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>577</v>
       </c>
@@ -6730,7 +6874,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>577</v>
       </c>
@@ -6759,7 +6903,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>576</v>
       </c>
@@ -6788,7 +6932,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>576</v>
       </c>
@@ -6817,7 +6961,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="34">
+    <row r="112" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>639</v>
       </c>
@@ -6846,7 +6990,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>639</v>
       </c>
@@ -6875,7 +7019,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>639</v>
       </c>
@@ -6904,7 +7048,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>655</v>
       </c>
@@ -6933,7 +7077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>658</v>
       </c>
@@ -6962,7 +7106,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>658</v>
       </c>
@@ -6991,7 +7135,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>658</v>
       </c>
@@ -7020,7 +7164,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>658</v>
       </c>
@@ -7049,7 +7193,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>691</v>
       </c>
@@ -7078,7 +7222,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>691</v>
       </c>
@@ -7107,7 +7251,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>691</v>
       </c>
@@ -7136,7 +7280,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>691</v>
       </c>
@@ -7165,7 +7309,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>691</v>
       </c>
@@ -7194,7 +7338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>691</v>
       </c>
@@ -7223,7 +7367,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
         <v>726</v>
       </c>
@@ -7252,7 +7396,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>726</v>
       </c>
@@ -7281,7 +7425,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>726</v>
       </c>
@@ -7310,7 +7454,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>725</v>
       </c>
@@ -7339,7 +7483,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="34">
+    <row r="130" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>725</v>
       </c>
@@ -7368,7 +7512,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="34">
+    <row r="131" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>725</v>
       </c>
@@ -7397,7 +7541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>725</v>
       </c>
@@ -7426,7 +7570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>725</v>
       </c>
@@ -7455,7 +7599,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>725</v>
       </c>
@@ -7484,7 +7628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="34">
+    <row r="135" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>725</v>
       </c>
@@ -7513,7 +7657,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>725</v>
       </c>
@@ -7542,7 +7686,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>725</v>
       </c>
@@ -7569,6 +7713,209 @@
       </c>
       <c r="I137" s="11" t="s">
         <v>327</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>787</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I138" s="11" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I139" s="11" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I140" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="E141" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I141" s="11" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H142" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I142" s="11" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>816</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="H143" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I143" s="11" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="H144" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="I144" s="11" t="s">
+        <v>747</v>
       </c>
     </row>
   </sheetData>

--- a/剧情梳理.xlsx
+++ b/剧情梳理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\自媒体\clip-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjy/Desktop/workspace/myself/剪辑/文件、文档/clip-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C86A320-EA28-4205-BB7B-51748605B6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACD9A79-38B7-9A4E-B555-9ED66925AC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
   </bookViews>
   <sheets>
     <sheet name="教室的那一间" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="924">
   <si>
     <t>点位开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3312,6 +3312,418 @@
   </si>
   <si>
     <t>15:50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟和姚从良分享自己表白的方法被批不够直接，还以台球为例言：两点之间直线最短，要直来直去
+然后苏舟以跳球打脸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打台球/分享表白经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台球室</t>
+  </si>
+  <si>
+    <t>台球室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良、苏舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打脸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接头混混朋友在苏舟面前口嗨赵小雨、苏舟一杆中袋（老二），知识分子爆发起来很可怕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生气/发怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苏舟面前口嗨赵小雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟、接头混混</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二季/第二集</t>
+  </si>
+  <si>
+    <t>ktv里最可怕的两种人：麦霸、抢麦的人，陈末完美演绎了最后一种人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ktv唱麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨厌/自信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ktv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟、陈末、赵小雨、姚从良、于贝贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30:40'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二季/第三集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:40'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝在舞蹈班众人面前放了一个屁，姚从良当众承认了下来，并声称以后于贝贝干这种事都算他的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当中放屁/替罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尴尬/勇敢/承诺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞蹈室/室外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:45'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赶写暑假作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一学子们奋笔疾书赶暑假作业（学霸除外），各种丑态，学霸/学渣的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着急/悠闲/丑态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、赵小雨、苏舟、姚从良、于贝贝、姚爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高二开学分班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、赵小雨、苏舟、姚从良、于贝贝、李佳敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:38'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李佳敏开学碰到3小只就提 真晦气、被苏舟以脑门上有颗痘支开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晦气/怒怼/梳头/臭美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新班主任（大学刚毕业）出场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全班学生、班主任-夏晓美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高二三班新班主任兼英语老师夏晓美出场，开班演讲磕磕绊绊（还偷看稿子），丝袜还破了个洞
+被陈末，姚从良甚至全班同学嘲笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧张/嘲笑/无助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从快要过生日了，光找陈末要生日礼物，苏舟就发问为什么不找他要，
+原因很简单：学霸只会送和学习有关的东西，但是苏舟保证这次一定会很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨要生日礼物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开心/害怕/珍爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:53'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:00’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜鸟班主任向资深前辈请教当好班主任的诀窍，当问到前辈最开始是不是和自己一样时，听到回答心被扎了一刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请教/传授</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏晓美、薛主任（年级主任）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯诺/安慰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28:56'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了在情敌面前挣回面子姚从良使出了唯一特长：抓娃娃，随即被打脸多次，然后情敌买了一个大娃娃给于贝贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26:10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓娃娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攀比/打脸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良、于贝贝、姚从良情敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30:41'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟将物理知识运用到纸飞机上，并讲述其原理，然而陈末和姚从良不买账，无情打断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断/滔滔不绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31:00'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31:45'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末在3个人的纸飞机比赛中成功射中一为女生，并且和对方进行了骂街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口若悬河/愤怒/不过脑子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、姚从良、苏舟、钟洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33:04'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33:06'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骂街之后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟洁、李佳敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33:40'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李佳敏在钟洁和陈末对骂完之后，就去钟洁耳边嚼舌更子，之前都是害群之马、然后也被回怼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒怼/嫌弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骂街/纸飞机比赛/胡说八道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二季/第四集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生无可恋/投机取巧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走廊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全班同学、新老班主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨中漫步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腹黑/微甜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟在便利店复习功课，看到赵小雨打着伞走过，赶忙追了上去，为了能打一把伞，把自己的伞扔到花圃中，然后雨中漫步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨厌的李佳敏和于贝贝同桌后要和她画三八线，还说千万不能过界，不然扎你哟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分座之后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨厌/娘/李佳敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝、李佳敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又到排座位的季节了，姚从良想插队和于贝贝坐一起，理由：眼睛不好，那就满足你：单独一个特等座在讲台下
+陈末如愿以偿和赵小雨做同桌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:35'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、陈爸吃饭吧唧嘴、抖腿、喝汤发出哧溜声
+2、陈末请赵小雨吃自助餐化身事爸，强调什么该先吃，什么不能先吃、并在吃饭的时候遗传陈爸习惯
+3、在饭桌上表演神同步吃饭、剔牙、喝汤、抖腿习惯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭习惯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫌弃/无所谓/神同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭桌/自助餐店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、陈爸、陈妈、赵小雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解试卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗志昂扬/睡意盎然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语老师、全班同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语老师讲解试卷题目，传授学习口诀，老师感觉口诀还不错，但迎接她的是一片瞌睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末上课递纸条询问赵小雨生气的原因，并附上4个选项，然而赵小雨自己加上了F选项：以上都不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懊恼/疑惑/神秘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25:39'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询问生气原因</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3319,7 +3731,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3726,25 +4138,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4747FC86-DF5D-2841-9DD6-180987C4218D}">
-  <dimension ref="A1:K144"/>
+  <dimension ref="A1:K164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="D168" sqref="D168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="19.81640625" customWidth="1"/>
+    <col min="1" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="91" customWidth="1"/>
-    <col min="5" max="5" width="35.453125" customWidth="1"/>
+    <col min="4" max="4" width="109.1640625" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
-    <col min="9" max="9" width="41.6328125" customWidth="1"/>
-    <col min="10" max="10" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="41.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3777,7 +4189,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="51">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -3805,7 +4217,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -3834,7 +4246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -3863,7 +4275,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -3892,7 +4304,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -3921,7 +4333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -3948,7 +4360,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -3977,7 +4389,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -4006,7 +4418,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -4035,7 +4447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
@@ -4064,7 +4476,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -4093,7 +4505,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -4122,7 +4534,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -4151,7 +4563,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -4180,7 +4592,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -4209,7 +4621,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -4238,7 +4650,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
@@ -4267,7 +4679,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -4293,7 +4705,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -4322,7 +4734,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -4351,7 +4763,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
@@ -4380,7 +4792,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
@@ -4409,7 +4821,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="34">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -4438,7 +4850,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="17">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
@@ -4467,7 +4879,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="17">
       <c r="A26" s="4" t="s">
         <v>43</v>
       </c>
@@ -4496,7 +4908,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="17">
       <c r="A27" s="4" t="s">
         <v>159</v>
       </c>
@@ -4525,7 +4937,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="17">
       <c r="A28" s="4" t="s">
         <v>159</v>
       </c>
@@ -4554,7 +4966,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="17">
       <c r="A29" s="4" t="s">
         <v>159</v>
       </c>
@@ -4583,7 +4995,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="17">
       <c r="A30" s="4" t="s">
         <v>159</v>
       </c>
@@ -4612,7 +5024,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="17">
       <c r="A31" s="4" t="s">
         <v>159</v>
       </c>
@@ -4641,7 +5053,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="17">
       <c r="A32" s="4" t="s">
         <v>159</v>
       </c>
@@ -4670,7 +5082,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="17">
       <c r="A33" s="4" t="s">
         <v>159</v>
       </c>
@@ -4699,7 +5111,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="17">
       <c r="A34" s="4" t="s">
         <v>206</v>
       </c>
@@ -4728,7 +5140,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="17">
       <c r="A35" s="4" t="s">
         <v>206</v>
       </c>
@@ -4757,7 +5169,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="17">
       <c r="A36" s="4" t="s">
         <v>206</v>
       </c>
@@ -4786,7 +5198,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="17">
       <c r="A37" s="4" t="s">
         <v>206</v>
       </c>
@@ -4815,7 +5227,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="17">
       <c r="A38" s="4" t="s">
         <v>206</v>
       </c>
@@ -4844,7 +5256,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="17">
       <c r="A39" s="4" t="s">
         <v>206</v>
       </c>
@@ -4873,7 +5285,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="17">
       <c r="A40" s="4" t="s">
         <v>206</v>
       </c>
@@ -4902,7 +5314,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="17">
       <c r="A41" s="4" t="s">
         <v>241</v>
       </c>
@@ -4931,7 +5343,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="17">
       <c r="A42" s="4" t="s">
         <v>241</v>
       </c>
@@ -4960,7 +5372,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="17">
       <c r="A43" s="4" t="s">
         <v>241</v>
       </c>
@@ -4989,7 +5401,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="17">
       <c r="A44" s="4" t="s">
         <v>241</v>
       </c>
@@ -5018,7 +5430,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="17">
       <c r="A45" s="4" t="s">
         <v>241</v>
       </c>
@@ -5047,7 +5459,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="17">
       <c r="A46" s="4" t="s">
         <v>241</v>
       </c>
@@ -5076,7 +5488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="17">
       <c r="A47" s="4" t="s">
         <v>241</v>
       </c>
@@ -5105,7 +5517,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="17">
       <c r="A48" s="4" t="s">
         <v>241</v>
       </c>
@@ -5134,7 +5546,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="17">
       <c r="A49" s="4" t="s">
         <v>241</v>
       </c>
@@ -5163,7 +5575,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="17">
       <c r="A50" s="4" t="s">
         <v>241</v>
       </c>
@@ -5192,7 +5604,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="17">
       <c r="A51" s="4" t="s">
         <v>241</v>
       </c>
@@ -5221,7 +5633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="17">
       <c r="A52" s="4" t="s">
         <v>241</v>
       </c>
@@ -5250,7 +5662,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="17">
       <c r="A53" s="4" t="s">
         <v>303</v>
       </c>
@@ -5279,7 +5691,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="17">
       <c r="A54" s="4" t="s">
         <v>303</v>
       </c>
@@ -5308,7 +5720,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="34">
       <c r="A55" s="4" t="s">
         <v>303</v>
       </c>
@@ -5337,7 +5749,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="17">
       <c r="A56" s="4" t="s">
         <v>303</v>
       </c>
@@ -5366,7 +5778,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="17">
       <c r="A57" s="4" t="s">
         <v>303</v>
       </c>
@@ -5395,7 +5807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="34">
       <c r="A58" s="4" t="s">
         <v>303</v>
       </c>
@@ -5424,7 +5836,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="17">
       <c r="A59" s="4" t="s">
         <v>303</v>
       </c>
@@ -5453,7 +5865,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="17">
       <c r="A60" s="4" t="s">
         <v>346</v>
       </c>
@@ -5482,7 +5894,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="17">
       <c r="A61" s="4" t="s">
         <v>346</v>
       </c>
@@ -5511,7 +5923,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
         <v>346</v>
       </c>
@@ -5540,7 +5952,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
         <v>346</v>
       </c>
@@ -5569,7 +5981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
         <v>346</v>
       </c>
@@ -5598,7 +6010,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
         <v>346</v>
       </c>
@@ -5627,7 +6039,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
         <v>346</v>
       </c>
@@ -5656,7 +6068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="34">
       <c r="A67" s="4" t="s">
         <v>380</v>
       </c>
@@ -5685,7 +6097,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
         <v>380</v>
       </c>
@@ -5714,7 +6126,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
         <v>380</v>
       </c>
@@ -5743,7 +6155,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
         <v>380</v>
       </c>
@@ -5772,7 +6184,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
         <v>380</v>
       </c>
@@ -5801,7 +6213,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="A72" s="9" t="s">
         <v>400</v>
       </c>
@@ -5830,7 +6242,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="A73" s="4" t="s">
         <v>380</v>
       </c>
@@ -5859,7 +6271,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="A74" s="4" t="s">
         <v>380</v>
       </c>
@@ -5888,7 +6300,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="4" t="s">
         <v>380</v>
       </c>
@@ -5917,7 +6329,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="A76" s="4" t="s">
         <v>380</v>
       </c>
@@ -5946,7 +6358,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="A77" s="4" t="s">
         <v>380</v>
       </c>
@@ -5975,7 +6387,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="A78" s="9" t="s">
         <v>400</v>
       </c>
@@ -6004,7 +6416,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9">
       <c r="A79" s="9" t="s">
         <v>400</v>
       </c>
@@ -6033,7 +6445,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="9" t="s">
         <v>407</v>
       </c>
@@ -6062,7 +6474,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9">
       <c r="A81" s="9" t="s">
         <v>407</v>
       </c>
@@ -6091,7 +6503,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9">
       <c r="A82" s="9" t="s">
         <v>407</v>
       </c>
@@ -6120,7 +6532,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9">
       <c r="A83" s="9" t="s">
         <v>407</v>
       </c>
@@ -6149,7 +6561,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9">
       <c r="A84" s="9" t="s">
         <v>407</v>
       </c>
@@ -6178,7 +6590,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9">
       <c r="A85" s="9" t="s">
         <v>407</v>
       </c>
@@ -6207,7 +6619,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="34">
       <c r="A86" s="9" t="s">
         <v>407</v>
       </c>
@@ -6236,7 +6648,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9">
       <c r="A87" s="9" t="s">
         <v>407</v>
       </c>
@@ -6265,7 +6677,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9">
       <c r="A88" s="9" t="s">
         <v>407</v>
       </c>
@@ -6294,7 +6706,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9">
       <c r="A89" s="9" t="s">
         <v>407</v>
       </c>
@@ -6323,7 +6735,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9">
       <c r="A90" s="9" t="s">
         <v>407</v>
       </c>
@@ -6352,7 +6764,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9">
       <c r="A91" s="9" t="s">
         <v>517</v>
       </c>
@@ -6381,7 +6793,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9">
       <c r="A92" s="9" t="s">
         <v>517</v>
       </c>
@@ -6410,7 +6822,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="34">
       <c r="A93" s="9" t="s">
         <v>517</v>
       </c>
@@ -6439,7 +6851,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9">
       <c r="A94" s="9" t="s">
         <v>517</v>
       </c>
@@ -6468,7 +6880,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9">
       <c r="A95" s="9" t="s">
         <v>517</v>
       </c>
@@ -6497,7 +6909,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9">
       <c r="A96" s="9" t="s">
         <v>516</v>
       </c>
@@ -6526,7 +6938,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9">
       <c r="A97" s="9" t="s">
         <v>516</v>
       </c>
@@ -6555,7 +6967,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9">
       <c r="A98" s="9" t="s">
         <v>516</v>
       </c>
@@ -6584,7 +6996,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9">
       <c r="A99" s="9" t="s">
         <v>516</v>
       </c>
@@ -6613,7 +7025,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9">
       <c r="A100" s="9" t="s">
         <v>516</v>
       </c>
@@ -6642,7 +7054,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9">
       <c r="A101" s="9" t="s">
         <v>516</v>
       </c>
@@ -6671,7 +7083,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9">
       <c r="A102" s="9" t="s">
         <v>577</v>
       </c>
@@ -6700,7 +7112,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9">
       <c r="A103" s="9" t="s">
         <v>577</v>
       </c>
@@ -6729,7 +7141,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9">
       <c r="A104" s="9" t="s">
         <v>577</v>
       </c>
@@ -6758,7 +7170,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9">
       <c r="A105" s="9" t="s">
         <v>577</v>
       </c>
@@ -6787,7 +7199,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9">
       <c r="A106" s="9" t="s">
         <v>577</v>
       </c>
@@ -6816,7 +7228,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9">
       <c r="A107" s="9" t="s">
         <v>577</v>
       </c>
@@ -6845,7 +7257,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="34">
       <c r="A108" s="9" t="s">
         <v>577</v>
       </c>
@@ -6874,7 +7286,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9">
       <c r="A109" s="9" t="s">
         <v>577</v>
       </c>
@@ -6903,7 +7315,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9">
       <c r="A110" s="9" t="s">
         <v>576</v>
       </c>
@@ -6932,7 +7344,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9">
       <c r="A111" s="9" t="s">
         <v>576</v>
       </c>
@@ -6961,7 +7373,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="34">
       <c r="A112" s="9" t="s">
         <v>639</v>
       </c>
@@ -6990,7 +7402,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9">
       <c r="A113" s="9" t="s">
         <v>639</v>
       </c>
@@ -7019,7 +7431,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9">
       <c r="A114" s="9" t="s">
         <v>639</v>
       </c>
@@ -7048,7 +7460,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9">
       <c r="A115" s="9" t="s">
         <v>655</v>
       </c>
@@ -7077,7 +7489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9">
       <c r="A116" s="9" t="s">
         <v>658</v>
       </c>
@@ -7106,7 +7518,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9">
       <c r="A117" s="9" t="s">
         <v>658</v>
       </c>
@@ -7135,7 +7547,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9">
       <c r="A118" s="9" t="s">
         <v>658</v>
       </c>
@@ -7164,7 +7576,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9">
       <c r="A119" s="9" t="s">
         <v>658</v>
       </c>
@@ -7193,7 +7605,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9">
       <c r="A120" s="9" t="s">
         <v>691</v>
       </c>
@@ -7222,7 +7634,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9">
       <c r="A121" s="9" t="s">
         <v>691</v>
       </c>
@@ -7251,7 +7663,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9">
       <c r="A122" s="9" t="s">
         <v>691</v>
       </c>
@@ -7280,7 +7692,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9">
       <c r="A123" s="9" t="s">
         <v>691</v>
       </c>
@@ -7309,7 +7721,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9">
       <c r="A124" s="9" t="s">
         <v>691</v>
       </c>
@@ -7338,7 +7750,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9">
       <c r="A125" s="9" t="s">
         <v>691</v>
       </c>
@@ -7367,7 +7779,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9">
       <c r="A126" s="9" t="s">
         <v>726</v>
       </c>
@@ -7396,7 +7808,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9">
       <c r="A127" s="9" t="s">
         <v>726</v>
       </c>
@@ -7425,7 +7837,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9">
       <c r="A128" s="9" t="s">
         <v>726</v>
       </c>
@@ -7454,7 +7866,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9">
       <c r="A129" s="9" t="s">
         <v>725</v>
       </c>
@@ -7483,7 +7895,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="34">
       <c r="A130" s="9" t="s">
         <v>725</v>
       </c>
@@ -7512,7 +7924,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="34">
       <c r="A131" s="9" t="s">
         <v>725</v>
       </c>
@@ -7541,7 +7953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9">
       <c r="A132" s="9" t="s">
         <v>725</v>
       </c>
@@ -7570,7 +7982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9">
       <c r="A133" s="9" t="s">
         <v>725</v>
       </c>
@@ -7599,7 +8011,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9">
       <c r="A134" s="9" t="s">
         <v>725</v>
       </c>
@@ -7628,7 +8040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="34">
       <c r="A135" s="9" t="s">
         <v>725</v>
       </c>
@@ -7657,7 +8069,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9">
       <c r="A136" s="9" t="s">
         <v>725</v>
       </c>
@@ -7686,7 +8098,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9">
       <c r="A137" s="9" t="s">
         <v>725</v>
       </c>
@@ -7715,7 +8127,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9">
       <c r="A138" s="9" t="s">
         <v>725</v>
       </c>
@@ -7744,7 +8156,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9">
       <c r="A139" s="9" t="s">
         <v>725</v>
       </c>
@@ -7773,7 +8185,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9">
       <c r="A140" s="9" t="s">
         <v>725</v>
       </c>
@@ -7802,7 +8214,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9">
       <c r="A141" s="9" t="s">
         <v>802</v>
       </c>
@@ -7831,7 +8243,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9">
       <c r="A142" s="9" t="s">
         <v>802</v>
       </c>
@@ -7860,7 +8272,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9">
       <c r="A143" s="9" t="s">
         <v>802</v>
       </c>
@@ -7889,7 +8301,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9">
       <c r="A144" s="9" t="s">
         <v>802</v>
       </c>
@@ -7916,6 +8328,586 @@
       </c>
       <c r="I144" s="11" t="s">
         <v>747</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="34">
+      <c r="A145" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>822</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="H145" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I145" s="11" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I146" s="11" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="H147" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I147" s="11" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I148" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>848</v>
+      </c>
+      <c r="F149" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H149" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I149" s="11" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="E150" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>857</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I150" s="11" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="34">
+      <c r="A151" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>858</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H151" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I151" s="11" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="34">
+      <c r="A152" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="D152" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I152" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="H153" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I153" s="11" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>873</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="H154" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I154" s="11" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>880</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H155" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I155" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>893</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H156" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I156" s="11" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>891</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I157" s="11" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="17">
+      <c r="A158" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D158" s="13" t="s">
+        <v>902</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>900</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>897</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I158" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="34">
+      <c r="A159" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="D159" s="13" t="s">
+        <v>909</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>903</v>
+      </c>
+      <c r="F159" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>897</v>
+      </c>
+      <c r="H159" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I159" s="11" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="17">
+      <c r="A160" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="D160" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>906</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>907</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H160" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I160" s="11" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="51">
+      <c r="A161" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>910</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>911</v>
+      </c>
+      <c r="E161" s="14" t="s">
+        <v>912</v>
+      </c>
+      <c r="F161" s="11" t="s">
+        <v>913</v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="H161" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I161" s="11" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="17">
+      <c r="A162" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="E162" s="14" t="s">
+        <v>916</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I162" s="11" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="17">
+      <c r="A163" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>922</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>920</v>
+      </c>
+      <c r="E163" s="14" t="s">
+        <v>923</v>
+      </c>
+      <c r="F163" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="G163" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H163" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I163" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="17">
+      <c r="A164" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>922</v>
+      </c>
+      <c r="D164" s="13" t="s">
+        <v>920</v>
+      </c>
+      <c r="E164" s="14" t="s">
+        <v>923</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H164" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I164" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/剧情梳理.xlsx
+++ b/剧情梳理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjy/Desktop/workspace/myself/剪辑/文件、文档/clip-excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\自媒体\clip-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACD9A79-38B7-9A4E-B555-9ED66925AC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021477EA-605A-4248-AF8E-57EB6290FCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
   </bookViews>
   <sheets>
     <sheet name="教室的那一间" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="932">
   <si>
     <t>点位开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3724,6 +3724,38 @@
   </si>
   <si>
     <t>询问生气原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二季/第五集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末想到赵小雨生气的原因了，陈末、赵小雨骑车在有枫树的街道上互相载对方，陈末嫌赵小雨胖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想到生气原因/骑车/画面唯美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直男/生气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06:20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良送于贝贝从娃娃机里抓上来的皮卡丘，于贝贝很高兴，抓着他的手直感谢，姚从良被电的心跳加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送皮卡丘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开心/激动/被电</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3731,7 +3763,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4138,25 +4170,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4747FC86-DF5D-2841-9DD6-180987C4218D}">
-  <dimension ref="A1:K164"/>
+  <dimension ref="A1:K165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
       <selection activeCell="D168" sqref="D168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="19.83203125" customWidth="1"/>
+    <col min="1" max="2" width="19.81640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="109.1640625" customWidth="1"/>
-    <col min="5" max="5" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="109.1796875" customWidth="1"/>
+    <col min="5" max="5" width="35.453125" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="9" max="9" width="41.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="9" max="9" width="41.6328125" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4189,7 +4221,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="51">
+    <row r="2" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -4217,7 +4249,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -4246,7 +4278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -4275,7 +4307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -4304,7 +4336,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -4333,7 +4365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -4360,7 +4392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -4389,7 +4421,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -4418,7 +4450,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -4447,7 +4479,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
@@ -4476,7 +4508,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -4505,7 +4537,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -4534,7 +4566,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -4563,7 +4595,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -4592,7 +4624,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -4621,7 +4653,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -4650,7 +4682,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
@@ -4679,7 +4711,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -4705,7 +4737,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -4734,7 +4766,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -4763,7 +4795,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
@@ -4792,7 +4824,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
@@ -4821,7 +4853,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="34">
+    <row r="24" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -4850,7 +4882,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
@@ -4879,7 +4911,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>43</v>
       </c>
@@ -4908,7 +4940,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>159</v>
       </c>
@@ -4937,7 +4969,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>159</v>
       </c>
@@ -4966,7 +4998,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>159</v>
       </c>
@@ -4995,7 +5027,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>159</v>
       </c>
@@ -5024,7 +5056,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>159</v>
       </c>
@@ -5053,7 +5085,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>159</v>
       </c>
@@ -5082,7 +5114,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>159</v>
       </c>
@@ -5111,7 +5143,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>206</v>
       </c>
@@ -5140,7 +5172,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>206</v>
       </c>
@@ -5169,7 +5201,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="17">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>206</v>
       </c>
@@ -5198,7 +5230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="17">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>206</v>
       </c>
@@ -5227,7 +5259,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="17">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>206</v>
       </c>
@@ -5256,7 +5288,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="17">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>206</v>
       </c>
@@ -5285,7 +5317,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>206</v>
       </c>
@@ -5314,7 +5346,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="17">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>241</v>
       </c>
@@ -5343,7 +5375,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="17">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>241</v>
       </c>
@@ -5372,7 +5404,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="17">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>241</v>
       </c>
@@ -5401,7 +5433,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="17">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>241</v>
       </c>
@@ -5430,7 +5462,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="17">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>241</v>
       </c>
@@ -5459,7 +5491,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="17">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>241</v>
       </c>
@@ -5488,7 +5520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="17">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>241</v>
       </c>
@@ -5517,7 +5549,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="17">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>241</v>
       </c>
@@ -5546,7 +5578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="17">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>241</v>
       </c>
@@ -5575,7 +5607,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="17">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>241</v>
       </c>
@@ -5604,7 +5636,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="17">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>241</v>
       </c>
@@ -5633,7 +5665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="17">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>241</v>
       </c>
@@ -5662,7 +5694,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="17">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>303</v>
       </c>
@@ -5691,7 +5723,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="17">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>303</v>
       </c>
@@ -5720,7 +5752,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="34">
+    <row r="55" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>303</v>
       </c>
@@ -5749,7 +5781,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="17">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>303</v>
       </c>
@@ -5778,7 +5810,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="17">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>303</v>
       </c>
@@ -5807,7 +5839,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="34">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>303</v>
       </c>
@@ -5836,7 +5868,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="17">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>303</v>
       </c>
@@ -5865,7 +5897,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="17">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>346</v>
       </c>
@@ -5894,7 +5926,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="17">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>346</v>
       </c>
@@ -5923,7 +5955,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>346</v>
       </c>
@@ -5952,7 +5984,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>346</v>
       </c>
@@ -5981,7 +6013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>346</v>
       </c>
@@ -6010,7 +6042,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>346</v>
       </c>
@@ -6039,7 +6071,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>346</v>
       </c>
@@ -6068,7 +6100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="34">
+    <row r="67" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>380</v>
       </c>
@@ -6097,7 +6129,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>380</v>
       </c>
@@ -6126,7 +6158,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>380</v>
       </c>
@@ -6155,7 +6187,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>380</v>
       </c>
@@ -6184,7 +6216,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>380</v>
       </c>
@@ -6213,7 +6245,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>400</v>
       </c>
@@ -6242,7 +6274,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>380</v>
       </c>
@@ -6271,7 +6303,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>380</v>
       </c>
@@ -6300,7 +6332,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>380</v>
       </c>
@@ -6329,7 +6361,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>380</v>
       </c>
@@ -6358,7 +6390,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>380</v>
       </c>
@@ -6387,7 +6419,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>400</v>
       </c>
@@ -6416,7 +6448,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>400</v>
       </c>
@@ -6445,7 +6477,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>407</v>
       </c>
@@ -6474,7 +6506,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>407</v>
       </c>
@@ -6503,7 +6535,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>407</v>
       </c>
@@ -6532,7 +6564,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>407</v>
       </c>
@@ -6561,7 +6593,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>407</v>
       </c>
@@ -6590,7 +6622,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>407</v>
       </c>
@@ -6619,7 +6651,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="34">
+    <row r="86" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>407</v>
       </c>
@@ -6648,7 +6680,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>407</v>
       </c>
@@ -6677,7 +6709,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>407</v>
       </c>
@@ -6706,7 +6738,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>407</v>
       </c>
@@ -6735,7 +6767,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>407</v>
       </c>
@@ -6764,7 +6796,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>517</v>
       </c>
@@ -6793,7 +6825,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>517</v>
       </c>
@@ -6822,7 +6854,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="34">
+    <row r="93" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>517</v>
       </c>
@@ -6851,7 +6883,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>517</v>
       </c>
@@ -6880,7 +6912,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>517</v>
       </c>
@@ -6909,7 +6941,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>516</v>
       </c>
@@ -6938,7 +6970,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>516</v>
       </c>
@@ -6967,7 +6999,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>516</v>
       </c>
@@ -6996,7 +7028,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>516</v>
       </c>
@@ -7025,7 +7057,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>516</v>
       </c>
@@ -7054,7 +7086,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>516</v>
       </c>
@@ -7083,7 +7115,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>577</v>
       </c>
@@ -7112,7 +7144,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>577</v>
       </c>
@@ -7141,7 +7173,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>577</v>
       </c>
@@ -7170,7 +7202,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>577</v>
       </c>
@@ -7199,7 +7231,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>577</v>
       </c>
@@ -7228,7 +7260,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>577</v>
       </c>
@@ -7257,7 +7289,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="34">
+    <row r="108" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>577</v>
       </c>
@@ -7286,7 +7318,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>577</v>
       </c>
@@ -7315,7 +7347,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>576</v>
       </c>
@@ -7344,7 +7376,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>576</v>
       </c>
@@ -7373,7 +7405,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="34">
+    <row r="112" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>639</v>
       </c>
@@ -7402,7 +7434,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>639</v>
       </c>
@@ -7431,7 +7463,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>639</v>
       </c>
@@ -7460,7 +7492,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>655</v>
       </c>
@@ -7489,7 +7521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>658</v>
       </c>
@@ -7518,7 +7550,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>658</v>
       </c>
@@ -7547,7 +7579,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>658</v>
       </c>
@@ -7576,7 +7608,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>658</v>
       </c>
@@ -7605,7 +7637,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>691</v>
       </c>
@@ -7634,7 +7666,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>691</v>
       </c>
@@ -7663,7 +7695,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>691</v>
       </c>
@@ -7692,7 +7724,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>691</v>
       </c>
@@ -7721,7 +7753,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>691</v>
       </c>
@@ -7750,7 +7782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>691</v>
       </c>
@@ -7779,7 +7811,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
         <v>726</v>
       </c>
@@ -7808,7 +7840,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>726</v>
       </c>
@@ -7837,7 +7869,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>726</v>
       </c>
@@ -7866,7 +7898,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>725</v>
       </c>
@@ -7895,7 +7927,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="34">
+    <row r="130" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>725</v>
       </c>
@@ -7924,7 +7956,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="34">
+    <row r="131" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>725</v>
       </c>
@@ -7953,7 +7985,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>725</v>
       </c>
@@ -7982,7 +8014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>725</v>
       </c>
@@ -8011,7 +8043,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>725</v>
       </c>
@@ -8040,7 +8072,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="34">
+    <row r="135" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>725</v>
       </c>
@@ -8069,7 +8101,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>725</v>
       </c>
@@ -8098,7 +8130,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>725</v>
       </c>
@@ -8127,7 +8159,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>725</v>
       </c>
@@ -8156,7 +8188,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>725</v>
       </c>
@@ -8185,7 +8217,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>725</v>
       </c>
@@ -8214,7 +8246,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>802</v>
       </c>
@@ -8243,7 +8275,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>802</v>
       </c>
@@ -8272,7 +8304,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>802</v>
       </c>
@@ -8301,7 +8333,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>802</v>
       </c>
@@ -8330,7 +8362,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="34">
+    <row r="145" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>802</v>
       </c>
@@ -8359,7 +8391,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>802</v>
       </c>
@@ -8388,7 +8420,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>834</v>
       </c>
@@ -8417,7 +8449,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>841</v>
       </c>
@@ -8446,7 +8478,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>841</v>
       </c>
@@ -8475,7 +8507,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>841</v>
       </c>
@@ -8504,7 +8536,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="34">
+    <row r="151" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>841</v>
       </c>
@@ -8533,7 +8565,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="34">
+    <row r="152" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>841</v>
       </c>
@@ -8562,7 +8594,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>841</v>
       </c>
@@ -8591,7 +8623,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>841</v>
       </c>
@@ -8620,7 +8652,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>841</v>
       </c>
@@ -8649,7 +8681,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>841</v>
       </c>
@@ -8678,7 +8710,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>841</v>
       </c>
@@ -8707,7 +8739,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="17">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>894</v>
       </c>
@@ -8736,7 +8768,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="34">
+    <row r="159" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>894</v>
       </c>
@@ -8765,7 +8797,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="17">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>894</v>
       </c>
@@ -8794,7 +8826,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="51">
+    <row r="161" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>894</v>
       </c>
@@ -8823,7 +8855,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="17">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
         <v>894</v>
       </c>
@@ -8852,7 +8884,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="17">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>894</v>
       </c>
@@ -8881,24 +8913,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="17">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
-        <v>894</v>
+        <v>924</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>463</v>
+        <v>208</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="D164" s="13" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="E164" s="14" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="G164" s="11" t="s">
         <v>11</v>
@@ -8908,6 +8940,35 @@
       </c>
       <c r="I164" s="11" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D165" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="E165" s="14" t="s">
+        <v>930</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>931</v>
+      </c>
+      <c r="G165" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H165" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I165" s="11" t="s">
+        <v>747</v>
       </c>
     </row>
   </sheetData>

--- a/剧情梳理.xlsx
+++ b/剧情梳理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\自媒体\clip-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021477EA-605A-4248-AF8E-57EB6290FCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CBA80D-9D3C-4119-B0A4-B7800E94033B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="961">
   <si>
     <t>点位开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3756,6 +3756,122 @@
   </si>
   <si>
     <t>开心/激动/被电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良在生日的晚上许愿，希望于贝贝：可以喜欢上姚从良喜欢的自己（表白）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日愿望/表白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心跳加速/开心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草坪上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室/街道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日礼物/全部都是数学公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐槽/自信/学渣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良、苏舟、陈末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟还是对姚从良的礼物下手了，床上四件套（全部印上数学公式），遭姚从良吐槽：你是让我睡觉都不安稳啊、做梦都不放过我吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:05'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:35'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末还是年轻了，以为是他说赵小雨胖导致生气的，赵小雨生气原因是陈末更新的一条说说：再见了，范同学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新说说/生气原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生气/百思不得其解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:35'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学题该怎么做，陈末：我看着都想哭，你竟然笑着做？ 赵小雨：难道哭着就能做出来？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论数学题的做法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑惑/无语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:48'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:22'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教室吵闹/混乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸气/铁面无私</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜鸟班主任/霸气女班长/全体同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:04'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面对吵闹教室，菜鸟班主任毫无办法，还被班长无声嘲笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸气女班长，使用特殊方法制止骚乱的教室场面，比菜鸟班主任强不少，连陈末这种小魔王看着都怕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教室吵闹/班长制止混乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无力/无言嘲笑/尴尬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4170,10 +4286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4747FC86-DF5D-2841-9DD6-180987C4218D}">
-  <dimension ref="A1:K165"/>
+  <dimension ref="A1:K171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="D168" sqref="D168"/>
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8933,7 +9049,7 @@
         <v>927</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>11</v>
+        <v>936</v>
       </c>
       <c r="H164" s="11" t="s">
         <v>317</v>
@@ -8962,13 +9078,187 @@
         <v>931</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>11</v>
+        <v>935</v>
       </c>
       <c r="H165" s="11" t="s">
         <v>317</v>
       </c>
       <c r="I165" s="11" t="s">
         <v>747</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="D166" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="E166" s="14" t="s">
+        <v>933</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>934</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="H166" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I166" s="11" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="D167" s="13" t="s">
+        <v>940</v>
+      </c>
+      <c r="E167" s="14" t="s">
+        <v>937</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="G167" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H167" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I167" s="11" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>942</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D168" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="E168" s="14" t="s">
+        <v>944</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G168" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H168" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I168" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>946</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="D169" s="13" t="s">
+        <v>947</v>
+      </c>
+      <c r="E169" s="14" t="s">
+        <v>948</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>949</v>
+      </c>
+      <c r="G169" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I169" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>956</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>955</v>
+      </c>
+      <c r="D170" s="13" t="s">
+        <v>957</v>
+      </c>
+      <c r="E170" s="14" t="s">
+        <v>959</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>960</v>
+      </c>
+      <c r="G170" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H170" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I170" s="11" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>955</v>
+      </c>
+      <c r="D171" s="13" t="s">
+        <v>958</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>952</v>
+      </c>
+      <c r="F171" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="G171" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H171" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I171" s="11" t="s">
+        <v>954</v>
       </c>
     </row>
   </sheetData>

--- a/剧情梳理.xlsx
+++ b/剧情梳理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\自媒体\clip-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjy/Desktop/workspace/myself/剪辑/文件、文档/clip-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CBA80D-9D3C-4119-B0A4-B7800E94033B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570B14E9-DE89-0A40-9F67-29C309131AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
   </bookViews>
   <sheets>
     <sheet name="教室的那一间" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="1029">
   <si>
     <t>点位开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3759,10 +3759,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>姚从良在生日的晚上许愿，希望于贝贝：可以喜欢上姚从良喜欢的自己（表白）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生日愿望/表白</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3872,6 +3868,285 @@
   </si>
   <si>
     <t>无力/无言嘲笑/尴尬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25:20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小道散步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟洁、于贝贝、姚从良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝、姚从良漫步在校园小道上，于贝贝怕被人发现误会她们的关系，姚从良保证这条路只有他知道，被啪啪打脸
+然后又悲剧了，被于贝贝一拳打到草里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>害怕/打脸/彪悍/受伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26:25'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>害怕/彪悍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨、于贝贝、姚从良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28:00'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟洁走过之后，又碰到赵小雨，姚从良第二次被甩进草丛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良在生日的晚上许愿，希望于贝贝：可以喜欢上姚从良喜欢的自己（表白）、连月亮都变成爱心状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二季/第六集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02:10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃午饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>憨厚/耿直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛德华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新同学饭量很大啊，这个，那个，还有那个，阿姨菜多一点好吗？饭也多一点，可以再多一点吗？再要两勺，要不三勺吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02:55'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03:10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04:20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛德华饭量遭到同学嘲笑，还好有陈末解围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭量大/嘲笑/憨厚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛德华、陈末、苏舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04:24'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06:30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末、姚从良在班主任课堂上捣乱，三长一短选一短？三短一长选一长？被班主任罚下课去办公室写检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课/菜鸟老师被欺负</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟洁、牛德华情景朗读，牛德华口语太差，遭钟洁无言嫌弃，牛德华气出牛叫，老师让钟洁辅导牛德华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情景朗读/上课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫌弃/气愤/热心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捣乱/太难了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班主任、全班同学、牛德华、钟洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06:45'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搞笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3小只和牛德华在校外点餐被年纪主任抓住、3小只跑路成功，却让牛德华背锅、牛德华再现惊人饭量，吃掉4人份麻辣烫
+期间还插播一段牛吃麻辣烫脱口秀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校外点餐/年纪主任抓正着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛德华、3小只、薛晓花（年级主任、前班主任）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尴尬/看着都撑/义气/开心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校围墙内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动借出笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨主动把笔记借给陈末、这让陈末很懵，明明之前都爱答不理的，现在怎么这么主动，让人匪夷所思，很没有安全感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懵逼/主动/反复/没有安全感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟洁、牛德华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:26'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟洁辅导牛德华口语，牛德华口语很不标准，还很难改正，把钟洁气的摇头晃脑，并让他在自身找原因，把牛德华气出牛叫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅导口语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气愤/无奈/不耐烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛德华为感谢3小只最近的帮助，把牛妈买的名牌T恤送给他们，却被钟洁、李佳敏嘲笑是假名牌，还引导全班同学嘲笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送名牌T恤/被人嘲笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全班同学、钟洁、牛德华、3小只、李佳敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:38'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲笑/自卑/长舌妇/担忧（钟洁）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:42'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛德华、牛妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛德华因假衣服被同学嘲笑，把气发到牛妈身上，牛妈只能给牛德华赔笑道：如果外面呆的不开心，可以回家读书，
+转手就把自己的名牌衣服换下来脱掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发火/扔衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温暖/嫌弃/丢人/生气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼梯道/教室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换假名牌衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友情/安慰/高兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛德华、3小只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25:28'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3小只为安慰牛德华被嘲笑的心灵，主动把被同学嘲笑为假名牌的T恤换上，并把之前扔的T恤捡了回来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捡回假名牌衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道歉/嘴硬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛德华、钟洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛德华受3小只鼓励跑回教室把扔掉的衣服捡回来，钟洁向其道歉并表示以后会继续辅导他口语，而且不会有摇头晃脑的陋习，画面满满</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3879,7 +4154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4286,25 +4561,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4747FC86-DF5D-2841-9DD6-180987C4218D}">
-  <dimension ref="A1:K171"/>
+  <dimension ref="A1:K184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="I186" sqref="I186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="19.81640625" customWidth="1"/>
+    <col min="1" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="109.1796875" customWidth="1"/>
-    <col min="5" max="5" width="35.453125" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
-    <col min="9" max="9" width="41.6328125" customWidth="1"/>
-    <col min="10" max="10" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="109.1640625" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="45" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4337,7 +4612,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="51">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -4365,7 +4640,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -4394,7 +4669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -4423,7 +4698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -4452,7 +4727,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -4481,7 +4756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -4508,7 +4783,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -4537,7 +4812,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -4566,7 +4841,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -4595,7 +4870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
@@ -4624,7 +4899,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -4653,7 +4928,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -4682,7 +4957,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -4711,7 +4986,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -4740,7 +5015,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -4769,7 +5044,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -4798,7 +5073,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
@@ -4827,7 +5102,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -4853,7 +5128,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -4882,7 +5157,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -4911,7 +5186,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
@@ -4940,7 +5215,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
@@ -4969,7 +5244,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="34">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -4998,7 +5273,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="17">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
@@ -5027,7 +5302,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="17">
       <c r="A26" s="4" t="s">
         <v>43</v>
       </c>
@@ -5056,7 +5331,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="17">
       <c r="A27" s="4" t="s">
         <v>159</v>
       </c>
@@ -5085,7 +5360,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="17">
       <c r="A28" s="4" t="s">
         <v>159</v>
       </c>
@@ -5114,7 +5389,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="17">
       <c r="A29" s="4" t="s">
         <v>159</v>
       </c>
@@ -5143,7 +5418,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="17">
       <c r="A30" s="4" t="s">
         <v>159</v>
       </c>
@@ -5172,7 +5447,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="17">
       <c r="A31" s="4" t="s">
         <v>159</v>
       </c>
@@ -5201,7 +5476,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="17">
       <c r="A32" s="4" t="s">
         <v>159</v>
       </c>
@@ -5230,7 +5505,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="17">
       <c r="A33" s="4" t="s">
         <v>159</v>
       </c>
@@ -5259,7 +5534,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="17">
       <c r="A34" s="4" t="s">
         <v>206</v>
       </c>
@@ -5288,7 +5563,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="17">
       <c r="A35" s="4" t="s">
         <v>206</v>
       </c>
@@ -5317,7 +5592,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="17">
       <c r="A36" s="4" t="s">
         <v>206</v>
       </c>
@@ -5346,7 +5621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="17">
       <c r="A37" s="4" t="s">
         <v>206</v>
       </c>
@@ -5375,7 +5650,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="17">
       <c r="A38" s="4" t="s">
         <v>206</v>
       </c>
@@ -5404,7 +5679,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="17">
       <c r="A39" s="4" t="s">
         <v>206</v>
       </c>
@@ -5433,7 +5708,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="17">
       <c r="A40" s="4" t="s">
         <v>206</v>
       </c>
@@ -5462,7 +5737,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="17">
       <c r="A41" s="4" t="s">
         <v>241</v>
       </c>
@@ -5491,7 +5766,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="17">
       <c r="A42" s="4" t="s">
         <v>241</v>
       </c>
@@ -5520,7 +5795,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="17">
       <c r="A43" s="4" t="s">
         <v>241</v>
       </c>
@@ -5549,7 +5824,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="17">
       <c r="A44" s="4" t="s">
         <v>241</v>
       </c>
@@ -5578,7 +5853,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="17">
       <c r="A45" s="4" t="s">
         <v>241</v>
       </c>
@@ -5607,7 +5882,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="17">
       <c r="A46" s="4" t="s">
         <v>241</v>
       </c>
@@ -5636,7 +5911,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="17">
       <c r="A47" s="4" t="s">
         <v>241</v>
       </c>
@@ -5665,7 +5940,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="17">
       <c r="A48" s="4" t="s">
         <v>241</v>
       </c>
@@ -5694,7 +5969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="17">
       <c r="A49" s="4" t="s">
         <v>241</v>
       </c>
@@ -5723,7 +5998,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="17">
       <c r="A50" s="4" t="s">
         <v>241</v>
       </c>
@@ -5752,7 +6027,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="17">
       <c r="A51" s="4" t="s">
         <v>241</v>
       </c>
@@ -5781,7 +6056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="17">
       <c r="A52" s="4" t="s">
         <v>241</v>
       </c>
@@ -5810,7 +6085,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="17">
       <c r="A53" s="4" t="s">
         <v>303</v>
       </c>
@@ -5839,7 +6114,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="17">
       <c r="A54" s="4" t="s">
         <v>303</v>
       </c>
@@ -5868,7 +6143,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="34">
       <c r="A55" s="4" t="s">
         <v>303</v>
       </c>
@@ -5897,7 +6172,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="17">
       <c r="A56" s="4" t="s">
         <v>303</v>
       </c>
@@ -5926,7 +6201,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="17">
       <c r="A57" s="4" t="s">
         <v>303</v>
       </c>
@@ -5955,7 +6230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="17">
       <c r="A58" s="4" t="s">
         <v>303</v>
       </c>
@@ -5984,7 +6259,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="17">
       <c r="A59" s="4" t="s">
         <v>303</v>
       </c>
@@ -6013,7 +6288,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="17">
       <c r="A60" s="4" t="s">
         <v>346</v>
       </c>
@@ -6042,7 +6317,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="17">
       <c r="A61" s="4" t="s">
         <v>346</v>
       </c>
@@ -6071,7 +6346,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
         <v>346</v>
       </c>
@@ -6100,7 +6375,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
         <v>346</v>
       </c>
@@ -6129,7 +6404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
         <v>346</v>
       </c>
@@ -6158,7 +6433,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
         <v>346</v>
       </c>
@@ -6187,7 +6462,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
         <v>346</v>
       </c>
@@ -6216,7 +6491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="34">
       <c r="A67" s="4" t="s">
         <v>380</v>
       </c>
@@ -6245,7 +6520,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
         <v>380</v>
       </c>
@@ -6274,7 +6549,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
         <v>380</v>
       </c>
@@ -6303,7 +6578,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
         <v>380</v>
       </c>
@@ -6332,7 +6607,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
         <v>380</v>
       </c>
@@ -6361,7 +6636,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="A72" s="9" t="s">
         <v>400</v>
       </c>
@@ -6390,7 +6665,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="A73" s="4" t="s">
         <v>380</v>
       </c>
@@ -6419,7 +6694,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="A74" s="4" t="s">
         <v>380</v>
       </c>
@@ -6448,7 +6723,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="4" t="s">
         <v>380</v>
       </c>
@@ -6477,7 +6752,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="A76" s="4" t="s">
         <v>380</v>
       </c>
@@ -6506,7 +6781,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="A77" s="4" t="s">
         <v>380</v>
       </c>
@@ -6535,7 +6810,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="A78" s="9" t="s">
         <v>400</v>
       </c>
@@ -6564,7 +6839,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9">
       <c r="A79" s="9" t="s">
         <v>400</v>
       </c>
@@ -6593,7 +6868,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="9" t="s">
         <v>407</v>
       </c>
@@ -6622,7 +6897,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9">
       <c r="A81" s="9" t="s">
         <v>407</v>
       </c>
@@ -6651,7 +6926,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9">
       <c r="A82" s="9" t="s">
         <v>407</v>
       </c>
@@ -6680,7 +6955,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9">
       <c r="A83" s="9" t="s">
         <v>407</v>
       </c>
@@ -6709,7 +6984,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9">
       <c r="A84" s="9" t="s">
         <v>407</v>
       </c>
@@ -6738,7 +7013,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9">
       <c r="A85" s="9" t="s">
         <v>407</v>
       </c>
@@ -6767,7 +7042,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="34">
       <c r="A86" s="9" t="s">
         <v>407</v>
       </c>
@@ -6796,7 +7071,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9">
       <c r="A87" s="9" t="s">
         <v>407</v>
       </c>
@@ -6825,7 +7100,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9">
       <c r="A88" s="9" t="s">
         <v>407</v>
       </c>
@@ -6854,7 +7129,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9">
       <c r="A89" s="9" t="s">
         <v>407</v>
       </c>
@@ -6883,7 +7158,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9">
       <c r="A90" s="9" t="s">
         <v>407</v>
       </c>
@@ -6912,7 +7187,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9">
       <c r="A91" s="9" t="s">
         <v>517</v>
       </c>
@@ -6941,7 +7216,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9">
       <c r="A92" s="9" t="s">
         <v>517</v>
       </c>
@@ -6970,7 +7245,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="34">
       <c r="A93" s="9" t="s">
         <v>517</v>
       </c>
@@ -6999,7 +7274,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9">
       <c r="A94" s="9" t="s">
         <v>517</v>
       </c>
@@ -7028,7 +7303,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9">
       <c r="A95" s="9" t="s">
         <v>517</v>
       </c>
@@ -7057,7 +7332,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9">
       <c r="A96" s="9" t="s">
         <v>516</v>
       </c>
@@ -7086,7 +7361,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9">
       <c r="A97" s="9" t="s">
         <v>516</v>
       </c>
@@ -7115,7 +7390,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9">
       <c r="A98" s="9" t="s">
         <v>516</v>
       </c>
@@ -7144,7 +7419,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9">
       <c r="A99" s="9" t="s">
         <v>516</v>
       </c>
@@ -7173,7 +7448,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9">
       <c r="A100" s="9" t="s">
         <v>516</v>
       </c>
@@ -7202,7 +7477,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9">
       <c r="A101" s="9" t="s">
         <v>516</v>
       </c>
@@ -7231,7 +7506,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9">
       <c r="A102" s="9" t="s">
         <v>577</v>
       </c>
@@ -7260,7 +7535,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9">
       <c r="A103" s="9" t="s">
         <v>577</v>
       </c>
@@ -7289,7 +7564,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9">
       <c r="A104" s="9" t="s">
         <v>577</v>
       </c>
@@ -7318,7 +7593,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9">
       <c r="A105" s="9" t="s">
         <v>577</v>
       </c>
@@ -7347,7 +7622,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9">
       <c r="A106" s="9" t="s">
         <v>577</v>
       </c>
@@ -7376,7 +7651,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9">
       <c r="A107" s="9" t="s">
         <v>577</v>
       </c>
@@ -7405,7 +7680,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="34">
       <c r="A108" s="9" t="s">
         <v>577</v>
       </c>
@@ -7434,7 +7709,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9">
       <c r="A109" s="9" t="s">
         <v>577</v>
       </c>
@@ -7463,7 +7738,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9">
       <c r="A110" s="9" t="s">
         <v>576</v>
       </c>
@@ -7492,7 +7767,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9">
       <c r="A111" s="9" t="s">
         <v>576</v>
       </c>
@@ -7521,7 +7796,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="34">
       <c r="A112" s="9" t="s">
         <v>639</v>
       </c>
@@ -7550,7 +7825,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9">
       <c r="A113" s="9" t="s">
         <v>639</v>
       </c>
@@ -7579,7 +7854,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9">
       <c r="A114" s="9" t="s">
         <v>639</v>
       </c>
@@ -7608,7 +7883,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9">
       <c r="A115" s="9" t="s">
         <v>655</v>
       </c>
@@ -7637,7 +7912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9">
       <c r="A116" s="9" t="s">
         <v>658</v>
       </c>
@@ -7666,7 +7941,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9">
       <c r="A117" s="9" t="s">
         <v>658</v>
       </c>
@@ -7695,7 +7970,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9">
       <c r="A118" s="9" t="s">
         <v>658</v>
       </c>
@@ -7724,7 +7999,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9">
       <c r="A119" s="9" t="s">
         <v>658</v>
       </c>
@@ -7753,7 +8028,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9">
       <c r="A120" s="9" t="s">
         <v>691</v>
       </c>
@@ -7782,7 +8057,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9">
       <c r="A121" s="9" t="s">
         <v>691</v>
       </c>
@@ -7811,7 +8086,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9">
       <c r="A122" s="9" t="s">
         <v>691</v>
       </c>
@@ -7840,7 +8115,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9">
       <c r="A123" s="9" t="s">
         <v>691</v>
       </c>
@@ -7869,7 +8144,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9">
       <c r="A124" s="9" t="s">
         <v>691</v>
       </c>
@@ -7898,7 +8173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9">
       <c r="A125" s="9" t="s">
         <v>691</v>
       </c>
@@ -7927,7 +8202,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9">
       <c r="A126" s="9" t="s">
         <v>726</v>
       </c>
@@ -7956,7 +8231,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9">
       <c r="A127" s="9" t="s">
         <v>726</v>
       </c>
@@ -7985,7 +8260,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9">
       <c r="A128" s="9" t="s">
         <v>726</v>
       </c>
@@ -8014,7 +8289,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9">
       <c r="A129" s="9" t="s">
         <v>725</v>
       </c>
@@ -8043,7 +8318,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="34">
       <c r="A130" s="9" t="s">
         <v>725</v>
       </c>
@@ -8072,7 +8347,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="34">
       <c r="A131" s="9" t="s">
         <v>725</v>
       </c>
@@ -8101,7 +8376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9">
       <c r="A132" s="9" t="s">
         <v>725</v>
       </c>
@@ -8130,7 +8405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9">
       <c r="A133" s="9" t="s">
         <v>725</v>
       </c>
@@ -8159,7 +8434,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9">
       <c r="A134" s="9" t="s">
         <v>725</v>
       </c>
@@ -8188,7 +8463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="34">
       <c r="A135" s="9" t="s">
         <v>725</v>
       </c>
@@ -8217,7 +8492,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9">
       <c r="A136" s="9" t="s">
         <v>725</v>
       </c>
@@ -8246,7 +8521,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9">
       <c r="A137" s="9" t="s">
         <v>725</v>
       </c>
@@ -8275,7 +8550,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9">
       <c r="A138" s="9" t="s">
         <v>725</v>
       </c>
@@ -8304,7 +8579,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9">
       <c r="A139" s="9" t="s">
         <v>725</v>
       </c>
@@ -8333,7 +8608,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9">
       <c r="A140" s="9" t="s">
         <v>725</v>
       </c>
@@ -8362,7 +8637,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9">
       <c r="A141" s="9" t="s">
         <v>802</v>
       </c>
@@ -8391,7 +8666,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9">
       <c r="A142" s="9" t="s">
         <v>802</v>
       </c>
@@ -8420,7 +8695,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9">
       <c r="A143" s="9" t="s">
         <v>802</v>
       </c>
@@ -8449,7 +8724,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9">
       <c r="A144" s="9" t="s">
         <v>802</v>
       </c>
@@ -8478,7 +8753,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="34">
       <c r="A145" s="9" t="s">
         <v>802</v>
       </c>
@@ -8507,7 +8782,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9">
       <c r="A146" s="9" t="s">
         <v>802</v>
       </c>
@@ -8536,7 +8811,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9">
       <c r="A147" s="9" t="s">
         <v>834</v>
       </c>
@@ -8565,7 +8840,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9">
       <c r="A148" s="9" t="s">
         <v>841</v>
       </c>
@@ -8594,7 +8869,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9">
       <c r="A149" s="9" t="s">
         <v>841</v>
       </c>
@@ -8623,7 +8898,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9">
       <c r="A150" s="9" t="s">
         <v>841</v>
       </c>
@@ -8652,7 +8927,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="34">
       <c r="A151" s="9" t="s">
         <v>841</v>
       </c>
@@ -8681,7 +8956,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="34">
       <c r="A152" s="9" t="s">
         <v>841</v>
       </c>
@@ -8710,7 +8985,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9">
       <c r="A153" s="9" t="s">
         <v>841</v>
       </c>
@@ -8739,7 +9014,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9">
       <c r="A154" s="9" t="s">
         <v>841</v>
       </c>
@@ -8768,7 +9043,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9">
       <c r="A155" s="9" t="s">
         <v>841</v>
       </c>
@@ -8797,7 +9072,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9">
       <c r="A156" s="9" t="s">
         <v>841</v>
       </c>
@@ -8826,7 +9101,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9">
       <c r="A157" s="9" t="s">
         <v>841</v>
       </c>
@@ -8855,7 +9130,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="17">
       <c r="A158" s="9" t="s">
         <v>894</v>
       </c>
@@ -8884,7 +9159,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="34">
       <c r="A159" s="9" t="s">
         <v>894</v>
       </c>
@@ -8913,7 +9188,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="17">
       <c r="A160" s="9" t="s">
         <v>894</v>
       </c>
@@ -8942,7 +9217,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="51">
       <c r="A161" s="9" t="s">
         <v>894</v>
       </c>
@@ -8971,7 +9246,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="17">
       <c r="A162" s="9" t="s">
         <v>894</v>
       </c>
@@ -9000,7 +9275,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="17">
       <c r="A163" s="9" t="s">
         <v>894</v>
       </c>
@@ -9029,7 +9304,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="17">
       <c r="A164" s="9" t="s">
         <v>924</v>
       </c>
@@ -9049,7 +9324,7 @@
         <v>927</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H164" s="11" t="s">
         <v>317</v>
@@ -9058,7 +9333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="17">
       <c r="A165" s="9" t="s">
         <v>924</v>
       </c>
@@ -9078,7 +9353,7 @@
         <v>931</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H165" s="11" t="s">
         <v>317</v>
@@ -9087,7 +9362,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="17">
       <c r="A166" s="9" t="s">
         <v>924</v>
       </c>
@@ -9098,16 +9373,16 @@
         <v>899</v>
       </c>
       <c r="D166" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="E166" s="14" t="s">
         <v>932</v>
       </c>
-      <c r="E166" s="14" t="s">
+      <c r="F166" s="11" t="s">
         <v>933</v>
       </c>
-      <c r="F166" s="11" t="s">
+      <c r="G166" s="11" t="s">
         <v>934</v>
-      </c>
-      <c r="G166" s="11" t="s">
-        <v>935</v>
       </c>
       <c r="H166" s="11" t="s">
         <v>317</v>
@@ -9116,7 +9391,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="34">
       <c r="A167" s="9" t="s">
         <v>924</v>
       </c>
@@ -9124,16 +9399,16 @@
         <v>365</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D167" s="13" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E167" s="14" t="s">
+        <v>936</v>
+      </c>
+      <c r="F167" s="11" t="s">
         <v>937</v>
-      </c>
-      <c r="F167" s="11" t="s">
-        <v>938</v>
       </c>
       <c r="G167" s="11" t="s">
         <v>57</v>
@@ -9142,27 +9417,27 @@
         <v>317</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="17">
       <c r="A168" s="9" t="s">
         <v>924</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C168" s="10" t="s">
         <v>271</v>
       </c>
       <c r="D168" s="13" t="s">
+        <v>942</v>
+      </c>
+      <c r="E168" s="14" t="s">
         <v>943</v>
       </c>
-      <c r="E168" s="14" t="s">
+      <c r="F168" s="11" t="s">
         <v>944</v>
-      </c>
-      <c r="F168" s="11" t="s">
-        <v>945</v>
       </c>
       <c r="G168" s="11" t="s">
         <v>57</v>
@@ -9174,24 +9449,24 @@
         <v>58</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="17">
       <c r="A169" s="9" t="s">
         <v>924</v>
       </c>
       <c r="B169" s="10" t="s">
+        <v>945</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="D169" s="13" t="s">
         <v>946</v>
       </c>
-      <c r="C169" s="10" t="s">
-        <v>950</v>
-      </c>
-      <c r="D169" s="13" t="s">
+      <c r="E169" s="14" t="s">
         <v>947</v>
       </c>
-      <c r="E169" s="14" t="s">
+      <c r="F169" s="11" t="s">
         <v>948</v>
-      </c>
-      <c r="F169" s="11" t="s">
-        <v>949</v>
       </c>
       <c r="G169" s="11" t="s">
         <v>11</v>
@@ -9203,24 +9478,24 @@
         <v>526</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="17">
       <c r="A170" s="9" t="s">
         <v>924</v>
       </c>
       <c r="B170" s="10" t="s">
+        <v>955</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>954</v>
+      </c>
+      <c r="D170" s="13" t="s">
         <v>956</v>
       </c>
-      <c r="C170" s="10" t="s">
-        <v>955</v>
-      </c>
-      <c r="D170" s="13" t="s">
-        <v>957</v>
-      </c>
       <c r="E170" s="14" t="s">
+        <v>958</v>
+      </c>
+      <c r="F170" s="11" t="s">
         <v>959</v>
-      </c>
-      <c r="F170" s="11" t="s">
-        <v>960</v>
       </c>
       <c r="G170" s="11" t="s">
         <v>11</v>
@@ -9229,27 +9504,27 @@
         <v>317</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="17">
       <c r="A171" s="9" t="s">
         <v>924</v>
       </c>
       <c r="B171" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>954</v>
+      </c>
+      <c r="D171" s="13" t="s">
+        <v>957</v>
+      </c>
+      <c r="E171" s="14" t="s">
         <v>951</v>
       </c>
-      <c r="C171" s="10" t="s">
-        <v>955</v>
-      </c>
-      <c r="D171" s="13" t="s">
-        <v>958</v>
-      </c>
-      <c r="E171" s="14" t="s">
+      <c r="F171" s="11" t="s">
         <v>952</v>
-      </c>
-      <c r="F171" s="11" t="s">
-        <v>953</v>
       </c>
       <c r="G171" s="11" t="s">
         <v>11</v>
@@ -9258,7 +9533,384 @@
         <v>317</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>954</v>
+        <v>953</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="34">
+      <c r="A172" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>960</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>966</v>
+      </c>
+      <c r="D172" s="13" t="s">
+        <v>964</v>
+      </c>
+      <c r="E172" s="14" t="s">
+        <v>961</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="G172" s="11" t="s">
+        <v>962</v>
+      </c>
+      <c r="H172" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I172" s="11" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="17">
+      <c r="A173" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>969</v>
+      </c>
+      <c r="D173" s="13" t="s">
+        <v>970</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>961</v>
+      </c>
+      <c r="F173" s="11" t="s">
+        <v>967</v>
+      </c>
+      <c r="G173" s="11" t="s">
+        <v>962</v>
+      </c>
+      <c r="H173" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I173" s="11" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="17">
+      <c r="A174" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>973</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>978</v>
+      </c>
+      <c r="D174" s="13" t="s">
+        <v>977</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>974</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>975</v>
+      </c>
+      <c r="G174" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H174" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I174" s="11" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="17">
+      <c r="A175" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>979</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>980</v>
+      </c>
+      <c r="D175" s="13" t="s">
+        <v>981</v>
+      </c>
+      <c r="E175" s="14" t="s">
+        <v>974</v>
+      </c>
+      <c r="F175" s="11" t="s">
+        <v>982</v>
+      </c>
+      <c r="G175" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H175" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I175" s="11" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="17">
+      <c r="A176" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>984</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>985</v>
+      </c>
+      <c r="D176" s="13" t="s">
+        <v>986</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>987</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>992</v>
+      </c>
+      <c r="G176" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H176" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I176" s="11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="17">
+      <c r="A177" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>994</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D177" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="E177" s="14" t="s">
+        <v>990</v>
+      </c>
+      <c r="F177" s="11" t="s">
+        <v>991</v>
+      </c>
+      <c r="G177" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H177" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="I177" s="11" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="34">
+      <c r="A178" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="D178" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="E178" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="F178" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="G178" s="11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H178" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I178" s="11" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="17">
+      <c r="A179" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="D179" s="13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E179" s="14" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F179" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G179" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H179" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I179" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="17">
+      <c r="A180" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="D180" s="13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E180" s="14" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F180" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G180" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H180" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I180" s="11" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="17">
+      <c r="A181" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D181" s="13" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E181" s="14" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F181" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G181" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H181" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I181" s="11" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="34">
+      <c r="A182" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D182" s="13" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E182" s="14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G182" s="11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H182" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I182" s="11" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="17">
+      <c r="A183" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D183" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E183" s="14" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F183" s="11" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G183" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H183" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I183" s="11" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="34">
+      <c r="A184" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D184" s="13" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E184" s="14" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F184" s="11" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G184" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H184" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I184" s="11" t="s">
+        <v>1027</v>
       </c>
     </row>
   </sheetData>

--- a/剧情梳理.xlsx
+++ b/剧情梳理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjy/Desktop/workspace/myself/剪辑/文件、文档/clip-excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\自媒体\clip-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570B14E9-DE89-0A40-9F67-29C309131AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9668D7E8-8B15-413B-81A5-7D1EDA5EE0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
   </bookViews>
   <sheets>
     <sheet name="教室的那一间" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="1049">
   <si>
     <t>点位开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4147,6 +4147,86 @@
   </si>
   <si>
     <t>牛德华受3小只鼓励跑回教室把扔掉的衣服捡回来，钟洁向其道歉并表示以后会继续辅导他口语，而且不会有摇头晃脑的陋习，画面满满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末在赵小雨的qq空间里看到一张由别的男孩拍的照片，顿时火冒三丈，玻璃杯都捏碎，眼睛里直接出现愤怒的火焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说说/照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愤怒/不解/吃醋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二季/第七集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良主动给于贝贝下去买零食，瞬间整个教室陷入了八卦气氛，虽然姚从良及时说帮所有人都顺便带一份，但还是没有阻止教室八卦的心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买零食/主动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八卦/紧张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体同学、姚从良、于贝贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:08'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:16'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛德华在校门口做检查仪容仪表的值日生，拦住一位高三学姐，尽显直男气质，扣完分还想吃麻辣烫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪容仪表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直男/不解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校门口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛德华、苏舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:35'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚从良和于贝贝在喝下午茶，姚从良再次立flag，这个地方只有我知道，被啪啪打脸，然后又悲剧了（藏在桌子底下着急）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡馆里喝饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打脸/尴尬/难受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝、姚从良、赵小雨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4154,7 +4234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4561,25 +4641,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4747FC86-DF5D-2841-9DD6-180987C4218D}">
-  <dimension ref="A1:K184"/>
+  <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="I186" sqref="I186"/>
+    <sheetView tabSelected="1" topLeftCell="E177" workbookViewId="0">
+      <selection activeCell="I188" sqref="I188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="19.83203125" customWidth="1"/>
+    <col min="1" max="2" width="19.81640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="109.1640625" customWidth="1"/>
-    <col min="5" max="5" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="109.1796875" customWidth="1"/>
+    <col min="5" max="5" width="35.453125" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
     <col min="9" max="9" width="45" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4612,7 +4692,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="51">
+    <row r="2" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -4640,7 +4720,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -4669,7 +4749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -4698,7 +4778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -4727,7 +4807,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -4756,7 +4836,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -4783,7 +4863,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -4812,7 +4892,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -4841,7 +4921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -4870,7 +4950,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
@@ -4899,7 +4979,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -4928,7 +5008,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -4957,7 +5037,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -4986,7 +5066,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -5015,7 +5095,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -5044,7 +5124,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -5073,7 +5153,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
@@ -5102,7 +5182,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -5128,7 +5208,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -5157,7 +5237,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -5186,7 +5266,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
@@ -5215,7 +5295,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
@@ -5244,7 +5324,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="34">
+    <row r="24" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -5273,7 +5353,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
@@ -5302,7 +5382,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>43</v>
       </c>
@@ -5331,7 +5411,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>159</v>
       </c>
@@ -5360,7 +5440,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>159</v>
       </c>
@@ -5389,7 +5469,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>159</v>
       </c>
@@ -5418,7 +5498,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>159</v>
       </c>
@@ -5447,7 +5527,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>159</v>
       </c>
@@ -5476,7 +5556,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>159</v>
       </c>
@@ -5505,7 +5585,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>159</v>
       </c>
@@ -5534,7 +5614,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>206</v>
       </c>
@@ -5563,7 +5643,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>206</v>
       </c>
@@ -5592,7 +5672,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="17">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>206</v>
       </c>
@@ -5621,7 +5701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="17">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>206</v>
       </c>
@@ -5650,7 +5730,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="17">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>206</v>
       </c>
@@ -5679,7 +5759,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="17">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>206</v>
       </c>
@@ -5708,7 +5788,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>206</v>
       </c>
@@ -5737,7 +5817,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="17">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>241</v>
       </c>
@@ -5766,7 +5846,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="17">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>241</v>
       </c>
@@ -5795,7 +5875,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="17">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>241</v>
       </c>
@@ -5824,7 +5904,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="17">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>241</v>
       </c>
@@ -5853,7 +5933,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="17">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>241</v>
       </c>
@@ -5882,7 +5962,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="17">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>241</v>
       </c>
@@ -5911,7 +5991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="17">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>241</v>
       </c>
@@ -5940,7 +6020,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="17">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>241</v>
       </c>
@@ -5969,7 +6049,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="17">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>241</v>
       </c>
@@ -5998,7 +6078,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="17">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>241</v>
       </c>
@@ -6027,7 +6107,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="17">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>241</v>
       </c>
@@ -6056,7 +6136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="17">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>241</v>
       </c>
@@ -6085,7 +6165,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="17">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>303</v>
       </c>
@@ -6114,7 +6194,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="17">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>303</v>
       </c>
@@ -6143,7 +6223,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="34">
+    <row r="55" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>303</v>
       </c>
@@ -6172,7 +6252,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="17">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>303</v>
       </c>
@@ -6201,7 +6281,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="17">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>303</v>
       </c>
@@ -6230,7 +6310,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="17">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>303</v>
       </c>
@@ -6259,7 +6339,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="17">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>303</v>
       </c>
@@ -6288,7 +6368,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="17">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>346</v>
       </c>
@@ -6317,7 +6397,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="17">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>346</v>
       </c>
@@ -6346,7 +6426,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>346</v>
       </c>
@@ -6375,7 +6455,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>346</v>
       </c>
@@ -6404,7 +6484,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>346</v>
       </c>
@@ -6433,7 +6513,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>346</v>
       </c>
@@ -6462,7 +6542,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>346</v>
       </c>
@@ -6491,7 +6571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="34">
+    <row r="67" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>380</v>
       </c>
@@ -6520,7 +6600,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>380</v>
       </c>
@@ -6549,7 +6629,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>380</v>
       </c>
@@ -6578,7 +6658,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>380</v>
       </c>
@@ -6607,7 +6687,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>380</v>
       </c>
@@ -6636,7 +6716,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>400</v>
       </c>
@@ -6665,7 +6745,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>380</v>
       </c>
@@ -6694,7 +6774,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>380</v>
       </c>
@@ -6723,7 +6803,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>380</v>
       </c>
@@ -6752,7 +6832,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>380</v>
       </c>
@@ -6781,7 +6861,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>380</v>
       </c>
@@ -6810,7 +6890,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>400</v>
       </c>
@@ -6839,7 +6919,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>400</v>
       </c>
@@ -6868,7 +6948,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>407</v>
       </c>
@@ -6897,7 +6977,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>407</v>
       </c>
@@ -6926,7 +7006,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>407</v>
       </c>
@@ -6955,7 +7035,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>407</v>
       </c>
@@ -6984,7 +7064,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>407</v>
       </c>
@@ -7013,7 +7093,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>407</v>
       </c>
@@ -7042,7 +7122,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="34">
+    <row r="86" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>407</v>
       </c>
@@ -7071,7 +7151,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>407</v>
       </c>
@@ -7100,7 +7180,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>407</v>
       </c>
@@ -7129,7 +7209,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>407</v>
       </c>
@@ -7158,7 +7238,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>407</v>
       </c>
@@ -7187,7 +7267,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>517</v>
       </c>
@@ -7216,7 +7296,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>517</v>
       </c>
@@ -7245,7 +7325,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="34">
+    <row r="93" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>517</v>
       </c>
@@ -7274,7 +7354,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>517</v>
       </c>
@@ -7303,7 +7383,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>517</v>
       </c>
@@ -7332,7 +7412,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>516</v>
       </c>
@@ -7361,7 +7441,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>516</v>
       </c>
@@ -7390,7 +7470,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>516</v>
       </c>
@@ -7419,7 +7499,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>516</v>
       </c>
@@ -7448,7 +7528,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>516</v>
       </c>
@@ -7477,7 +7557,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>516</v>
       </c>
@@ -7506,7 +7586,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>577</v>
       </c>
@@ -7535,7 +7615,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>577</v>
       </c>
@@ -7564,7 +7644,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>577</v>
       </c>
@@ -7593,7 +7673,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>577</v>
       </c>
@@ -7622,7 +7702,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>577</v>
       </c>
@@ -7651,7 +7731,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>577</v>
       </c>
@@ -7680,7 +7760,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="34">
+    <row r="108" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>577</v>
       </c>
@@ -7709,7 +7789,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>577</v>
       </c>
@@ -7738,7 +7818,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>576</v>
       </c>
@@ -7767,7 +7847,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>576</v>
       </c>
@@ -7796,7 +7876,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="34">
+    <row r="112" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>639</v>
       </c>
@@ -7825,7 +7905,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>639</v>
       </c>
@@ -7854,7 +7934,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>639</v>
       </c>
@@ -7883,7 +7963,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>655</v>
       </c>
@@ -7912,7 +7992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>658</v>
       </c>
@@ -7941,7 +8021,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>658</v>
       </c>
@@ -7970,7 +8050,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>658</v>
       </c>
@@ -7999,7 +8079,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>658</v>
       </c>
@@ -8028,7 +8108,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>691</v>
       </c>
@@ -8057,7 +8137,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>691</v>
       </c>
@@ -8086,7 +8166,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>691</v>
       </c>
@@ -8115,7 +8195,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>691</v>
       </c>
@@ -8144,7 +8224,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>691</v>
       </c>
@@ -8173,7 +8253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>691</v>
       </c>
@@ -8202,7 +8282,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
         <v>726</v>
       </c>
@@ -8231,7 +8311,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>726</v>
       </c>
@@ -8260,7 +8340,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>726</v>
       </c>
@@ -8289,7 +8369,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>725</v>
       </c>
@@ -8318,7 +8398,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="34">
+    <row r="130" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>725</v>
       </c>
@@ -8347,7 +8427,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="34">
+    <row r="131" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>725</v>
       </c>
@@ -8376,7 +8456,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>725</v>
       </c>
@@ -8405,7 +8485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>725</v>
       </c>
@@ -8434,7 +8514,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>725</v>
       </c>
@@ -8463,7 +8543,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="34">
+    <row r="135" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>725</v>
       </c>
@@ -8492,7 +8572,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>725</v>
       </c>
@@ -8521,7 +8601,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>725</v>
       </c>
@@ -8550,7 +8630,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>725</v>
       </c>
@@ -8579,7 +8659,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>725</v>
       </c>
@@ -8608,7 +8688,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>725</v>
       </c>
@@ -8637,7 +8717,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>802</v>
       </c>
@@ -8666,7 +8746,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>802</v>
       </c>
@@ -8695,7 +8775,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>802</v>
       </c>
@@ -8724,7 +8804,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>802</v>
       </c>
@@ -8753,7 +8833,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="34">
+    <row r="145" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>802</v>
       </c>
@@ -8782,7 +8862,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>802</v>
       </c>
@@ -8811,7 +8891,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>834</v>
       </c>
@@ -8840,7 +8920,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>841</v>
       </c>
@@ -8869,7 +8949,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>841</v>
       </c>
@@ -8898,7 +8978,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>841</v>
       </c>
@@ -8927,7 +9007,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="34">
+    <row r="151" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>841</v>
       </c>
@@ -8956,7 +9036,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="34">
+    <row r="152" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>841</v>
       </c>
@@ -8985,7 +9065,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>841</v>
       </c>
@@ -9014,7 +9094,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>841</v>
       </c>
@@ -9043,7 +9123,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>841</v>
       </c>
@@ -9072,7 +9152,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>841</v>
       </c>
@@ -9101,7 +9181,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>841</v>
       </c>
@@ -9130,7 +9210,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="17">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>894</v>
       </c>
@@ -9159,7 +9239,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="34">
+    <row r="159" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>894</v>
       </c>
@@ -9188,7 +9268,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="17">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>894</v>
       </c>
@@ -9217,7 +9297,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="51">
+    <row r="161" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>894</v>
       </c>
@@ -9246,7 +9326,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="17">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
         <v>894</v>
       </c>
@@ -9275,7 +9355,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="17">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>894</v>
       </c>
@@ -9304,7 +9384,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="17">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>924</v>
       </c>
@@ -9333,7 +9413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="17">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>924</v>
       </c>
@@ -9362,7 +9442,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="17">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>924</v>
       </c>
@@ -9391,7 +9471,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="34">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>924</v>
       </c>
@@ -9420,7 +9500,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="17">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>924</v>
       </c>
@@ -9449,7 +9529,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="17">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>924</v>
       </c>
@@ -9478,7 +9558,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="17">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>924</v>
       </c>
@@ -9507,7 +9587,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="17">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>924</v>
       </c>
@@ -9536,7 +9616,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="34">
+    <row r="172" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>924</v>
       </c>
@@ -9565,7 +9645,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="17">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>924</v>
       </c>
@@ -9594,7 +9674,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="17">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>972</v>
       </c>
@@ -9623,7 +9703,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="17">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>972</v>
       </c>
@@ -9652,7 +9732,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="17">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>972</v>
       </c>
@@ -9681,7 +9761,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="17">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
         <v>972</v>
       </c>
@@ -9710,7 +9790,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="34">
+    <row r="178" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>972</v>
       </c>
@@ -9739,7 +9819,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="17">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>972</v>
       </c>
@@ -9768,7 +9848,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="17">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="9" t="s">
         <v>972</v>
       </c>
@@ -9797,7 +9877,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="17">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
         <v>972</v>
       </c>
@@ -9826,7 +9906,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="34">
+    <row r="182" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
         <v>972</v>
       </c>
@@ -9855,7 +9935,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="17">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
         <v>972</v>
       </c>
@@ -9884,7 +9964,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="34">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
         <v>972</v>
       </c>
@@ -9911,6 +9991,122 @@
       </c>
       <c r="I184" s="11" t="s">
         <v>1027</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>873</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D185" s="13" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E185" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F185" s="11" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G185" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H185" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I185" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A186" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D186" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E186" s="14" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F186" s="11" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G186" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H186" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I186" s="11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="D187" s="13" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E187" s="14" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F187" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G187" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H187" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I187" s="11" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D188" s="13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E188" s="14" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F188" s="11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G188" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="H188" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I188" s="11" t="s">
+        <v>1048</v>
       </c>
     </row>
   </sheetData>

--- a/剧情梳理.xlsx
+++ b/剧情梳理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\自媒体\clip-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjy/Desktop/workspace/myself/剪辑/文件、文档/clip-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9668D7E8-8B15-413B-81A5-7D1EDA5EE0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322022A3-279C-3749-A8A4-49BA11848057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
   </bookViews>
   <sheets>
     <sheet name="教室的那一间" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="1087">
   <si>
     <t>点位开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3875,10 +3875,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小道散步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4218,15 +4214,172 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>咖啡馆里喝饮料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>打脸/尴尬/难受</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>于贝贝、姚从良、赵小雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送蔬菜/神补刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直男/神补刀/生气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛德华为感谢钟洁把扔掉的衣服捡回来，送了一堆蔬菜让钟洁护肤，并说了 一大推补刀语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:17'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵小雨、赵乔飞、陈末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:18'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末的假想情敌（堂哥）出现，为偷听赵小雨和赵乔飞谈话，主动把头塞进了护栏的卡裆里，挣扎半天，还说尽赵乔飞坏话
+被赵小雨反讽复杂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送零食/偷听/说坏话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡馆里喝饮料/幽会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小道散步/幽会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明星式的幽会现场，姚从良再立flag，然后被打脸，差点又被赵小雨、苏舟组合撞见、脱身之后还假装碰巧遇到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尴尬/受伤/八卦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽会/巧遇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于贝贝、姚从良、赵小雨、苏舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27:10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送鱼汤/补刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直男式的送鱼汤道歉、赔罪、牛德华又补刀钟洁：鱼汤补充蛋白质、抗衰老，挺适合你的，如果不信你就回家多照照镜子吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27:48'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直男/受伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27:52'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛德华送给钟洁鱼汤赔罪，被补刀之后的钟洁不接受，闻着冒香气的鱼汤，钟洁还是偷偷吃了起来，被返回牛德华看见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝鱼汤/被抓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴硬/尴尬/无声暗讽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二季/第八集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:25'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语老师上课之前宣布要在班级举行公开课，下面一片嘘声，老师便鼓励到学生都是好孩子，只是平时太低调了，回应的人还是很少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05:53'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣布在班级里上公开课/菜鸟班主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尴尬/难堪/受气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受气/难堪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末上课吃东西被班主任抓住、谁知道他理由多又多：没吃早饭，第一节课是语文课，语文老师不让吃东西，英语课就能吃东西？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜鸟班主任/保证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05:55'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟、牛德华检测仪容仪表，抓住'渣男'赵乔飞，猛扣纪律分，弄得牛德华、赵乔飞一脸懵（你之前明明不是这样的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反常/莫名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟、牛德华、赵乔飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查仪容仪表/惩治渣男</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4234,7 +4387,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4641,25 +4794,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4747FC86-DF5D-2841-9DD6-180987C4218D}">
-  <dimension ref="A1:K188"/>
+  <dimension ref="A1:K197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E177" workbookViewId="0">
-      <selection activeCell="I188" sqref="I188"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="19.81640625" customWidth="1"/>
+    <col min="1" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="109.1796875" customWidth="1"/>
-    <col min="5" max="5" width="35.453125" customWidth="1"/>
+    <col min="4" max="4" width="109.1640625" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
     <col min="9" max="9" width="45" customWidth="1"/>
-    <col min="10" max="10" width="15.6328125" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4692,7 +4845,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="51">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -4720,7 +4873,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -4749,7 +4902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -4778,7 +4931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -4807,7 +4960,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -4836,7 +4989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -4863,7 +5016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -4892,7 +5045,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -4921,7 +5074,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -4950,7 +5103,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
@@ -4979,7 +5132,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -5008,7 +5161,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -5037,7 +5190,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -5066,7 +5219,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -5095,7 +5248,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -5124,7 +5277,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -5153,7 +5306,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
@@ -5182,7 +5335,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -5208,7 +5361,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -5237,7 +5390,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -5266,7 +5419,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
@@ -5295,7 +5448,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
@@ -5324,7 +5477,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="34">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -5353,7 +5506,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="17">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
@@ -5382,7 +5535,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="17">
       <c r="A26" s="4" t="s">
         <v>43</v>
       </c>
@@ -5411,7 +5564,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="17">
       <c r="A27" s="4" t="s">
         <v>159</v>
       </c>
@@ -5440,7 +5593,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="17">
       <c r="A28" s="4" t="s">
         <v>159</v>
       </c>
@@ -5469,7 +5622,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="17">
       <c r="A29" s="4" t="s">
         <v>159</v>
       </c>
@@ -5498,7 +5651,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="17">
       <c r="A30" s="4" t="s">
         <v>159</v>
       </c>
@@ -5527,7 +5680,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="17">
       <c r="A31" s="4" t="s">
         <v>159</v>
       </c>
@@ -5556,7 +5709,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="17">
       <c r="A32" s="4" t="s">
         <v>159</v>
       </c>
@@ -5585,7 +5738,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="17">
       <c r="A33" s="4" t="s">
         <v>159</v>
       </c>
@@ -5614,7 +5767,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="17">
       <c r="A34" s="4" t="s">
         <v>206</v>
       </c>
@@ -5643,7 +5796,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="17">
       <c r="A35" s="4" t="s">
         <v>206</v>
       </c>
@@ -5672,7 +5825,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="17">
       <c r="A36" s="4" t="s">
         <v>206</v>
       </c>
@@ -5701,7 +5854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="17">
       <c r="A37" s="4" t="s">
         <v>206</v>
       </c>
@@ -5730,7 +5883,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="17">
       <c r="A38" s="4" t="s">
         <v>206</v>
       </c>
@@ -5759,7 +5912,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="17">
       <c r="A39" s="4" t="s">
         <v>206</v>
       </c>
@@ -5788,7 +5941,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="17">
       <c r="A40" s="4" t="s">
         <v>206</v>
       </c>
@@ -5817,7 +5970,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="17">
       <c r="A41" s="4" t="s">
         <v>241</v>
       </c>
@@ -5846,7 +5999,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="17">
       <c r="A42" s="4" t="s">
         <v>241</v>
       </c>
@@ -5875,7 +6028,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="17">
       <c r="A43" s="4" t="s">
         <v>241</v>
       </c>
@@ -5904,7 +6057,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="17">
       <c r="A44" s="4" t="s">
         <v>241</v>
       </c>
@@ -5933,7 +6086,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="17">
       <c r="A45" s="4" t="s">
         <v>241</v>
       </c>
@@ -5962,7 +6115,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="17">
       <c r="A46" s="4" t="s">
         <v>241</v>
       </c>
@@ -5991,7 +6144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="17">
       <c r="A47" s="4" t="s">
         <v>241</v>
       </c>
@@ -6020,7 +6173,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="17">
       <c r="A48" s="4" t="s">
         <v>241</v>
       </c>
@@ -6049,7 +6202,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="17">
       <c r="A49" s="4" t="s">
         <v>241</v>
       </c>
@@ -6078,7 +6231,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="17">
       <c r="A50" s="4" t="s">
         <v>241</v>
       </c>
@@ -6107,7 +6260,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="17">
       <c r="A51" s="4" t="s">
         <v>241</v>
       </c>
@@ -6136,7 +6289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="17">
       <c r="A52" s="4" t="s">
         <v>241</v>
       </c>
@@ -6165,7 +6318,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="17">
       <c r="A53" s="4" t="s">
         <v>303</v>
       </c>
@@ -6194,7 +6347,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="17">
       <c r="A54" s="4" t="s">
         <v>303</v>
       </c>
@@ -6223,7 +6376,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="34">
       <c r="A55" s="4" t="s">
         <v>303</v>
       </c>
@@ -6252,7 +6405,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="17">
       <c r="A56" s="4" t="s">
         <v>303</v>
       </c>
@@ -6281,7 +6434,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="17">
       <c r="A57" s="4" t="s">
         <v>303</v>
       </c>
@@ -6310,7 +6463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="17">
       <c r="A58" s="4" t="s">
         <v>303</v>
       </c>
@@ -6339,7 +6492,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="17">
       <c r="A59" s="4" t="s">
         <v>303</v>
       </c>
@@ -6368,7 +6521,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="17">
       <c r="A60" s="4" t="s">
         <v>346</v>
       </c>
@@ -6397,7 +6550,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="17">
       <c r="A61" s="4" t="s">
         <v>346</v>
       </c>
@@ -6426,7 +6579,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
         <v>346</v>
       </c>
@@ -6455,7 +6608,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
         <v>346</v>
       </c>
@@ -6484,7 +6637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
         <v>346</v>
       </c>
@@ -6513,7 +6666,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
         <v>346</v>
       </c>
@@ -6542,7 +6695,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
         <v>346</v>
       </c>
@@ -6571,7 +6724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="34">
       <c r="A67" s="4" t="s">
         <v>380</v>
       </c>
@@ -6600,7 +6753,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
         <v>380</v>
       </c>
@@ -6629,7 +6782,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
         <v>380</v>
       </c>
@@ -6658,7 +6811,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
         <v>380</v>
       </c>
@@ -6687,7 +6840,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
         <v>380</v>
       </c>
@@ -6716,7 +6869,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="A72" s="9" t="s">
         <v>400</v>
       </c>
@@ -6745,7 +6898,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="A73" s="4" t="s">
         <v>380</v>
       </c>
@@ -6774,7 +6927,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="A74" s="4" t="s">
         <v>380</v>
       </c>
@@ -6803,7 +6956,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="4" t="s">
         <v>380</v>
       </c>
@@ -6832,7 +6985,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="A76" s="4" t="s">
         <v>380</v>
       </c>
@@ -6861,7 +7014,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="A77" s="4" t="s">
         <v>380</v>
       </c>
@@ -6890,7 +7043,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="A78" s="9" t="s">
         <v>400</v>
       </c>
@@ -6919,7 +7072,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9">
       <c r="A79" s="9" t="s">
         <v>400</v>
       </c>
@@ -6948,7 +7101,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="9" t="s">
         <v>407</v>
       </c>
@@ -6977,7 +7130,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9">
       <c r="A81" s="9" t="s">
         <v>407</v>
       </c>
@@ -7006,7 +7159,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9">
       <c r="A82" s="9" t="s">
         <v>407</v>
       </c>
@@ -7035,7 +7188,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9">
       <c r="A83" s="9" t="s">
         <v>407</v>
       </c>
@@ -7064,7 +7217,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9">
       <c r="A84" s="9" t="s">
         <v>407</v>
       </c>
@@ -7093,7 +7246,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9">
       <c r="A85" s="9" t="s">
         <v>407</v>
       </c>
@@ -7122,7 +7275,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="34">
       <c r="A86" s="9" t="s">
         <v>407</v>
       </c>
@@ -7151,7 +7304,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9">
       <c r="A87" s="9" t="s">
         <v>407</v>
       </c>
@@ -7180,7 +7333,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9">
       <c r="A88" s="9" t="s">
         <v>407</v>
       </c>
@@ -7209,7 +7362,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9">
       <c r="A89" s="9" t="s">
         <v>407</v>
       </c>
@@ -7238,7 +7391,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9">
       <c r="A90" s="9" t="s">
         <v>407</v>
       </c>
@@ -7267,7 +7420,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9">
       <c r="A91" s="9" t="s">
         <v>517</v>
       </c>
@@ -7296,7 +7449,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9">
       <c r="A92" s="9" t="s">
         <v>517</v>
       </c>
@@ -7325,7 +7478,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="34">
       <c r="A93" s="9" t="s">
         <v>517</v>
       </c>
@@ -7354,7 +7507,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9">
       <c r="A94" s="9" t="s">
         <v>517</v>
       </c>
@@ -7383,7 +7536,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9">
       <c r="A95" s="9" t="s">
         <v>517</v>
       </c>
@@ -7412,7 +7565,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9">
       <c r="A96" s="9" t="s">
         <v>516</v>
       </c>
@@ -7441,7 +7594,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9">
       <c r="A97" s="9" t="s">
         <v>516</v>
       </c>
@@ -7470,7 +7623,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9">
       <c r="A98" s="9" t="s">
         <v>516</v>
       </c>
@@ -7499,7 +7652,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9">
       <c r="A99" s="9" t="s">
         <v>516</v>
       </c>
@@ -7528,7 +7681,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9">
       <c r="A100" s="9" t="s">
         <v>516</v>
       </c>
@@ -7557,7 +7710,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9">
       <c r="A101" s="9" t="s">
         <v>516</v>
       </c>
@@ -7586,7 +7739,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9">
       <c r="A102" s="9" t="s">
         <v>577</v>
       </c>
@@ -7615,7 +7768,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9">
       <c r="A103" s="9" t="s">
         <v>577</v>
       </c>
@@ -7644,7 +7797,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9">
       <c r="A104" s="9" t="s">
         <v>577</v>
       </c>
@@ -7673,7 +7826,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9">
       <c r="A105" s="9" t="s">
         <v>577</v>
       </c>
@@ -7702,7 +7855,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9">
       <c r="A106" s="9" t="s">
         <v>577</v>
       </c>
@@ -7731,7 +7884,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9">
       <c r="A107" s="9" t="s">
         <v>577</v>
       </c>
@@ -7760,7 +7913,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="34">
       <c r="A108" s="9" t="s">
         <v>577</v>
       </c>
@@ -7789,7 +7942,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9">
       <c r="A109" s="9" t="s">
         <v>577</v>
       </c>
@@ -7818,7 +7971,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9">
       <c r="A110" s="9" t="s">
         <v>576</v>
       </c>
@@ -7847,7 +8000,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9">
       <c r="A111" s="9" t="s">
         <v>576</v>
       </c>
@@ -7876,7 +8029,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="34">
       <c r="A112" s="9" t="s">
         <v>639</v>
       </c>
@@ -7905,7 +8058,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9">
       <c r="A113" s="9" t="s">
         <v>639</v>
       </c>
@@ -7934,7 +8087,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9">
       <c r="A114" s="9" t="s">
         <v>639</v>
       </c>
@@ -7963,7 +8116,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9">
       <c r="A115" s="9" t="s">
         <v>655</v>
       </c>
@@ -7992,7 +8145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9">
       <c r="A116" s="9" t="s">
         <v>658</v>
       </c>
@@ -8021,7 +8174,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9">
       <c r="A117" s="9" t="s">
         <v>658</v>
       </c>
@@ -8050,7 +8203,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9">
       <c r="A118" s="9" t="s">
         <v>658</v>
       </c>
@@ -8079,7 +8232,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9">
       <c r="A119" s="9" t="s">
         <v>658</v>
       </c>
@@ -8108,7 +8261,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9">
       <c r="A120" s="9" t="s">
         <v>691</v>
       </c>
@@ -8137,7 +8290,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9">
       <c r="A121" s="9" t="s">
         <v>691</v>
       </c>
@@ -8166,7 +8319,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9">
       <c r="A122" s="9" t="s">
         <v>691</v>
       </c>
@@ -8195,7 +8348,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9">
       <c r="A123" s="9" t="s">
         <v>691</v>
       </c>
@@ -8224,7 +8377,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9">
       <c r="A124" s="9" t="s">
         <v>691</v>
       </c>
@@ -8253,7 +8406,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9">
       <c r="A125" s="9" t="s">
         <v>691</v>
       </c>
@@ -8282,7 +8435,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9">
       <c r="A126" s="9" t="s">
         <v>726</v>
       </c>
@@ -8311,7 +8464,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9">
       <c r="A127" s="9" t="s">
         <v>726</v>
       </c>
@@ -8340,7 +8493,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9">
       <c r="A128" s="9" t="s">
         <v>726</v>
       </c>
@@ -8369,7 +8522,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9">
       <c r="A129" s="9" t="s">
         <v>725</v>
       </c>
@@ -8398,7 +8551,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="34">
       <c r="A130" s="9" t="s">
         <v>725</v>
       </c>
@@ -8427,7 +8580,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="34">
       <c r="A131" s="9" t="s">
         <v>725</v>
       </c>
@@ -8456,7 +8609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9">
       <c r="A132" s="9" t="s">
         <v>725</v>
       </c>
@@ -8485,7 +8638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9">
       <c r="A133" s="9" t="s">
         <v>725</v>
       </c>
@@ -8514,7 +8667,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9">
       <c r="A134" s="9" t="s">
         <v>725</v>
       </c>
@@ -8543,7 +8696,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="34">
       <c r="A135" s="9" t="s">
         <v>725</v>
       </c>
@@ -8572,7 +8725,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9">
       <c r="A136" s="9" t="s">
         <v>725</v>
       </c>
@@ -8601,7 +8754,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9">
       <c r="A137" s="9" t="s">
         <v>725</v>
       </c>
@@ -8630,7 +8783,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9">
       <c r="A138" s="9" t="s">
         <v>725</v>
       </c>
@@ -8659,7 +8812,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9">
       <c r="A139" s="9" t="s">
         <v>725</v>
       </c>
@@ -8688,7 +8841,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9">
       <c r="A140" s="9" t="s">
         <v>725</v>
       </c>
@@ -8717,7 +8870,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9">
       <c r="A141" s="9" t="s">
         <v>802</v>
       </c>
@@ -8746,7 +8899,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9">
       <c r="A142" s="9" t="s">
         <v>802</v>
       </c>
@@ -8775,7 +8928,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9">
       <c r="A143" s="9" t="s">
         <v>802</v>
       </c>
@@ -8804,7 +8957,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9">
       <c r="A144" s="9" t="s">
         <v>802</v>
       </c>
@@ -8833,7 +8986,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="34">
       <c r="A145" s="9" t="s">
         <v>802</v>
       </c>
@@ -8862,7 +9015,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9">
       <c r="A146" s="9" t="s">
         <v>802</v>
       </c>
@@ -8891,7 +9044,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9">
       <c r="A147" s="9" t="s">
         <v>834</v>
       </c>
@@ -8920,7 +9073,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9">
       <c r="A148" s="9" t="s">
         <v>841</v>
       </c>
@@ -8949,7 +9102,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9">
       <c r="A149" s="9" t="s">
         <v>841</v>
       </c>
@@ -8978,7 +9131,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9">
       <c r="A150" s="9" t="s">
         <v>841</v>
       </c>
@@ -9007,7 +9160,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="34">
       <c r="A151" s="9" t="s">
         <v>841</v>
       </c>
@@ -9036,7 +9189,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="34">
       <c r="A152" s="9" t="s">
         <v>841</v>
       </c>
@@ -9065,7 +9218,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9">
       <c r="A153" s="9" t="s">
         <v>841</v>
       </c>
@@ -9094,7 +9247,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9">
       <c r="A154" s="9" t="s">
         <v>841</v>
       </c>
@@ -9123,7 +9276,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9">
       <c r="A155" s="9" t="s">
         <v>841</v>
       </c>
@@ -9152,7 +9305,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9">
       <c r="A156" s="9" t="s">
         <v>841</v>
       </c>
@@ -9181,7 +9334,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9">
       <c r="A157" s="9" t="s">
         <v>841</v>
       </c>
@@ -9210,7 +9363,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="17">
       <c r="A158" s="9" t="s">
         <v>894</v>
       </c>
@@ -9239,7 +9392,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="34">
       <c r="A159" s="9" t="s">
         <v>894</v>
       </c>
@@ -9268,7 +9421,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="17">
       <c r="A160" s="9" t="s">
         <v>894</v>
       </c>
@@ -9297,7 +9450,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="51">
       <c r="A161" s="9" t="s">
         <v>894</v>
       </c>
@@ -9326,7 +9479,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="17">
       <c r="A162" s="9" t="s">
         <v>894</v>
       </c>
@@ -9355,7 +9508,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="17">
       <c r="A163" s="9" t="s">
         <v>894</v>
       </c>
@@ -9384,7 +9537,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="17">
       <c r="A164" s="9" t="s">
         <v>924</v>
       </c>
@@ -9413,7 +9566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="17">
       <c r="A165" s="9" t="s">
         <v>924</v>
       </c>
@@ -9442,7 +9595,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="17">
       <c r="A166" s="9" t="s">
         <v>924</v>
       </c>
@@ -9453,7 +9606,7 @@
         <v>899</v>
       </c>
       <c r="D166" s="13" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E166" s="14" t="s">
         <v>932</v>
@@ -9471,7 +9624,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="34">
       <c r="A167" s="9" t="s">
         <v>924</v>
       </c>
@@ -9500,7 +9653,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="17">
       <c r="A168" s="9" t="s">
         <v>924</v>
       </c>
@@ -9529,7 +9682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="17">
       <c r="A169" s="9" t="s">
         <v>924</v>
       </c>
@@ -9558,7 +9711,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="17">
       <c r="A170" s="9" t="s">
         <v>924</v>
       </c>
@@ -9587,7 +9740,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="17">
       <c r="A171" s="9" t="s">
         <v>924</v>
       </c>
@@ -9616,7 +9769,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="34">
       <c r="A172" s="9" t="s">
         <v>924</v>
       </c>
@@ -9624,28 +9777,28 @@
         <v>960</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D172" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="E172" s="14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F172" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="E172" s="14" t="s">
+      <c r="G172" s="11" t="s">
         <v>961</v>
       </c>
-      <c r="F172" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="G172" s="11" t="s">
+      <c r="H172" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I172" s="11" t="s">
         <v>962</v>
       </c>
-      <c r="H172" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="I172" s="11" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:9" ht="17">
       <c r="A173" s="9" t="s">
         <v>924</v>
       </c>
@@ -9653,45 +9806,45 @@
         <v>297</v>
       </c>
       <c r="C173" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="D173" s="13" t="s">
         <v>969</v>
       </c>
-      <c r="D173" s="13" t="s">
-        <v>970</v>
-      </c>
       <c r="E173" s="14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F173" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="G173" s="11" t="s">
         <v>961</v>
       </c>
-      <c r="F173" s="11" t="s">
+      <c r="H173" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I173" s="11" t="s">
         <v>967</v>
       </c>
-      <c r="G173" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="H173" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="I173" s="11" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:9" ht="17">
       <c r="A174" s="9" t="s">
+        <v>971</v>
+      </c>
+      <c r="B174" s="10" t="s">
         <v>972</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="C174" s="10" t="s">
+        <v>977</v>
+      </c>
+      <c r="D174" s="13" t="s">
+        <v>976</v>
+      </c>
+      <c r="E174" s="14" t="s">
         <v>973</v>
       </c>
-      <c r="C174" s="10" t="s">
-        <v>978</v>
-      </c>
-      <c r="D174" s="13" t="s">
-        <v>977</v>
-      </c>
-      <c r="E174" s="14" t="s">
+      <c r="F174" s="11" t="s">
         <v>974</v>
-      </c>
-      <c r="F174" s="11" t="s">
-        <v>975</v>
       </c>
       <c r="G174" s="11" t="s">
         <v>94</v>
@@ -9700,27 +9853,27 @@
         <v>317</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="17">
       <c r="A175" s="9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B175" s="10" t="s">
+        <v>978</v>
+      </c>
+      <c r="C175" s="10" t="s">
         <v>979</v>
       </c>
-      <c r="C175" s="10" t="s">
+      <c r="D175" s="13" t="s">
         <v>980</v>
       </c>
-      <c r="D175" s="13" t="s">
+      <c r="E175" s="14" t="s">
+        <v>973</v>
+      </c>
+      <c r="F175" s="11" t="s">
         <v>981</v>
-      </c>
-      <c r="E175" s="14" t="s">
-        <v>974</v>
-      </c>
-      <c r="F175" s="11" t="s">
-        <v>982</v>
       </c>
       <c r="G175" s="11" t="s">
         <v>94</v>
@@ -9729,27 +9882,27 @@
         <v>317</v>
       </c>
       <c r="I175" s="11" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="17">
+      <c r="A176" s="9" t="s">
+        <v>971</v>
+      </c>
+      <c r="B176" s="10" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A176" s="9" t="s">
-        <v>972</v>
-      </c>
-      <c r="B176" s="10" t="s">
+      <c r="C176" s="10" t="s">
         <v>984</v>
       </c>
-      <c r="C176" s="10" t="s">
+      <c r="D176" s="13" t="s">
         <v>985</v>
       </c>
-      <c r="D176" s="13" t="s">
+      <c r="E176" s="14" t="s">
         <v>986</v>
       </c>
-      <c r="E176" s="14" t="s">
-        <v>987</v>
-      </c>
       <c r="F176" s="11" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G176" s="11" t="s">
         <v>11</v>
@@ -9761,38 +9914,38 @@
         <v>623</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="17">
       <c r="A177" s="9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C177" s="10" t="s">
+        <v>987</v>
+      </c>
+      <c r="D177" s="13" t="s">
         <v>988</v>
       </c>
-      <c r="D177" s="13" t="s">
+      <c r="E177" s="14" t="s">
         <v>989</v>
       </c>
-      <c r="E177" s="14" t="s">
+      <c r="F177" s="11" t="s">
         <v>990</v>
-      </c>
-      <c r="F177" s="11" t="s">
-        <v>991</v>
       </c>
       <c r="G177" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H177" s="11" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="34">
       <c r="A178" s="9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B178" s="10" t="s">
         <v>59</v>
@@ -9801,27 +9954,27 @@
         <v>842</v>
       </c>
       <c r="D178" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="E178" s="14" t="s">
         <v>996</v>
       </c>
-      <c r="E178" s="14" t="s">
+      <c r="F178" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="G178" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="H178" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I178" s="11" t="s">
         <v>997</v>
       </c>
-      <c r="F178" s="11" t="s">
-        <v>999</v>
-      </c>
-      <c r="G178" s="11" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H178" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="I178" s="11" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:9" ht="17">
       <c r="A179" s="9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B179" s="10" t="s">
         <v>753</v>
@@ -9830,13 +9983,13 @@
         <v>904</v>
       </c>
       <c r="D179" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E179" s="14" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F179" s="11" t="s">
         <v>1002</v>
-      </c>
-      <c r="E179" s="14" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F179" s="11" t="s">
-        <v>1003</v>
       </c>
       <c r="G179" s="11" t="s">
         <v>11</v>
@@ -9848,24 +10001,24 @@
         <v>526</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="17">
       <c r="A180" s="9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C180" s="10" t="s">
         <v>758</v>
       </c>
       <c r="D180" s="13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E180" s="14" t="s">
         <v>1006</v>
       </c>
-      <c r="E180" s="14" t="s">
+      <c r="F180" s="11" t="s">
         <v>1007</v>
-      </c>
-      <c r="F180" s="11" t="s">
-        <v>1008</v>
       </c>
       <c r="G180" s="11" t="s">
         <v>11</v>
@@ -9874,27 +10027,27 @@
         <v>317</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="17">
       <c r="A181" s="9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B181" s="10" t="s">
         <v>653</v>
       </c>
       <c r="C181" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D181" s="13" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E181" s="14" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F181" s="11" t="s">
         <v>1012</v>
-      </c>
-      <c r="D181" s="13" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E181" s="14" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F181" s="11" t="s">
-        <v>1013</v>
       </c>
       <c r="G181" s="11" t="s">
         <v>11</v>
@@ -9903,56 +10056,56 @@
         <v>317</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="34">
       <c r="A182" s="9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C182" s="10" t="s">
         <v>280</v>
       </c>
       <c r="D182" s="13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E182" s="14" t="s">
         <v>1016</v>
       </c>
-      <c r="E182" s="14" t="s">
+      <c r="F182" s="11" t="s">
         <v>1017</v>
       </c>
-      <c r="F182" s="11" t="s">
+      <c r="G182" s="11" t="s">
         <v>1018</v>
       </c>
-      <c r="G182" s="11" t="s">
-        <v>1019</v>
-      </c>
       <c r="H182" s="11" t="s">
         <v>317</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="17">
       <c r="A183" s="9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B183" s="10" t="s">
         <v>672</v>
       </c>
       <c r="C183" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D183" s="13" t="s">
         <v>1023</v>
       </c>
-      <c r="D183" s="13" t="s">
-        <v>1024</v>
-      </c>
       <c r="E183" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F183" s="11" t="s">
         <v>1020</v>
-      </c>
-      <c r="F183" s="11" t="s">
-        <v>1021</v>
       </c>
       <c r="G183" s="11" t="s">
         <v>94</v>
@@ -9961,12 +10114,12 @@
         <v>317</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="34">
       <c r="A184" s="9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>287</v>
@@ -9975,13 +10128,13 @@
         <v>292</v>
       </c>
       <c r="D184" s="13" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E184" s="14" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F184" s="11" t="s">
         <v>1025</v>
-      </c>
-      <c r="F184" s="11" t="s">
-        <v>1026</v>
       </c>
       <c r="G184" s="11" t="s">
         <v>11</v>
@@ -9990,12 +10143,12 @@
         <v>317</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="17">
       <c r="A185" s="9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B185" s="10" t="s">
         <v>873</v>
@@ -10004,13 +10157,13 @@
         <v>223</v>
       </c>
       <c r="D185" s="13" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E185" s="14" t="s">
         <v>1029</v>
       </c>
-      <c r="E185" s="14" t="s">
+      <c r="F185" s="11" t="s">
         <v>1030</v>
-      </c>
-      <c r="F185" s="11" t="s">
-        <v>1031</v>
       </c>
       <c r="G185" s="11" t="s">
         <v>57</v>
@@ -10022,24 +10175,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="34">
       <c r="A186" s="9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B186" s="10" t="s">
         <v>522</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D186" s="13" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E186" s="14" t="s">
         <v>1033</v>
       </c>
-      <c r="E186" s="14" t="s">
+      <c r="F186" s="11" t="s">
         <v>1034</v>
-      </c>
-      <c r="F186" s="11" t="s">
-        <v>1035</v>
       </c>
       <c r="G186" s="11" t="s">
         <v>11</v>
@@ -10048,56 +10201,56 @@
         <v>317</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="17">
       <c r="A187" s="9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C187" s="10" t="s">
         <v>420</v>
       </c>
       <c r="D187" s="13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E187" s="14" t="s">
         <v>1039</v>
       </c>
-      <c r="E187" s="14" t="s">
+      <c r="F187" s="11" t="s">
         <v>1040</v>
       </c>
-      <c r="F187" s="11" t="s">
+      <c r="G187" s="11" t="s">
         <v>1041</v>
       </c>
-      <c r="G187" s="11" t="s">
+      <c r="H187" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I187" s="11" t="s">
         <v>1042</v>
       </c>
-      <c r="H187" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="I187" s="11" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:9" ht="17">
       <c r="A188" s="9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B188" s="10" t="s">
         <v>506</v>
       </c>
       <c r="C188" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D188" s="13" t="s">
         <v>1044</v>
       </c>
-      <c r="D188" s="13" t="s">
+      <c r="E188" s="14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F188" s="11" t="s">
         <v>1045</v>
-      </c>
-      <c r="E188" s="14" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F188" s="11" t="s">
-        <v>1047</v>
       </c>
       <c r="G188" s="11" t="s">
         <v>233</v>
@@ -10106,7 +10259,268 @@
         <v>317</v>
       </c>
       <c r="I188" s="11" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="17">
+      <c r="A189" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D189" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E189" s="14" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F189" s="11" t="s">
         <v>1048</v>
+      </c>
+      <c r="G189" s="11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H189" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I189" s="11" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="34">
+      <c r="A190" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D190" s="13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E190" s="14" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F190" s="11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G190" s="11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H190" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I190" s="11" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="17">
+      <c r="A191" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D191" s="13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E191" s="14" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F191" s="11" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G191" s="11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H191" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I191" s="11" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="17">
+      <c r="A192" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D192" s="13" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E192" s="14" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F192" s="11" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G192" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H192" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I192" s="11" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="17">
+      <c r="A193" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="D193" s="13" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E193" s="14" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F193" s="11" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G193" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H193" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I193" s="11" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="34">
+      <c r="A194" s="9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D194" s="13" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E194" s="14" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F194" s="11" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G194" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H194" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I194" s="11" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="34">
+      <c r="A195" s="9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D195" s="13" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E195" s="14" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F195" s="11" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G195" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H195" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I195" s="11" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="17">
+      <c r="A196" s="9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D196" s="13" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E196" s="14" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F196" s="11" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G196" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H196" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I196" s="11" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="17">
+      <c r="A197" s="9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D197" s="13" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E197" s="14" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F197" s="11" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G197" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H197" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I197" s="11" t="s">
+        <v>1085</v>
       </c>
     </row>
   </sheetData>

--- a/剧情梳理.xlsx
+++ b/剧情梳理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjy/Desktop/workspace/myself/剪辑/文件、文档/clip-excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\自媒体\clip-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322022A3-279C-3749-A8A4-49BA11848057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA1EFE3-4534-47AC-A5C2-CED6CC2C1A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D565C4D2-1E5A-C84D-BA6C-E3033EDF4793}"/>
   </bookViews>
   <sheets>
     <sheet name="教室的那一间" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="1097">
   <si>
     <t>点位开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4380,6 +4380,46 @@
   </si>
   <si>
     <t>检查仪容仪表/惩治渣男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03:37'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈末在苏舟面前说赵乔飞坏话：骚扰赵小雨，导致苏舟也敌视赵乔飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说坏话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气愤/长舌妇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:36'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵乔飞在苏舟面前找赵小雨、苏舟赶忙问出为什么要找他，赵小雨道出赵乔飞是他表哥，苏舟一脸生无可恋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书馆辅导/堂哥找堂妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尴尬/生无可恋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏舟、赵小雨、赵乔飞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4387,7 +4427,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4794,25 +4834,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4747FC86-DF5D-2841-9DD6-180987C4218D}">
-  <dimension ref="A1:K197"/>
+  <dimension ref="A1:K198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="D202" sqref="D202"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="19.83203125" customWidth="1"/>
+    <col min="1" max="2" width="19.81640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="109.1640625" customWidth="1"/>
-    <col min="5" max="5" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="109.1796875" customWidth="1"/>
+    <col min="5" max="5" width="35.453125" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
     <col min="9" max="9" width="45" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4845,7 +4885,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="51">
+    <row r="2" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -4873,7 +4913,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -4902,7 +4942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -4931,7 +4971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -4960,7 +5000,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -4989,7 +5029,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -5016,7 +5056,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -5045,7 +5085,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -5074,7 +5114,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -5103,7 +5143,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
@@ -5132,7 +5172,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -5161,7 +5201,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -5190,7 +5230,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -5219,7 +5259,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -5248,7 +5288,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -5277,7 +5317,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -5306,7 +5346,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
@@ -5335,7 +5375,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -5361,7 +5401,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -5390,7 +5430,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -5419,7 +5459,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
@@ -5448,7 +5488,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
@@ -5477,7 +5517,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="34">
+    <row r="24" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -5506,7 +5546,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
@@ -5535,7 +5575,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>43</v>
       </c>
@@ -5564,7 +5604,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>159</v>
       </c>
@@ -5593,7 +5633,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>159</v>
       </c>
@@ -5622,7 +5662,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>159</v>
       </c>
@@ -5651,7 +5691,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>159</v>
       </c>
@@ -5680,7 +5720,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>159</v>
       </c>
@@ -5709,7 +5749,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>159</v>
       </c>
@@ -5738,7 +5778,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>159</v>
       </c>
@@ -5767,7 +5807,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>206</v>
       </c>
@@ -5796,7 +5836,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>206</v>
       </c>
@@ -5825,7 +5865,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="17">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>206</v>
       </c>
@@ -5854,7 +5894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="17">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>206</v>
       </c>
@@ -5883,7 +5923,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="17">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>206</v>
       </c>
@@ -5912,7 +5952,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="17">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>206</v>
       </c>
@@ -5941,7 +5981,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>206</v>
       </c>
@@ -5970,7 +6010,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="17">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>241</v>
       </c>
@@ -5999,7 +6039,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="17">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>241</v>
       </c>
@@ -6028,7 +6068,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="17">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>241</v>
       </c>
@@ -6057,7 +6097,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="17">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>241</v>
       </c>
@@ -6086,7 +6126,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="17">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>241</v>
       </c>
@@ -6115,7 +6155,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="17">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>241</v>
       </c>
@@ -6144,7 +6184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="17">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>241</v>
       </c>
@@ -6173,7 +6213,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="17">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>241</v>
       </c>
@@ -6202,7 +6242,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="17">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>241</v>
       </c>
@@ -6231,7 +6271,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="17">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>241</v>
       </c>
@@ -6260,7 +6300,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="17">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>241</v>
       </c>
@@ -6289,7 +6329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="17">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>241</v>
       </c>
@@ -6318,7 +6358,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="17">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>303</v>
       </c>
@@ -6347,7 +6387,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="17">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>303</v>
       </c>
@@ -6376,7 +6416,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="34">
+    <row r="55" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>303</v>
       </c>
@@ -6405,7 +6445,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="17">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>303</v>
       </c>
@@ -6434,7 +6474,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="17">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>303</v>
       </c>
@@ -6463,7 +6503,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="17">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>303</v>
       </c>
@@ -6492,7 +6532,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="17">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>303</v>
       </c>
@@ -6521,7 +6561,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="17">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>346</v>
       </c>
@@ -6550,7 +6590,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="17">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>346</v>
       </c>
@@ -6579,7 +6619,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>346</v>
       </c>
@@ -6608,7 +6648,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>346</v>
       </c>
@@ -6637,7 +6677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>346</v>
       </c>
@@ -6666,7 +6706,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>346</v>
       </c>
@@ -6695,7 +6735,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>346</v>
       </c>
@@ -6724,7 +6764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="34">
+    <row r="67" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>380</v>
       </c>
@@ -6753,7 +6793,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>380</v>
       </c>
@@ -6782,7 +6822,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>380</v>
       </c>
@@ -6811,7 +6851,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>380</v>
       </c>
@@ -6840,7 +6880,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>380</v>
       </c>
@@ -6869,7 +6909,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>400</v>
       </c>
@@ -6898,7 +6938,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>380</v>
       </c>
@@ -6927,7 +6967,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>380</v>
       </c>
@@ -6956,7 +6996,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>380</v>
       </c>
@@ -6985,7 +7025,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>380</v>
       </c>
@@ -7014,7 +7054,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>380</v>
       </c>
@@ -7043,7 +7083,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>400</v>
       </c>
@@ -7072,7 +7112,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>400</v>
       </c>
@@ -7101,7 +7141,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>407</v>
       </c>
@@ -7130,7 +7170,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>407</v>
       </c>
@@ -7159,7 +7199,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>407</v>
       </c>
@@ -7188,7 +7228,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>407</v>
       </c>
@@ -7217,7 +7257,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>407</v>
       </c>
@@ -7246,7 +7286,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>407</v>
       </c>
@@ -7275,7 +7315,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="34">
+    <row r="86" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>407</v>
       </c>
@@ -7304,7 +7344,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>407</v>
       </c>
@@ -7333,7 +7373,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>407</v>
       </c>
@@ -7362,7 +7402,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>407</v>
       </c>
@@ -7391,7 +7431,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>407</v>
       </c>
@@ -7420,7 +7460,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>517</v>
       </c>
@@ -7449,7 +7489,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>517</v>
       </c>
@@ -7478,7 +7518,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="34">
+    <row r="93" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>517</v>
       </c>
@@ -7507,7 +7547,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>517</v>
       </c>
@@ -7536,7 +7576,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>517</v>
       </c>
@@ -7565,7 +7605,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>516</v>
       </c>
@@ -7594,7 +7634,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>516</v>
       </c>
@@ -7623,7 +7663,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>516</v>
       </c>
@@ -7652,7 +7692,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>516</v>
       </c>
@@ -7681,7 +7721,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>516</v>
       </c>
@@ -7710,7 +7750,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>516</v>
       </c>
@@ -7739,7 +7779,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>577</v>
       </c>
@@ -7768,7 +7808,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>577</v>
       </c>
@@ -7797,7 +7837,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>577</v>
       </c>
@@ -7826,7 +7866,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>577</v>
       </c>
@@ -7855,7 +7895,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>577</v>
       </c>
@@ -7884,7 +7924,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>577</v>
       </c>
@@ -7913,7 +7953,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="34">
+    <row r="108" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>577</v>
       </c>
@@ -7942,7 +7982,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>577</v>
       </c>
@@ -7971,7 +8011,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>576</v>
       </c>
@@ -8000,7 +8040,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>576</v>
       </c>
@@ -8029,7 +8069,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="34">
+    <row r="112" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>639</v>
       </c>
@@ -8058,7 +8098,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>639</v>
       </c>
@@ -8087,7 +8127,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>639</v>
       </c>
@@ -8116,7 +8156,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>655</v>
       </c>
@@ -8145,7 +8185,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>658</v>
       </c>
@@ -8174,7 +8214,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>658</v>
       </c>
@@ -8203,7 +8243,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>658</v>
       </c>
@@ -8232,7 +8272,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>658</v>
       </c>
@@ -8261,7 +8301,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>691</v>
       </c>
@@ -8290,7 +8330,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>691</v>
       </c>
@@ -8319,7 +8359,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>691</v>
       </c>
@@ -8348,7 +8388,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>691</v>
       </c>
@@ -8377,7 +8417,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>691</v>
       </c>
@@ -8406,7 +8446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>691</v>
       </c>
@@ -8435,7 +8475,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
         <v>726</v>
       </c>
@@ -8464,7 +8504,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>726</v>
       </c>
@@ -8493,7 +8533,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>726</v>
       </c>
@@ -8522,7 +8562,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>725</v>
       </c>
@@ -8551,7 +8591,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="34">
+    <row r="130" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>725</v>
       </c>
@@ -8580,7 +8620,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="34">
+    <row r="131" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>725</v>
       </c>
@@ -8609,7 +8649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>725</v>
       </c>
@@ -8638,7 +8678,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>725</v>
       </c>
@@ -8667,7 +8707,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>725</v>
       </c>
@@ -8696,7 +8736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="34">
+    <row r="135" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>725</v>
       </c>
@@ -8725,7 +8765,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>725</v>
       </c>
@@ -8754,7 +8794,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>725</v>
       </c>
@@ -8783,7 +8823,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>725</v>
       </c>
@@ -8812,7 +8852,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>725</v>
       </c>
@@ -8841,7 +8881,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>725</v>
       </c>
@@ -8870,7 +8910,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>802</v>
       </c>
@@ -8899,7 +8939,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>802</v>
       </c>
@@ -8928,7 +8968,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>802</v>
       </c>
@@ -8957,7 +8997,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>802</v>
       </c>
@@ -8986,7 +9026,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="34">
+    <row r="145" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>802</v>
       </c>
@@ -9015,7 +9055,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>802</v>
       </c>
@@ -9044,7 +9084,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>834</v>
       </c>
@@ -9073,7 +9113,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>841</v>
       </c>
@@ -9102,7 +9142,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>841</v>
       </c>
@@ -9131,7 +9171,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>841</v>
       </c>
@@ -9160,7 +9200,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="34">
+    <row r="151" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>841</v>
       </c>
@@ -9189,7 +9229,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="34">
+    <row r="152" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>841</v>
       </c>
@@ -9218,7 +9258,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>841</v>
       </c>
@@ -9247,7 +9287,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>841</v>
       </c>
@@ -9276,7 +9316,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>841</v>
       </c>
@@ -9305,7 +9345,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>841</v>
       </c>
@@ -9334,7 +9374,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>841</v>
       </c>
@@ -9363,7 +9403,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="17">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>894</v>
       </c>
@@ -9392,7 +9432,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="34">
+    <row r="159" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>894</v>
       </c>
@@ -9421,7 +9461,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="17">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>894</v>
       </c>
@@ -9450,7 +9490,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="51">
+    <row r="161" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>894</v>
       </c>
@@ -9479,7 +9519,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="17">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
         <v>894</v>
       </c>
@@ -9508,7 +9548,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="17">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>894</v>
       </c>
@@ -9537,7 +9577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="17">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>924</v>
       </c>
@@ -9566,7 +9606,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="17">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>924</v>
       </c>
@@ -9595,7 +9635,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="17">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>924</v>
       </c>
@@ -9624,7 +9664,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="34">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>924</v>
       </c>
@@ -9653,7 +9693,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="17">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>924</v>
       </c>
@@ -9682,7 +9722,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="17">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>924</v>
       </c>
@@ -9711,7 +9751,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="17">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>924</v>
       </c>
@@ -9740,7 +9780,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="17">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>924</v>
       </c>
@@ -9769,7 +9809,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="34">
+    <row r="172" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>924</v>
       </c>
@@ -9798,7 +9838,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="17">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>924</v>
       </c>
@@ -9827,7 +9867,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="17">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>971</v>
       </c>
@@ -9856,7 +9896,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="17">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>971</v>
       </c>
@@ -9885,7 +9925,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="17">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>971</v>
       </c>
@@ -9914,7 +9954,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="17">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
         <v>971</v>
       </c>
@@ -9943,7 +9983,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="34">
+    <row r="178" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>971</v>
       </c>
@@ -9972,7 +10012,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="17">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>971</v>
       </c>
@@ -10001,7 +10041,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="17">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="9" t="s">
         <v>971</v>
       </c>
@@ -10030,7 +10070,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="17">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
         <v>971</v>
       </c>
@@ -10059,7 +10099,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="34">
+    <row r="182" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
         <v>971</v>
       </c>
@@ -10088,7 +10128,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="17">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
         <v>971</v>
       </c>
@@ -10117,7 +10157,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="34">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
         <v>971</v>
       </c>
@@ -10146,7 +10186,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="17">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="9" t="s">
         <v>971</v>
       </c>
@@ -10175,7 +10215,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="34">
+    <row r="186" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
         <v>1031</v>
       </c>
@@ -10204,7 +10244,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="17">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>1031</v>
       </c>
@@ -10233,7 +10273,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="17">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
         <v>1031</v>
       </c>
@@ -10262,7 +10302,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="17">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="9" t="s">
         <v>1031</v>
       </c>
@@ -10291,7 +10331,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="34">
+    <row r="190" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
         <v>1031</v>
       </c>
@@ -10320,7 +10360,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="17">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="9" t="s">
         <v>1031</v>
       </c>
@@ -10349,7 +10389,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="17">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="9" t="s">
         <v>1031</v>
       </c>
@@ -10378,7 +10418,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="17">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
         <v>1031</v>
       </c>
@@ -10407,53 +10447,53 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="34">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="9" t="s">
         <v>1073</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>309</v>
+        <v>1087</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>1076</v>
+        <v>165</v>
       </c>
       <c r="D194" s="13" t="s">
-        <v>1075</v>
+        <v>1088</v>
       </c>
       <c r="E194" s="14" t="s">
-        <v>1077</v>
+        <v>1089</v>
       </c>
       <c r="F194" s="11" t="s">
-        <v>1078</v>
+        <v>1090</v>
       </c>
       <c r="G194" s="11" t="s">
-        <v>11</v>
+        <v>1091</v>
       </c>
       <c r="H194" s="11" t="s">
         <v>317</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="34">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="9" t="s">
         <v>1073</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>1082</v>
+        <v>309</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="D195" s="13" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="E195" s="14" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F195" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G195" s="11" t="s">
         <v>11</v>
@@ -10465,36 +10505,36 @@
         <v>918</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="17">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
         <v>1073</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>735</v>
+        <v>1082</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>544</v>
+        <v>1074</v>
       </c>
       <c r="D196" s="13" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="E196" s="14" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="F196" s="11" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="G196" s="11" t="s">
-        <v>1041</v>
+        <v>11</v>
       </c>
       <c r="H196" s="11" t="s">
         <v>317</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="17">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
         <v>1073</v>
       </c>
@@ -10521,6 +10561,35 @@
       </c>
       <c r="I197" s="11" t="s">
         <v>1085</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" s="9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="D198" s="13" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E198" s="14" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F198" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G198" s="11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H198" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I198" s="11" t="s">
+        <v>1096</v>
       </c>
     </row>
   </sheetData>
